--- a/config_2.2/game_module_config_cjj.xlsx
+++ b/config_2.2/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4642,7 +4642,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C294" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A310" sqref="A310"/>
+      <selection pane="bottomRight" activeCell="A296" sqref="A296:A315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_2.2/game_module_config_cjj.xlsx
+++ b/config_2.2/game_module_config_cjj.xlsx
@@ -3154,14 +3154,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GameComAct1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameComAct1Manager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>通用活动模板1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4057,6 +4049,14 @@
       </rPr>
       <t>1号</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityTaskManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4639,10 +4639,10 @@
   <dimension ref="A1:AJ315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C294" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C249" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A296" sqref="A296:A315"/>
+      <selection pane="bottomRight" activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -10493,7 +10493,7 @@
         <v>633</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>634</v>
@@ -10608,7 +10608,7 @@
         <v>667</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>668</v>
@@ -11024,7 +11024,7 @@
         <v>734</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>735</v>
@@ -11050,7 +11050,7 @@
         <v>739</v>
       </c>
       <c r="C253" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>740</v>
@@ -11073,13 +11073,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="25" t="s">
+        <v>959</v>
+      </c>
+      <c r="C254" s="27" t="s">
         <v>741</v>
       </c>
-      <c r="C254" s="27" t="s">
-        <v>743</v>
-      </c>
       <c r="D254" s="25" t="s">
-        <v>742</v>
+        <v>960</v>
       </c>
       <c r="E254" s="27">
         <v>1</v>
@@ -11100,25 +11100,25 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="D255" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9" t="s">
         <v>747</v>
-      </c>
-      <c r="D255" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="9" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.5">
@@ -11126,25 +11126,25 @@
         <v>255</v>
       </c>
       <c r="B256" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="D256" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="I256" s="9" t="s">
         <v>751</v>
-      </c>
-      <c r="D256" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-      <c r="I256" s="9" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -11152,13 +11152,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D257" s="15" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E257" s="17">
         <v>1</v>
@@ -11171,7 +11171,7 @@
       </c>
       <c r="H257" s="17"/>
       <c r="I257" s="15" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11179,13 +11179,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D258" s="15" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E258" s="17">
         <v>0</v>
@@ -11197,7 +11197,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11205,14 +11205,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="C259" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="D259" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="C259" s="15" t="s">
-        <v>761</v>
-      </c>
-      <c r="D259" s="15" t="s">
-        <v>762</v>
-      </c>
       <c r="E259" s="17">
         <v>0</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="15" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11231,25 +11231,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="C260" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="D260" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="E260" s="17">
+        <v>1</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>764</v>
-      </c>
-      <c r="D260" s="15" t="s">
-        <v>765</v>
-      </c>
-      <c r="E260" s="17">
-        <v>1</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11257,25 +11257,25 @@
         <v>260</v>
       </c>
       <c r="B261" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="C261" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="D261" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="C261" s="15" t="s">
+      <c r="E261" s="17">
+        <v>0</v>
+      </c>
+      <c r="F261" s="17">
+        <v>1</v>
+      </c>
+      <c r="G261" s="17">
+        <v>1</v>
+      </c>
+      <c r="I261" s="15" t="s">
         <v>768</v>
-      </c>
-      <c r="D261" s="15" t="s">
-        <v>769</v>
-      </c>
-      <c r="E261" s="17">
-        <v>0</v>
-      </c>
-      <c r="F261" s="17">
-        <v>1</v>
-      </c>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="I261" s="15" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
@@ -11283,25 +11283,25 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>769</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="D262" t="s">
+        <v>770</v>
+      </c>
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262" s="12" t="s">
         <v>771</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="D262" t="s">
-        <v>772</v>
-      </c>
-      <c r="E262" s="5">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="I262" s="12" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5">
@@ -11309,13 +11309,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="D263" s="15" t="s">
         <v>775</v>
-      </c>
-      <c r="C263" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="D263" s="15" t="s">
-        <v>777</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11335,25 +11335,25 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="C264" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="D264" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="E264" s="17">
+        <v>0</v>
+      </c>
+      <c r="F264" s="17">
+        <v>0</v>
+      </c>
+      <c r="G264" s="17">
+        <v>0</v>
+      </c>
+      <c r="I264" s="15" t="s">
         <v>779</v>
-      </c>
-      <c r="D264" s="15" t="s">
-        <v>780</v>
-      </c>
-      <c r="E264" s="17">
-        <v>0</v>
-      </c>
-      <c r="F264" s="17">
-        <v>0</v>
-      </c>
-      <c r="G264" s="17">
-        <v>0</v>
-      </c>
-      <c r="I264" s="15" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11361,13 +11361,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="C265" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="D265" s="15" t="s">
         <v>782</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>783</v>
-      </c>
-      <c r="D265" s="15" t="s">
-        <v>784</v>
       </c>
       <c r="E265" s="17">
         <v>0</v>
@@ -11387,25 +11387,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="C266" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="D266" s="15" t="s">
         <v>785</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="17" t="s">
         <v>786</v>
-      </c>
-      <c r="D266" s="15" t="s">
-        <v>787</v>
-      </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="17" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11413,25 +11413,25 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="C267" s="15" t="s">
         <v>789</v>
       </c>
-      <c r="C267" s="15" t="s">
-        <v>791</v>
-      </c>
       <c r="D267" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="E267" s="17">
+        <v>0</v>
+      </c>
+      <c r="F267" s="17">
+        <v>0</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0</v>
+      </c>
+      <c r="I267" s="19" t="s">
         <v>790</v>
-      </c>
-      <c r="E267" s="17">
-        <v>0</v>
-      </c>
-      <c r="F267" s="17">
-        <v>0</v>
-      </c>
-      <c r="G267" s="17">
-        <v>0</v>
-      </c>
-      <c r="I267" s="19" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11439,13 +11439,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="C268" s="15" t="s">
         <v>793</v>
       </c>
-      <c r="C268" s="15" t="s">
-        <v>795</v>
-      </c>
       <c r="D268" s="18" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E268" s="17">
         <v>0</v>
@@ -11465,13 +11465,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E269" s="17">
         <v>0</v>
@@ -11491,13 +11491,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D270" s="18" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11517,13 +11517,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="D271" s="18" t="s">
         <v>802</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>803</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>804</v>
       </c>
       <c r="E271" s="17">
         <v>1</v>
@@ -11543,25 +11543,25 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="C272" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="C272" s="15" t="s">
-        <v>808</v>
-      </c>
       <c r="D272" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="E272" s="17">
+        <v>1</v>
+      </c>
+      <c r="F272" s="17">
+        <v>1</v>
+      </c>
+      <c r="G272" s="17">
+        <v>1</v>
+      </c>
+      <c r="I272" s="19" t="s">
         <v>807</v>
-      </c>
-      <c r="E272" s="17">
-        <v>1</v>
-      </c>
-      <c r="F272" s="17">
-        <v>1</v>
-      </c>
-      <c r="G272" s="17">
-        <v>1</v>
-      </c>
-      <c r="I272" s="19" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11569,14 +11569,14 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="D273" s="18" t="s">
         <v>810</v>
       </c>
-      <c r="C273" s="15" t="s">
-        <v>811</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>812</v>
-      </c>
       <c r="E273" s="17">
         <v>1</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>1</v>
       </c>
       <c r="I273" s="19" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11595,13 +11595,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
+        <v>812</v>
+      </c>
+      <c r="C274" s="15" t="s">
         <v>814</v>
       </c>
-      <c r="C274" s="15" t="s">
-        <v>816</v>
-      </c>
       <c r="D274" s="18" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E274" s="17">
         <v>1</v>
@@ -11613,7 +11613,7 @@
         <v>1</v>
       </c>
       <c r="I274" s="19" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11621,25 +11621,25 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D275" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="E275" s="17">
+        <v>0</v>
+      </c>
+      <c r="F275" s="17">
+        <v>0</v>
+      </c>
+      <c r="G275" s="17">
+        <v>0</v>
+      </c>
+      <c r="I275" s="19" t="s">
         <v>818</v>
-      </c>
-      <c r="E275" s="17">
-        <v>0</v>
-      </c>
-      <c r="F275" s="17">
-        <v>0</v>
-      </c>
-      <c r="G275" s="17">
-        <v>0</v>
-      </c>
-      <c r="I275" s="19" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11647,25 +11647,25 @@
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="C276" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="D276" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="E276" s="17">
+        <v>0</v>
+      </c>
+      <c r="F276" s="17">
+        <v>1</v>
+      </c>
+      <c r="G276" s="17">
+        <v>1</v>
+      </c>
+      <c r="I276" s="19" t="s">
         <v>822</v>
-      </c>
-      <c r="C276" s="15" t="s">
-        <v>821</v>
-      </c>
-      <c r="D276" s="18" t="s">
-        <v>823</v>
-      </c>
-      <c r="E276" s="17">
-        <v>0</v>
-      </c>
-      <c r="F276" s="17">
-        <v>1</v>
-      </c>
-      <c r="G276" s="17">
-        <v>1</v>
-      </c>
-      <c r="I276" s="19" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11673,22 +11673,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="E277" s="17">
+        <v>0</v>
+      </c>
+      <c r="F277" s="17">
+        <v>1</v>
+      </c>
+      <c r="G277" s="17">
+        <v>1</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>825</v>
-      </c>
-      <c r="C277" s="15" t="s">
-        <v>826</v>
-      </c>
-      <c r="E277" s="17">
-        <v>0</v>
-      </c>
-      <c r="F277" s="17">
-        <v>1</v>
-      </c>
-      <c r="G277" s="17">
-        <v>1</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="278" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11696,25 +11696,25 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="D278" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="E278" s="17">
+        <v>0</v>
+      </c>
+      <c r="F278" s="17">
+        <v>0</v>
+      </c>
+      <c r="G278" s="17">
+        <v>0</v>
+      </c>
+      <c r="I278" s="19" t="s">
         <v>828</v>
-      </c>
-      <c r="C278" s="15" t="s">
-        <v>897</v>
-      </c>
-      <c r="D278" s="18" t="s">
-        <v>829</v>
-      </c>
-      <c r="E278" s="17">
-        <v>0</v>
-      </c>
-      <c r="F278" s="17">
-        <v>0</v>
-      </c>
-      <c r="G278" s="17">
-        <v>0</v>
-      </c>
-      <c r="I278" s="19" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -11722,13 +11722,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D279" s="18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -11740,7 +11740,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="19" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -11748,22 +11748,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C280" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="19" t="s">
         <v>832</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="19" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -11771,13 +11771,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11789,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -11797,13 +11797,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="C282" s="15" t="s">
         <v>839</v>
       </c>
-      <c r="C282" s="15" t="s">
-        <v>841</v>
-      </c>
       <c r="D282" s="18" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -11815,7 +11815,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -11823,13 +11823,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C283" s="15" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -11841,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="I283" s="19" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.5">
@@ -11849,25 +11849,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="20" t="s">
+        <v>843</v>
+      </c>
+      <c r="C284" s="15" t="s">
+        <v>844</v>
+      </c>
+      <c r="D284" s="18" t="s">
         <v>845</v>
       </c>
-      <c r="C284" s="15" t="s">
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="19" t="s">
         <v>846</v>
-      </c>
-      <c r="D284" s="18" t="s">
-        <v>847</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="19" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="32" customFormat="1" ht="16.5">
@@ -11875,13 +11875,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="31" t="s">
+        <v>854</v>
+      </c>
+      <c r="C285" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="D285" s="31" t="s">
         <v>856</v>
-      </c>
-      <c r="C285" s="32" t="s">
-        <v>857</v>
-      </c>
-      <c r="D285" s="31" t="s">
-        <v>858</v>
       </c>
       <c r="E285" s="32">
         <v>1</v>
@@ -11901,25 +11901,25 @@
         <v>285</v>
       </c>
       <c r="B286" s="32" t="s">
+        <v>851</v>
+      </c>
+      <c r="C286" s="32" t="s">
+        <v>850</v>
+      </c>
+      <c r="D286" s="31" t="s">
+        <v>852</v>
+      </c>
+      <c r="E286" s="32">
+        <v>1</v>
+      </c>
+      <c r="F286" s="32">
+        <v>1</v>
+      </c>
+      <c r="G286" s="32">
+        <v>1</v>
+      </c>
+      <c r="I286" s="32" t="s">
         <v>853</v>
-      </c>
-      <c r="C286" s="32" t="s">
-        <v>852</v>
-      </c>
-      <c r="D286" s="31" t="s">
-        <v>854</v>
-      </c>
-      <c r="E286" s="32">
-        <v>1</v>
-      </c>
-      <c r="F286" s="32">
-        <v>1</v>
-      </c>
-      <c r="G286" s="32">
-        <v>1</v>
-      </c>
-      <c r="I286" s="32" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="32" customFormat="1" ht="16.5">
@@ -11927,13 +11927,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="32" t="s">
+        <v>857</v>
+      </c>
+      <c r="C287" s="32" t="s">
+        <v>858</v>
+      </c>
+      <c r="D287" s="31" t="s">
         <v>859</v>
-      </c>
-      <c r="C287" s="32" t="s">
-        <v>860</v>
-      </c>
-      <c r="D287" s="31" t="s">
-        <v>861</v>
       </c>
       <c r="E287" s="32">
         <v>1</v>
@@ -11953,13 +11953,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C288" s="30" t="s">
         <v>862</v>
       </c>
-      <c r="C288" s="30" t="s">
-        <v>864</v>
-      </c>
       <c r="D288" s="29" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E288" s="30">
         <v>0</v>
@@ -11979,13 +11979,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="C289" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="D289" s="15" t="s">
         <v>865</v>
-      </c>
-      <c r="C289" s="15" t="s">
-        <v>866</v>
-      </c>
-      <c r="D289" s="15" t="s">
-        <v>867</v>
       </c>
       <c r="E289" s="17">
         <v>0</v>
@@ -12005,25 +12005,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="C290" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="D290" s="18" t="s">
         <v>868</v>
       </c>
-      <c r="C290" s="15" t="s">
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="I290" s="19" t="s">
         <v>869</v>
-      </c>
-      <c r="D290" s="18" t="s">
-        <v>870</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="I290" s="19" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="291" spans="1:36" s="34" customFormat="1" ht="16.5">
@@ -12031,25 +12031,25 @@
         <v>290</v>
       </c>
       <c r="B291" s="34" t="s">
+        <v>870</v>
+      </c>
+      <c r="C291" s="34" t="s">
+        <v>871</v>
+      </c>
+      <c r="D291" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="C291" s="34" t="s">
+      <c r="E291" s="34">
+        <v>1</v>
+      </c>
+      <c r="F291" s="34">
+        <v>1</v>
+      </c>
+      <c r="G291" s="34">
+        <v>1</v>
+      </c>
+      <c r="I291" s="34" t="s">
         <v>873</v>
-      </c>
-      <c r="D291" s="34" t="s">
-        <v>874</v>
-      </c>
-      <c r="E291" s="34">
-        <v>1</v>
-      </c>
-      <c r="F291" s="34">
-        <v>1</v>
-      </c>
-      <c r="G291" s="34">
-        <v>1</v>
-      </c>
-      <c r="I291" s="34" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="292" spans="1:36" s="34" customFormat="1" ht="16.5">
@@ -12057,14 +12057,14 @@
         <v>291</v>
       </c>
       <c r="B292" s="34" t="s">
+        <v>874</v>
+      </c>
+      <c r="C292" s="34" t="s">
+        <v>875</v>
+      </c>
+      <c r="D292" s="34" t="s">
         <v>876</v>
       </c>
-      <c r="C292" s="34" t="s">
-        <v>877</v>
-      </c>
-      <c r="D292" s="34" t="s">
-        <v>878</v>
-      </c>
       <c r="E292" s="34">
         <v>1</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>1</v>
       </c>
       <c r="I292" s="34" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="293" spans="1:36" ht="16.5">
@@ -12083,13 +12083,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="20" t="s">
+        <v>878</v>
+      </c>
+      <c r="C293" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="D293" s="20" t="s">
         <v>880</v>
-      </c>
-      <c r="C293" s="15" t="s">
-        <v>881</v>
-      </c>
-      <c r="D293" s="20" t="s">
-        <v>882</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -12109,13 +12109,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="20" t="s">
+        <v>881</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>882</v>
+      </c>
+      <c r="D294" s="20" t="s">
         <v>883</v>
-      </c>
-      <c r="C294" s="15" t="s">
-        <v>884</v>
-      </c>
-      <c r="D294" s="20" t="s">
-        <v>885</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -12135,13 +12135,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="18" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C295" s="15" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D295" s="18" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E295" s="17">
         <v>0</v>
@@ -12162,13 +12162,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="C296" s="15" t="s">
+        <v>889</v>
+      </c>
+      <c r="D296" s="18" t="s">
         <v>890</v>
-      </c>
-      <c r="C296" s="15" t="s">
-        <v>891</v>
-      </c>
-      <c r="D296" s="18" t="s">
-        <v>892</v>
       </c>
       <c r="E296" s="17">
         <v>0</v>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="19" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
@@ -12216,13 +12216,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="18" t="s">
+        <v>892</v>
+      </c>
+      <c r="C297" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="D297" s="18" t="s">
         <v>894</v>
-      </c>
-      <c r="C297" s="15" t="s">
-        <v>895</v>
-      </c>
-      <c r="D297" s="18" t="s">
-        <v>896</v>
       </c>
       <c r="E297" s="17">
         <v>0</v>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="19" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12270,10 +12270,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="18" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D298" s="17"/>
       <c r="E298" s="17">
@@ -12287,7 +12287,7 @@
       </c>
       <c r="H298" s="17"/>
       <c r="I298" s="15" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12322,13 +12322,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="18" t="s">
+        <v>897</v>
+      </c>
+      <c r="C299" s="15" t="s">
+        <v>898</v>
+      </c>
+      <c r="D299" s="18" t="s">
         <v>899</v>
-      </c>
-      <c r="C299" s="15" t="s">
-        <v>900</v>
-      </c>
-      <c r="D299" s="18" t="s">
-        <v>901</v>
       </c>
       <c r="E299" s="17">
         <v>0</v>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="H299" s="17"/>
       <c r="I299" s="19" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12376,13 +12376,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="18" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C300" s="15" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D300" s="18" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E300" s="17">
         <v>1</v>
@@ -12395,7 +12395,7 @@
       </c>
       <c r="H300" s="17"/>
       <c r="I300" s="19" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J300" s="17"/>
       <c r="K300" s="17"/>
@@ -12430,13 +12430,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="26" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D301" s="26" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E301" s="27">
         <v>1</v>
@@ -12449,7 +12449,7 @@
       </c>
       <c r="H301" s="27"/>
       <c r="I301" s="25" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12484,13 +12484,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="26" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C302" s="25" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D302" s="26" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E302" s="27">
         <v>1</v>
@@ -12503,7 +12503,7 @@
       </c>
       <c r="H302" s="27"/>
       <c r="I302" s="25" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12511,13 +12511,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="26" t="s">
+        <v>905</v>
+      </c>
+      <c r="C303" s="26" t="s">
+        <v>906</v>
+      </c>
+      <c r="D303" s="26" t="s">
         <v>907</v>
-      </c>
-      <c r="C303" s="26" t="s">
-        <v>908</v>
-      </c>
-      <c r="D303" s="26" t="s">
-        <v>909</v>
       </c>
       <c r="E303" s="27">
         <v>1</v>
@@ -12538,13 +12538,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="C304" s="17" t="s">
+        <v>909</v>
+      </c>
+      <c r="D304" s="17" t="s">
         <v>910</v>
-      </c>
-      <c r="C304" s="17" t="s">
-        <v>911</v>
-      </c>
-      <c r="D304" s="17" t="s">
-        <v>912</v>
       </c>
       <c r="E304" s="17">
         <v>1</v>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="H304" s="17"/>
       <c r="I304" s="19" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5">
@@ -12565,13 +12565,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C305" s="15" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D305" s="18" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E305" s="17">
         <v>0</v>
@@ -12584,7 +12584,7 @@
       </c>
       <c r="H305" s="17"/>
       <c r="I305" s="15" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
@@ -12592,13 +12592,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="18" t="s">
+        <v>921</v>
+      </c>
+      <c r="C306" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="D306" s="18" t="s">
         <v>923</v>
-      </c>
-      <c r="C306" s="15" t="s">
-        <v>924</v>
-      </c>
-      <c r="D306" s="18" t="s">
-        <v>925</v>
       </c>
       <c r="E306" s="17">
         <v>1</v>
@@ -12611,7 +12611,7 @@
       </c>
       <c r="H306" s="17"/>
       <c r="I306" s="15" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12619,13 +12619,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="26" t="s">
+        <v>924</v>
+      </c>
+      <c r="C307" s="25" t="s">
+        <v>925</v>
+      </c>
+      <c r="D307" s="26" t="s">
         <v>926</v>
-      </c>
-      <c r="C307" s="25" t="s">
-        <v>927</v>
-      </c>
-      <c r="D307" s="26" t="s">
-        <v>928</v>
       </c>
       <c r="E307" s="27">
         <v>1</v>
@@ -12638,7 +12638,7 @@
       </c>
       <c r="H307" s="27"/>
       <c r="I307" s="25" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12646,13 +12646,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="26" t="s">
+        <v>929</v>
+      </c>
+      <c r="C308" s="25" t="s">
+        <v>930</v>
+      </c>
+      <c r="D308" s="26" t="s">
         <v>931</v>
-      </c>
-      <c r="C308" s="25" t="s">
-        <v>932</v>
-      </c>
-      <c r="D308" s="26" t="s">
-        <v>933</v>
       </c>
       <c r="E308" s="27">
         <v>1</v>
@@ -12665,7 +12665,7 @@
       </c>
       <c r="H308" s="27"/>
       <c r="I308" s="25" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5">
@@ -12673,13 +12673,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="18" t="s">
+        <v>935</v>
+      </c>
+      <c r="C309" s="15" t="s">
+        <v>936</v>
+      </c>
+      <c r="D309" s="18" t="s">
         <v>937</v>
-      </c>
-      <c r="C309" s="15" t="s">
-        <v>938</v>
-      </c>
-      <c r="D309" s="18" t="s">
-        <v>939</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12696,13 +12696,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="C310" s="25" t="s">
+        <v>939</v>
+      </c>
+      <c r="D310" s="26" t="s">
         <v>940</v>
-      </c>
-      <c r="C310" s="25" t="s">
-        <v>941</v>
-      </c>
-      <c r="D310" s="26" t="s">
-        <v>942</v>
       </c>
       <c r="E310" s="27">
         <v>1</v>
@@ -12715,7 +12715,7 @@
       </c>
       <c r="H310" s="27"/>
       <c r="I310" s="25" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="17.25">
@@ -12723,13 +12723,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="24" t="s">
+        <v>942</v>
+      </c>
+      <c r="C311" s="25" t="s">
+        <v>943</v>
+      </c>
+      <c r="D311" s="24" t="s">
         <v>944</v>
-      </c>
-      <c r="C311" s="25" t="s">
-        <v>945</v>
-      </c>
-      <c r="D311" s="24" t="s">
-        <v>946</v>
       </c>
       <c r="E311" s="27">
         <v>1</v>
@@ -12750,13 +12750,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="35" t="s">
+        <v>945</v>
+      </c>
+      <c r="C312" s="36" t="s">
+        <v>946</v>
+      </c>
+      <c r="D312" s="35" t="s">
         <v>947</v>
-      </c>
-      <c r="C312" s="36" t="s">
-        <v>948</v>
-      </c>
-      <c r="D312" s="35" t="s">
-        <v>949</v>
       </c>
       <c r="E312" s="23">
         <v>1</v>
@@ -12769,7 +12769,7 @@
       </c>
       <c r="H312" s="23"/>
       <c r="I312" s="37" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="17.25">
@@ -12777,13 +12777,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="38" t="s">
+        <v>949</v>
+      </c>
+      <c r="C313" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="D313" s="38" t="s">
         <v>951</v>
-      </c>
-      <c r="C313" s="36" t="s">
-        <v>952</v>
-      </c>
-      <c r="D313" s="38" t="s">
-        <v>953</v>
       </c>
       <c r="E313" s="23">
         <v>1</v>
@@ -12796,7 +12796,7 @@
       </c>
       <c r="H313" s="23"/>
       <c r="I313" s="36" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12804,10 +12804,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="35" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C314" s="36" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D314" s="23"/>
       <c r="E314" s="23">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="H314" s="23"/>
       <c r="I314" s="36" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
@@ -12829,10 +12829,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="35" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C315" s="36" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D315" s="23"/>
       <c r="E315" s="23">
@@ -12846,7 +12846,7 @@
       </c>
       <c r="H315" s="23"/>
       <c r="I315" s="36" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/game_module_config_cjj.xlsx
+++ b/config_2.2/game_module_config_cjj.xlsx
@@ -3811,10 +3811,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>元旦福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_013_DLFLManager</t>
   </si>
   <si>
@@ -4162,6 +4158,10 @@
   </si>
   <si>
     <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利（半年）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4792,7 +4792,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C297" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D301" sqref="D301"/>
+      <selection pane="bottomRight" activeCell="C305" sqref="C305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11223,13 +11223,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="24" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C254" s="25" t="s">
         <v>741</v>
       </c>
       <c r="D254" s="24" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E254" s="25">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>752</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D257" s="15" t="s">
         <v>753</v>
@@ -11321,7 +11321,7 @@
       </c>
       <c r="H257" s="17"/>
       <c r="I257" s="15" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12423,7 +12423,7 @@
         <v>896</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D298" s="17"/>
       <c r="E298" s="17">
@@ -12437,7 +12437,7 @@
       </c>
       <c r="H298" s="17"/>
       <c r="I298" s="15" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12580,13 +12580,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C301" s="44" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D301" s="43" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E301" s="45">
         <v>1</v>
@@ -12599,7 +12599,7 @@
       </c>
       <c r="H301" s="45"/>
       <c r="I301" s="44" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12634,13 +12634,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="43" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C302" s="44" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D302" s="43" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E302" s="45">
         <v>1</v>
@@ -12653,7 +12653,7 @@
       </c>
       <c r="H302" s="45"/>
       <c r="I302" s="44" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12661,13 +12661,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="43" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C303" s="43" t="s">
         <v>904</v>
       </c>
       <c r="D303" s="43" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E303" s="45">
         <v>1</v>
@@ -12715,16 +12715,16 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C305" s="15" t="s">
+        <v>974</v>
+      </c>
+      <c r="D305" s="18" t="s">
         <v>909</v>
       </c>
-      <c r="D305" s="18" t="s">
-        <v>910</v>
-      </c>
       <c r="E305" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F305" s="17">
         <v>1</v>
@@ -12734,7 +12734,7 @@
       </c>
       <c r="H305" s="17"/>
       <c r="I305" s="15" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
@@ -12742,13 +12742,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="40" t="s">
+        <v>917</v>
+      </c>
+      <c r="C306" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="C306" s="41" t="s">
+      <c r="D306" s="40" t="s">
         <v>919</v>
-      </c>
-      <c r="D306" s="40" t="s">
-        <v>920</v>
       </c>
       <c r="E306" s="30">
         <v>1</v>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="H306" s="30"/>
       <c r="I306" s="41" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="307" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12769,14 +12769,14 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
+        <v>920</v>
+      </c>
+      <c r="C307" s="15" t="s">
         <v>921</v>
       </c>
-      <c r="C307" s="15" t="s">
+      <c r="D307" s="18" t="s">
         <v>922</v>
       </c>
-      <c r="D307" s="18" t="s">
-        <v>923</v>
-      </c>
       <c r="E307" s="17">
         <v>1</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>1</v>
       </c>
       <c r="I307" s="15" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12795,25 +12795,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="C308" s="15" t="s">
         <v>925</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="D308" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="D308" s="18" t="s">
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="I308" s="15" t="s">
         <v>927</v>
-      </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5">
@@ -12821,13 +12821,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="18" t="s">
+        <v>930</v>
+      </c>
+      <c r="C309" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="D309" s="18" t="s">
         <v>932</v>
-      </c>
-      <c r="D309" s="18" t="s">
-        <v>933</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12844,25 +12844,25 @@
         <v>309</v>
       </c>
       <c r="B310" s="39" t="s">
+        <v>933</v>
+      </c>
+      <c r="C310" s="15" t="s">
         <v>934</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="D310" s="18" t="s">
         <v>935</v>
       </c>
-      <c r="D310" s="18" t="s">
+      <c r="E310" s="17">
+        <v>1</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="I310" s="15" t="s">
         <v>936</v>
-      </c>
-      <c r="E310" s="17">
-        <v>1</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="I310" s="15" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -12870,13 +12870,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="39" t="s">
+        <v>937</v>
+      </c>
+      <c r="C311" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="D311" s="39" t="s">
         <v>939</v>
-      </c>
-      <c r="D311" s="39" t="s">
-        <v>940</v>
       </c>
       <c r="E311" s="17">
         <v>1</v>
@@ -12896,25 +12896,25 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="C312" s="15" t="s">
         <v>941</v>
       </c>
-      <c r="C312" s="15" t="s">
+      <c r="D312" s="18" t="s">
         <v>942</v>
       </c>
-      <c r="D312" s="18" t="s">
+      <c r="E312" s="17">
+        <v>1</v>
+      </c>
+      <c r="F312" s="17">
+        <v>1</v>
+      </c>
+      <c r="G312" s="17">
+        <v>1</v>
+      </c>
+      <c r="I312" s="19" t="s">
         <v>943</v>
-      </c>
-      <c r="E312" s="17">
-        <v>1</v>
-      </c>
-      <c r="F312" s="17">
-        <v>1</v>
-      </c>
-      <c r="G312" s="17">
-        <v>1</v>
-      </c>
-      <c r="I312" s="19" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -12922,25 +12922,25 @@
         <v>312</v>
       </c>
       <c r="B313" s="39" t="s">
+        <v>944</v>
+      </c>
+      <c r="C313" s="15" t="s">
         <v>945</v>
       </c>
-      <c r="C313" s="15" t="s">
+      <c r="D313" s="39" t="s">
         <v>946</v>
       </c>
-      <c r="D313" s="39" t="s">
+      <c r="E313" s="17">
+        <v>1</v>
+      </c>
+      <c r="F313" s="17">
+        <v>1</v>
+      </c>
+      <c r="G313" s="17">
+        <v>1</v>
+      </c>
+      <c r="I313" s="15" t="s">
         <v>947</v>
-      </c>
-      <c r="E313" s="17">
-        <v>1</v>
-      </c>
-      <c r="F313" s="17">
-        <v>1</v>
-      </c>
-      <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="15" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12948,10 +12948,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="31" t="s">
+        <v>949</v>
+      </c>
+      <c r="C314" s="32" t="s">
         <v>950</v>
-      </c>
-      <c r="C314" s="32" t="s">
-        <v>951</v>
       </c>
       <c r="D314" s="23"/>
       <c r="E314" s="23">
@@ -12965,7 +12965,7 @@
       </c>
       <c r="H314" s="23"/>
       <c r="I314" s="32" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
@@ -12973,10 +12973,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="31" t="s">
+        <v>951</v>
+      </c>
+      <c r="C315" s="32" t="s">
         <v>952</v>
-      </c>
-      <c r="C315" s="32" t="s">
-        <v>953</v>
       </c>
       <c r="D315" s="23"/>
       <c r="E315" s="23">
@@ -12990,7 +12990,7 @@
       </c>
       <c r="H315" s="23"/>
       <c r="I315" s="32" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="16.5">
@@ -12998,10 +12998,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="36" t="s">
+        <v>958</v>
+      </c>
+      <c r="C316" s="37" t="s">
         <v>959</v>
-      </c>
-      <c r="C316" s="37" t="s">
-        <v>960</v>
       </c>
       <c r="D316" s="38"/>
       <c r="E316" s="38">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="H316" s="38"/>
       <c r="I316" s="37" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="16.5">
@@ -13023,10 +13023,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="36" t="s">
+        <v>961</v>
+      </c>
+      <c r="C317" s="37" t="s">
         <v>962</v>
-      </c>
-      <c r="C317" s="37" t="s">
-        <v>963</v>
       </c>
       <c r="D317" s="38"/>
       <c r="E317" s="38">
@@ -13040,7 +13040,7 @@
       </c>
       <c r="H317" s="38"/>
       <c r="I317" s="37" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13048,7 +13048,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="36" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C318" s="38"/>
       <c r="D318" s="38"/>
@@ -13063,7 +13063,7 @@
       </c>
       <c r="H318" s="38"/>
       <c r="I318" s="37" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13071,7 +13071,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="36" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C319" s="38"/>
       <c r="D319" s="38"/>
@@ -13086,7 +13086,7 @@
       </c>
       <c r="H319" s="38"/>
       <c r="I319" s="37" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -13094,10 +13094,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="36" t="s">
+        <v>968</v>
+      </c>
+      <c r="C320" s="37" t="s">
         <v>969</v>
-      </c>
-      <c r="C320" s="37" t="s">
-        <v>970</v>
       </c>
       <c r="D320" s="38"/>
       <c r="E320" s="38">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="H320" s="38"/>
       <c r="I320" s="37" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16.5">
@@ -13119,10 +13119,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="36" t="s">
+        <v>970</v>
+      </c>
+      <c r="C321" s="37" t="s">
         <v>971</v>
-      </c>
-      <c r="C321" s="37" t="s">
-        <v>972</v>
       </c>
       <c r="D321" s="38"/>
       <c r="E321" s="38">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="H321" s="38"/>
       <c r="I321" s="37" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/game_module_config_cjj.xlsx
+++ b/config_2.2/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="974">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4153,6 +4153,13 @@
   </si>
   <si>
     <t>act_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style</t>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4355,7 +4362,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4499,6 +4506,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4777,13 +4787,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ320"/>
+  <dimension ref="A1:AJ321"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C298" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomRight" activeCell="B325" sqref="B325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13104,6 +13114,26 @@
         <v>958</v>
       </c>
     </row>
+    <row r="321" spans="1:9" ht="16.5">
+      <c r="A321" s="16">
+        <v>320</v>
+      </c>
+      <c r="B321" s="48" t="s">
+        <v>972</v>
+      </c>
+      <c r="E321" s="38">
+        <v>1</v>
+      </c>
+      <c r="F321" s="38">
+        <v>1</v>
+      </c>
+      <c r="G321" s="38">
+        <v>1</v>
+      </c>
+      <c r="I321" s="19" t="s">
+        <v>973</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_2.2/game_module_config_cjj.xlsx
+++ b/config_2.2/game_module_config_cjj.xlsx
@@ -4160,7 +4160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4209,6 +4209,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4241,7 +4247,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4358,6 +4364,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4639,10 +4654,10 @@
   <dimension ref="A1:AJ315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C249" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C257" sqref="C257"/>
+      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6583,29 +6598,29 @@
         <v>645</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5">
-      <c r="A75" s="5">
+    <row r="75" spans="1:9" s="40" customFormat="1" ht="16.5">
+      <c r="A75" s="39">
         <v>74</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="39" t="s">
         <v>659</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="5">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="I75" s="11" t="s">
+      <c r="E75" s="39">
+        <v>0</v>
+      </c>
+      <c r="F75" s="40">
+        <v>0</v>
+      </c>
+      <c r="G75" s="40">
+        <v>0</v>
+      </c>
+      <c r="I75" s="41" t="s">
         <v>647</v>
       </c>
     </row>
@@ -11082,13 +11097,13 @@
         <v>960</v>
       </c>
       <c r="E254" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G254" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254" s="27"/>
       <c r="I254" s="25" t="s">

--- a/config_2.2/game_module_config_cjj.xlsx
+++ b/config_2.2/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="975">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4022,7 +4022,38 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_001_ygbd</t>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_002_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利（半年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style</t>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_001_dlphb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4042,23 +4073,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>1号</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_002_bzphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_002_dlphb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4066,87 +4086,48 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>2月8号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_003_taiyang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳掉落皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_004_baozhu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹掉落皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_001_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>2月8日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_003_taiyang</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_004_baozhu</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_001_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_002_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_JZSJBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_BY_HHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元旦福利（半年）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style</t>
+    <t>活动皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>永久</t>
@@ -4352,7 +4333,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4497,8 +4478,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4780,10 +4764,10 @@
   <dimension ref="A1:AJ320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C235" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C301" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G253" sqref="G253"/>
+      <selection pane="bottomRight" activeCell="B327" sqref="B327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12089,29 +12073,29 @@
         <v>641</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A288" s="16">
+    <row r="288" spans="1:9" s="38" customFormat="1" ht="16.5">
+      <c r="A288" s="48">
         <v>287</v>
       </c>
-      <c r="B288" s="15" t="s">
+      <c r="B288" s="37" t="s">
         <v>860</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="C288" s="37" t="s">
         <v>861</v>
       </c>
-      <c r="D288" s="15" t="s">
+      <c r="D288" s="37" t="s">
         <v>862</v>
       </c>
-      <c r="E288" s="17">
-        <v>0</v>
-      </c>
-      <c r="F288" s="17">
-        <v>0</v>
-      </c>
-      <c r="G288" s="17">
-        <v>0</v>
-      </c>
-      <c r="I288" s="15" t="s">
+      <c r="E288" s="38">
+        <v>1</v>
+      </c>
+      <c r="F288" s="38">
+        <v>1</v>
+      </c>
+      <c r="G288" s="38">
+        <v>1</v>
+      </c>
+      <c r="I288" s="37" t="s">
         <v>733</v>
       </c>
     </row>
@@ -12493,13 +12477,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="43" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="C299" s="44" t="s">
         <v>922</v>
       </c>
       <c r="D299" s="43" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="E299" s="45">
         <v>1</v>
@@ -12547,13 +12531,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="43" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="C300" s="44" t="s">
         <v>921</v>
       </c>
       <c r="D300" s="43" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="E300" s="45">
         <v>1</v>
@@ -12631,7 +12615,7 @@
         <v>907</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="D303" s="18" t="s">
         <v>905</v>
@@ -12911,10 +12895,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="36" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="C314" s="37" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="D314" s="38"/>
       <c r="E314" s="38">
@@ -12928,7 +12912,7 @@
       </c>
       <c r="H314" s="38"/>
       <c r="I314" s="37" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
@@ -12936,10 +12920,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="36" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="C315" s="37" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="D315" s="38"/>
       <c r="E315" s="38">
@@ -12953,7 +12937,7 @@
       </c>
       <c r="H315" s="38"/>
       <c r="I315" s="37" t="s">
-        <v>955</v>
+        <v>964</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12961,9 +12945,11 @@
         <v>315</v>
       </c>
       <c r="B316" s="36" t="s">
-        <v>956</v>
-      </c>
-      <c r="C316" s="38"/>
+        <v>965</v>
+      </c>
+      <c r="C316" s="38" t="s">
+        <v>966</v>
+      </c>
       <c r="D316" s="38"/>
       <c r="E316" s="38">
         <v>1</v>
@@ -12976,17 +12962,19 @@
       </c>
       <c r="H316" s="38"/>
       <c r="I316" s="37" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="16.5">
       <c r="A317" s="16">
         <v>316</v>
       </c>
       <c r="B317" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="C317" s="38"/>
+        <v>967</v>
+      </c>
+      <c r="C317" s="37" t="s">
+        <v>968</v>
+      </c>
       <c r="D317" s="38"/>
       <c r="E317" s="38">
         <v>1</v>
@@ -12999,7 +12987,7 @@
       </c>
       <c r="H317" s="38"/>
       <c r="I317" s="37" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
@@ -13007,10 +12995,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="36" t="s">
-        <v>960</v>
+        <v>969</v>
       </c>
       <c r="C318" s="37" t="s">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="D318" s="38"/>
       <c r="E318" s="38">
@@ -13024,7 +13012,7 @@
       </c>
       <c r="H318" s="38"/>
       <c r="I318" s="37" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
@@ -13032,10 +13020,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="36" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="C319" s="37" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="D319" s="38"/>
       <c r="E319" s="38">
@@ -13049,16 +13037,20 @@
       </c>
       <c r="H319" s="38"/>
       <c r="I319" s="37" t="s">
-        <v>955</v>
+        <v>972</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
       <c r="A320" s="16">
         <v>319</v>
       </c>
-      <c r="B320" s="48" t="s">
-        <v>969</v>
-      </c>
+      <c r="B320" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="C320" s="37" t="s">
+        <v>973</v>
+      </c>
+      <c r="D320" s="38"/>
       <c r="E320" s="38">
         <v>1</v>
       </c>
@@ -13068,8 +13060,9 @@
       <c r="G320" s="38">
         <v>1</v>
       </c>
-      <c r="I320" s="19" t="s">
-        <v>970</v>
+      <c r="H320" s="38"/>
+      <c r="I320" s="49" t="s">
+        <v>974</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/game_module_config_cjj.xlsx
+++ b/config_2.2/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="975">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4059,6 +4059,108 @@
   </si>
   <si>
     <t>Act_TYBYDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_001_ygbd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_002_bzphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_003_taiyang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_004_baozhu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_001_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_002_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹换好礼</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4162,7 +4264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4217,6 +4319,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4249,7 +4363,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4322,19 +4436,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4349,9 +4454,6 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4359,12 +4461,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4375,6 +4471,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4653,18 +4785,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ315"/>
+  <dimension ref="A1:AJ321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C285" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C300" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B303" sqref="B303"/>
+      <selection pane="bottomRight" activeCell="E312" sqref="E312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="17" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
@@ -4676,7 +4808,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4705,7 +4837,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4731,7 +4863,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
-      <c r="A3" s="5">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -4757,7 +4889,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="5">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -4783,7 +4915,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="5">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -4809,7 +4941,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="5">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -4835,7 +4967,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
-      <c r="A7" s="5">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -4861,7 +4993,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
-      <c r="A8" s="5">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -4887,7 +5019,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
-      <c r="A9" s="5">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4913,7 +5045,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
-      <c r="A10" s="5">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -4939,7 +5071,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
-      <c r="A11" s="5">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -4965,7 +5097,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
-      <c r="A12" s="5">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -4991,7 +5123,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
-      <c r="A13" s="5">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -5017,7 +5149,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
-      <c r="A14" s="5">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -5043,7 +5175,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
-      <c r="A15" s="5">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5069,7 +5201,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
-      <c r="A16" s="5">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -5095,7 +5227,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5">
-      <c r="A17" s="5">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -5121,7 +5253,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5">
-      <c r="A18" s="5">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -5147,7 +5279,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
-      <c r="A19" s="5">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -5173,7 +5305,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
-      <c r="A20" s="5">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -5199,7 +5331,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5">
-      <c r="A21" s="5">
+      <c r="A21" s="16">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -5225,7 +5357,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
-      <c r="A22" s="5">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -5251,7 +5383,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5">
-      <c r="A23" s="5">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -5277,7 +5409,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5">
-      <c r="A24" s="5">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -5303,7 +5435,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5">
-      <c r="A25" s="5">
+      <c r="A25" s="16">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -5329,7 +5461,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
-      <c r="A26" s="5">
+      <c r="A26" s="16">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -5355,7 +5487,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
-      <c r="A27" s="5">
+      <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -5381,7 +5513,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5">
-      <c r="A28" s="5">
+      <c r="A28" s="16">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -5407,7 +5539,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5">
-      <c r="A29" s="5">
+      <c r="A29" s="16">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -5433,7 +5565,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5">
-      <c r="A30" s="5">
+      <c r="A30" s="16">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -5459,7 +5591,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5">
-      <c r="A31" s="5">
+      <c r="A31" s="16">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -5485,7 +5617,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5">
-      <c r="A32" s="5">
+      <c r="A32" s="16">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -5511,7 +5643,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5">
-      <c r="A33" s="5">
+      <c r="A33" s="16">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -5537,7 +5669,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5">
-      <c r="A34" s="5">
+      <c r="A34" s="16">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -5563,7 +5695,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5">
-      <c r="A35" s="5">
+      <c r="A35" s="16">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -5589,7 +5721,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5">
-      <c r="A36" s="5">
+      <c r="A36" s="16">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -5615,7 +5747,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5">
-      <c r="A37" s="5">
+      <c r="A37" s="16">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -5641,7 +5773,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
-      <c r="A38" s="5">
+      <c r="A38" s="16">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -5667,7 +5799,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
-      <c r="A39" s="5">
+      <c r="A39" s="16">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -5693,7 +5825,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
-      <c r="A40" s="5">
+      <c r="A40" s="16">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -5719,7 +5851,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
-      <c r="A41" s="5">
+      <c r="A41" s="16">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -5745,7 +5877,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
-      <c r="A42" s="5">
+      <c r="A42" s="16">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -5771,7 +5903,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5">
-      <c r="A43" s="5">
+      <c r="A43" s="16">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -5797,7 +5929,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
-      <c r="A44" s="5">
+      <c r="A44" s="16">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -5823,7 +5955,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5">
-      <c r="A45" s="5">
+      <c r="A45" s="16">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -5849,7 +5981,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5">
-      <c r="A46" s="5">
+      <c r="A46" s="16">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -5875,7 +6007,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5">
-      <c r="A47" s="5">
+      <c r="A47" s="16">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -5901,7 +6033,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5">
-      <c r="A48" s="5">
+      <c r="A48" s="16">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -5927,7 +6059,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5">
-      <c r="A49" s="5">
+      <c r="A49" s="16">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -5953,7 +6085,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5">
-      <c r="A50" s="5">
+      <c r="A50" s="16">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -5979,7 +6111,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
-      <c r="A51" s="5">
+      <c r="A51" s="16">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -6005,7 +6137,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5">
-      <c r="A52" s="5">
+      <c r="A52" s="16">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -6029,7 +6161,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A53" s="5">
+      <c r="A53" s="16">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -6055,7 +6187,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5">
-      <c r="A54" s="5">
+      <c r="A54" s="16">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -6081,7 +6213,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5">
-      <c r="A55" s="5">
+      <c r="A55" s="16">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -6107,7 +6239,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5">
-      <c r="A56" s="5">
+      <c r="A56" s="16">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -6133,7 +6265,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5">
-      <c r="A57" s="5">
+      <c r="A57" s="16">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -6159,7 +6291,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5">
-      <c r="A58" s="5">
+      <c r="A58" s="16">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -6185,7 +6317,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
-      <c r="A59" s="5">
+      <c r="A59" s="16">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -6211,7 +6343,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5">
-      <c r="A60" s="5">
+      <c r="A60" s="16">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -6237,7 +6369,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
-      <c r="A61" s="5">
+      <c r="A61" s="16">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -6263,7 +6395,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5">
-      <c r="A62" s="5">
+      <c r="A62" s="16">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -6289,7 +6421,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
-      <c r="A63" s="5">
+      <c r="A63" s="16">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -6315,7 +6447,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
-      <c r="A64" s="5">
+      <c r="A64" s="16">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -6341,7 +6473,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5">
-      <c r="A65" s="5">
+      <c r="A65" s="16">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -6367,7 +6499,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5">
-      <c r="A66" s="5">
+      <c r="A66" s="16">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -6393,7 +6525,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5">
-      <c r="A67" s="5">
+      <c r="A67" s="16">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -6419,7 +6551,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5">
-      <c r="A68" s="5">
+      <c r="A68" s="16">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -6445,7 +6577,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5">
-      <c r="A69" s="5">
+      <c r="A69" s="16">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -6471,7 +6603,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5">
-      <c r="A70" s="5">
+      <c r="A70" s="16">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -6497,7 +6629,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5">
-      <c r="A71" s="5">
+      <c r="A71" s="16">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -6523,7 +6655,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5">
-      <c r="A72" s="5">
+      <c r="A72" s="16">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -6549,7 +6681,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5">
-      <c r="A73" s="5">
+      <c r="A73" s="16">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -6575,7 +6707,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="16.5">
-      <c r="A74" s="5">
+      <c r="A74" s="16">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -6600,34 +6732,34 @@
         <v>645</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="40" customFormat="1" ht="16.5">
-      <c r="A75" s="39">
+    <row r="75" spans="1:9" s="34" customFormat="1" ht="16.5">
+      <c r="A75" s="16">
         <v>74</v>
       </c>
-      <c r="B75" s="39" t="s">
+      <c r="B75" s="33" t="s">
         <v>659</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="39" t="s">
+      <c r="D75" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="39">
-        <v>0</v>
-      </c>
-      <c r="F75" s="40">
-        <v>0</v>
-      </c>
-      <c r="G75" s="40">
-        <v>0</v>
-      </c>
-      <c r="I75" s="41" t="s">
+      <c r="E75" s="33">
+        <v>0</v>
+      </c>
+      <c r="F75" s="34">
+        <v>0</v>
+      </c>
+      <c r="G75" s="34">
+        <v>0</v>
+      </c>
+      <c r="I75" s="35" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5">
-      <c r="A76" s="5">
+      <c r="A76" s="16">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -6653,7 +6785,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
-      <c r="A77" s="5">
+      <c r="A77" s="16">
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -6679,7 +6811,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
-      <c r="A78" s="5">
+      <c r="A78" s="16">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -6705,7 +6837,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5">
-      <c r="A79" s="5">
+      <c r="A79" s="16">
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -6731,7 +6863,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5">
-      <c r="A80" s="5">
+      <c r="A80" s="16">
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -6757,7 +6889,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5">
-      <c r="A81" s="5">
+      <c r="A81" s="16">
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -6783,7 +6915,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5">
-      <c r="A82" s="5">
+      <c r="A82" s="16">
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -6809,7 +6941,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5">
-      <c r="A83" s="5">
+      <c r="A83" s="16">
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -6835,7 +6967,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5">
-      <c r="A84" s="5">
+      <c r="A84" s="16">
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -6861,7 +6993,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5">
-      <c r="A85" s="5">
+      <c r="A85" s="16">
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -6887,7 +7019,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5">
-      <c r="A86" s="5">
+      <c r="A86" s="16">
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -6913,7 +7045,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5">
-      <c r="A87" s="5">
+      <c r="A87" s="16">
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -6939,7 +7071,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5">
-      <c r="A88" s="5">
+      <c r="A88" s="16">
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -6965,7 +7097,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5">
-      <c r="A89" s="5">
+      <c r="A89" s="16">
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -6991,7 +7123,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5">
-      <c r="A90" s="5">
+      <c r="A90" s="16">
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -7017,7 +7149,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5">
-      <c r="A91" s="5">
+      <c r="A91" s="16">
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -7043,7 +7175,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5">
-      <c r="A92" s="5">
+      <c r="A92" s="16">
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -7069,7 +7201,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5">
-      <c r="A93" s="5">
+      <c r="A93" s="16">
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -7095,7 +7227,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5">
-      <c r="A94" s="5">
+      <c r="A94" s="16">
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -7121,7 +7253,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5">
-      <c r="A95" s="5">
+      <c r="A95" s="16">
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -7147,7 +7279,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5">
-      <c r="A96" s="5">
+      <c r="A96" s="16">
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -7173,7 +7305,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5">
-      <c r="A97" s="5">
+      <c r="A97" s="16">
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -7199,7 +7331,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5">
-      <c r="A98" s="5">
+      <c r="A98" s="16">
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -7225,7 +7357,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5">
-      <c r="A99" s="5">
+      <c r="A99" s="16">
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -7251,7 +7383,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5">
-      <c r="A100" s="5">
+      <c r="A100" s="16">
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -7277,7 +7409,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5">
-      <c r="A101" s="5">
+      <c r="A101" s="16">
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -7303,7 +7435,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
-      <c r="A102" s="5">
+      <c r="A102" s="16">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -7329,7 +7461,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
-      <c r="A103" s="5">
+      <c r="A103" s="16">
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -7355,7 +7487,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5">
-      <c r="A104" s="5">
+      <c r="A104" s="16">
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -7381,7 +7513,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5">
-      <c r="A105" s="5">
+      <c r="A105" s="16">
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -7407,7 +7539,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5">
-      <c r="A106" s="5">
+      <c r="A106" s="16">
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -7433,7 +7565,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5">
-      <c r="A107" s="5">
+      <c r="A107" s="16">
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -7459,7 +7591,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5">
-      <c r="A108" s="5">
+      <c r="A108" s="16">
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -7485,7 +7617,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.5">
-      <c r="A109" s="5">
+      <c r="A109" s="16">
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -7511,7 +7643,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5">
-      <c r="A110" s="5">
+      <c r="A110" s="16">
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -7537,7 +7669,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5">
-      <c r="A111" s="5">
+      <c r="A111" s="16">
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -7563,7 +7695,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5">
-      <c r="A112" s="5">
+      <c r="A112" s="16">
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -7589,7 +7721,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5">
-      <c r="A113" s="5">
+      <c r="A113" s="16">
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -7615,7 +7747,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5">
-      <c r="A114" s="5">
+      <c r="A114" s="16">
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -7641,7 +7773,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5">
-      <c r="A115" s="5">
+      <c r="A115" s="16">
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -7667,7 +7799,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5">
-      <c r="A116" s="5">
+      <c r="A116" s="16">
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -7693,7 +7825,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5">
-      <c r="A117" s="5">
+      <c r="A117" s="16">
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -7719,7 +7851,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5">
-      <c r="A118" s="5">
+      <c r="A118" s="16">
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -7745,7 +7877,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5">
-      <c r="A119" s="5">
+      <c r="A119" s="16">
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -7771,7 +7903,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
-      <c r="A120" s="5">
+      <c r="A120" s="16">
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -7797,7 +7929,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5">
-      <c r="A121" s="5">
+      <c r="A121" s="16">
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -7823,7 +7955,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5">
-      <c r="A122" s="5">
+      <c r="A122" s="16">
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -7849,7 +7981,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5">
-      <c r="A123" s="5">
+      <c r="A123" s="16">
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -7875,7 +8007,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5">
-      <c r="A124" s="5">
+      <c r="A124" s="16">
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -7901,7 +8033,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5">
-      <c r="A125" s="5">
+      <c r="A125" s="16">
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -7927,7 +8059,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5">
-      <c r="A126" s="5">
+      <c r="A126" s="16">
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -7953,7 +8085,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5">
-      <c r="A127" s="5">
+      <c r="A127" s="16">
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -7979,7 +8111,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5">
-      <c r="A128" s="5">
+      <c r="A128" s="16">
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -8005,7 +8137,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5">
-      <c r="A129" s="5">
+      <c r="A129" s="16">
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
@@ -8031,7 +8163,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5">
-      <c r="A130" s="5">
+      <c r="A130" s="16">
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -8057,7 +8189,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5">
-      <c r="A131" s="5">
+      <c r="A131" s="16">
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -8083,7 +8215,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5">
-      <c r="A132" s="5">
+      <c r="A132" s="16">
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -8109,7 +8241,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5">
-      <c r="A133" s="5">
+      <c r="A133" s="16">
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -8135,7 +8267,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5">
-      <c r="A134" s="5">
+      <c r="A134" s="16">
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -8161,7 +8293,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5">
-      <c r="A135" s="5">
+      <c r="A135" s="16">
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
@@ -8187,7 +8319,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5">
-      <c r="A136" s="5">
+      <c r="A136" s="16">
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -8213,7 +8345,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5">
-      <c r="A137" s="5">
+      <c r="A137" s="16">
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
@@ -8239,7 +8371,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5">
-      <c r="A138" s="5">
+      <c r="A138" s="16">
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -8265,7 +8397,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5">
-      <c r="A139" s="5">
+      <c r="A139" s="16">
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
@@ -8291,7 +8423,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5">
-      <c r="A140" s="5">
+      <c r="A140" s="16">
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
@@ -8317,7 +8449,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5">
-      <c r="A141" s="5">
+      <c r="A141" s="16">
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -8343,7 +8475,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5">
-      <c r="A142" s="5">
+      <c r="A142" s="16">
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -8369,7 +8501,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5">
-      <c r="A143" s="5">
+      <c r="A143" s="16">
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
@@ -8395,7 +8527,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5">
-      <c r="A144" s="5">
+      <c r="A144" s="16">
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -8421,7 +8553,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5">
-      <c r="A145" s="5">
+      <c r="A145" s="16">
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
@@ -8447,7 +8579,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
-      <c r="A146" s="5">
+      <c r="A146" s="16">
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -8473,7 +8605,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
-      <c r="A147" s="5">
+      <c r="A147" s="16">
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -8499,7 +8631,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
-      <c r="A148" s="5">
+      <c r="A148" s="16">
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -8525,7 +8657,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5">
-      <c r="A149" s="5">
+      <c r="A149" s="16">
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -8551,7 +8683,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5">
-      <c r="A150" s="5">
+      <c r="A150" s="16">
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
@@ -8577,7 +8709,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5">
-      <c r="A151" s="5">
+      <c r="A151" s="16">
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
@@ -8603,7 +8735,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
-      <c r="A152" s="5">
+      <c r="A152" s="16">
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -8629,7 +8761,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
-      <c r="A153" s="5">
+      <c r="A153" s="16">
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
@@ -8655,7 +8787,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5">
-      <c r="A154" s="5">
+      <c r="A154" s="16">
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -8681,7 +8813,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5">
-      <c r="A155" s="5">
+      <c r="A155" s="16">
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -8707,7 +8839,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5">
-      <c r="A156" s="5">
+      <c r="A156" s="16">
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -8733,7 +8865,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5">
-      <c r="A157" s="5">
+      <c r="A157" s="16">
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -8759,7 +8891,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5">
-      <c r="A158" s="5">
+      <c r="A158" s="16">
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -8785,7 +8917,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5">
-      <c r="A159" s="5">
+      <c r="A159" s="16">
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
@@ -8811,7 +8943,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5">
-      <c r="A160" s="5">
+      <c r="A160" s="16">
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -8837,7 +8969,7 @@
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5">
-      <c r="A161" s="5">
+      <c r="A161" s="16">
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
@@ -8863,7 +8995,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5">
-      <c r="A162" s="5">
+      <c r="A162" s="16">
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
@@ -8889,7 +9021,7 @@
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
-      <c r="A163" s="5">
+      <c r="A163" s="16">
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -8915,7 +9047,7 @@
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
-      <c r="A164" s="5">
+      <c r="A164" s="16">
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
@@ -8941,7 +9073,7 @@
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5">
-      <c r="A165" s="5">
+      <c r="A165" s="16">
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -8967,7 +9099,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5">
-      <c r="A166" s="5">
+      <c r="A166" s="16">
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
@@ -8993,7 +9125,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5">
-      <c r="A167" s="5">
+      <c r="A167" s="16">
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
@@ -9019,7 +9151,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5">
-      <c r="A168" s="5">
+      <c r="A168" s="16">
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
@@ -9045,7 +9177,7 @@
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5">
-      <c r="A169" s="5">
+      <c r="A169" s="16">
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
@@ -9071,7 +9203,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5">
-      <c r="A170" s="5">
+      <c r="A170" s="16">
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
@@ -9095,7 +9227,7 @@
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5">
-      <c r="A171" s="5">
+      <c r="A171" s="16">
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
@@ -9119,7 +9251,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5">
-      <c r="A172" s="5">
+      <c r="A172" s="16">
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
@@ -9143,7 +9275,7 @@
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5">
-      <c r="A173" s="5">
+      <c r="A173" s="16">
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
@@ -9167,7 +9299,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5">
-      <c r="A174" s="5">
+      <c r="A174" s="16">
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
@@ -9193,7 +9325,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5">
-      <c r="A175" s="5">
+      <c r="A175" s="16">
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
@@ -9217,7 +9349,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5">
-      <c r="A176" s="5">
+      <c r="A176" s="16">
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
@@ -9241,7 +9373,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5">
-      <c r="A177" s="5">
+      <c r="A177" s="16">
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -9265,7 +9397,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5">
-      <c r="A178" s="5">
+      <c r="A178" s="16">
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
@@ -9291,7 +9423,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5">
-      <c r="A179" s="5">
+      <c r="A179" s="16">
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -9317,7 +9449,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" ht="16.5">
-      <c r="A180" s="5">
+      <c r="A180" s="16">
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
@@ -9341,7 +9473,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A181" s="5">
+      <c r="A181" s="16">
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
@@ -9365,7 +9497,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A182" s="5">
+      <c r="A182" s="16">
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
@@ -9389,7 +9521,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A183" s="5">
+      <c r="A183" s="16">
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
@@ -9413,7 +9545,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5">
-      <c r="A184" s="5">
+      <c r="A184" s="16">
         <v>183</v>
       </c>
       <c r="B184" t="s">
@@ -9436,7 +9568,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5">
-      <c r="A185" s="5">
+      <c r="A185" s="16">
         <v>184</v>
       </c>
       <c r="B185" t="s">
@@ -9459,7 +9591,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5">
-      <c r="A186" s="5">
+      <c r="A186" s="16">
         <v>185</v>
       </c>
       <c r="B186" t="s">
@@ -9482,7 +9614,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5">
-      <c r="A187" s="5">
+      <c r="A187" s="16">
         <v>186</v>
       </c>
       <c r="B187" t="s">
@@ -9505,7 +9637,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5">
-      <c r="A188" s="5">
+      <c r="A188" s="16">
         <v>187</v>
       </c>
       <c r="B188" t="s">
@@ -9528,7 +9660,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5">
-      <c r="A189" s="5">
+      <c r="A189" s="16">
         <v>188</v>
       </c>
       <c r="B189" t="s">
@@ -9551,7 +9683,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5">
-      <c r="A190" s="5">
+      <c r="A190" s="16">
         <v>189</v>
       </c>
       <c r="B190" t="s">
@@ -9574,7 +9706,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5">
-      <c r="A191" s="5">
+      <c r="A191" s="16">
         <v>190</v>
       </c>
       <c r="B191" t="s">
@@ -9597,7 +9729,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5">
-      <c r="A192" s="5">
+      <c r="A192" s="16">
         <v>191</v>
       </c>
       <c r="B192" t="s">
@@ -9620,7 +9752,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5">
-      <c r="A193" s="5">
+      <c r="A193" s="16">
         <v>192</v>
       </c>
       <c r="B193" t="s">
@@ -9643,7 +9775,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5">
-      <c r="A194" s="5">
+      <c r="A194" s="16">
         <v>193</v>
       </c>
       <c r="B194" t="s">
@@ -9666,7 +9798,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5">
-      <c r="A195" s="5">
+      <c r="A195" s="16">
         <v>194</v>
       </c>
       <c r="B195" t="s">
@@ -9689,7 +9821,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5">
-      <c r="A196" s="5">
+      <c r="A196" s="16">
         <v>195</v>
       </c>
       <c r="B196" t="s">
@@ -9712,7 +9844,7 @@
       </c>
     </row>
     <row r="197" spans="1:9" ht="16.5">
-      <c r="A197" s="5">
+      <c r="A197" s="16">
         <v>196</v>
       </c>
       <c r="B197" t="s">
@@ -9735,7 +9867,7 @@
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5">
-      <c r="A198" s="5">
+      <c r="A198" s="16">
         <v>197</v>
       </c>
       <c r="B198" t="s">
@@ -9758,7 +9890,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5">
-      <c r="A199" s="5">
+      <c r="A199" s="16">
         <v>198</v>
       </c>
       <c r="B199" t="s">
@@ -9781,7 +9913,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5">
-      <c r="A200" s="5">
+      <c r="A200" s="16">
         <v>199</v>
       </c>
       <c r="B200" t="s">
@@ -9804,7 +9936,7 @@
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5">
-      <c r="A201" s="5">
+      <c r="A201" s="16">
         <v>200</v>
       </c>
       <c r="B201" t="s">
@@ -9827,7 +9959,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5">
-      <c r="A202" s="5">
+      <c r="A202" s="16">
         <v>201</v>
       </c>
       <c r="B202" t="s">
@@ -9850,7 +9982,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5">
-      <c r="A203" s="5">
+      <c r="A203" s="16">
         <v>202</v>
       </c>
       <c r="B203" t="s">
@@ -9873,7 +10005,7 @@
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5">
-      <c r="A204" s="5">
+      <c r="A204" s="16">
         <v>203</v>
       </c>
       <c r="B204" t="s">
@@ -9896,7 +10028,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5">
-      <c r="A205" s="5">
+      <c r="A205" s="16">
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
@@ -9922,7 +10054,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5">
-      <c r="A206" s="5">
+      <c r="A206" s="16">
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
@@ -9948,7 +10080,7 @@
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5">
-      <c r="A207" s="5">
+      <c r="A207" s="16">
         <v>206</v>
       </c>
       <c r="B207" s="9" t="s">
@@ -9974,7 +10106,7 @@
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.5">
-      <c r="A208" s="5">
+      <c r="A208" s="16">
         <v>207</v>
       </c>
       <c r="B208" t="s">
@@ -9997,7 +10129,7 @@
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5">
-      <c r="A209" s="5">
+      <c r="A209" s="16">
         <v>208</v>
       </c>
       <c r="B209" t="s">
@@ -10020,7 +10152,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5">
-      <c r="A210" s="5">
+      <c r="A210" s="16">
         <v>209</v>
       </c>
       <c r="B210" t="s">
@@ -10043,7 +10175,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5">
-      <c r="A211" s="5">
+      <c r="A211" s="16">
         <v>210</v>
       </c>
       <c r="B211" t="s">
@@ -10066,7 +10198,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5">
-      <c r="A212" s="5">
+      <c r="A212" s="16">
         <v>211</v>
       </c>
       <c r="B212" t="s">
@@ -10089,7 +10221,7 @@
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5">
-      <c r="A213" s="5">
+      <c r="A213" s="16">
         <v>212</v>
       </c>
       <c r="B213" t="s">
@@ -10112,7 +10244,7 @@
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5">
-      <c r="A214" s="5">
+      <c r="A214" s="16">
         <v>213</v>
       </c>
       <c r="B214" t="s">
@@ -10135,7 +10267,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5">
-      <c r="A215" s="5">
+      <c r="A215" s="16">
         <v>214</v>
       </c>
       <c r="B215" t="s">
@@ -10158,7 +10290,7 @@
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5">
-      <c r="A216" s="5">
+      <c r="A216" s="16">
         <v>215</v>
       </c>
       <c r="B216" t="s">
@@ -10181,7 +10313,7 @@
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5">
-      <c r="A217" s="5">
+      <c r="A217" s="16">
         <v>216</v>
       </c>
       <c r="B217" t="s">
@@ -10204,7 +10336,7 @@
       </c>
     </row>
     <row r="218" spans="1:9" ht="16.5">
-      <c r="A218" s="5">
+      <c r="A218" s="16">
         <v>217</v>
       </c>
       <c r="B218" t="s">
@@ -10227,7 +10359,7 @@
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5">
-      <c r="A219" s="5">
+      <c r="A219" s="16">
         <v>218</v>
       </c>
       <c r="B219" t="s">
@@ -10250,7 +10382,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5">
-      <c r="A220" s="5">
+      <c r="A220" s="16">
         <v>219</v>
       </c>
       <c r="B220" t="s">
@@ -10273,7 +10405,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5">
-      <c r="A221" s="5">
+      <c r="A221" s="16">
         <v>220</v>
       </c>
       <c r="B221" t="s">
@@ -10296,7 +10428,7 @@
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5">
-      <c r="A222" s="5">
+      <c r="A222" s="16">
         <v>221</v>
       </c>
       <c r="B222" t="s">
@@ -10319,7 +10451,7 @@
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5">
-      <c r="A223" s="5">
+      <c r="A223" s="16">
         <v>222</v>
       </c>
       <c r="B223" t="s">
@@ -10342,7 +10474,7 @@
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5">
-      <c r="A224" s="5">
+      <c r="A224" s="16">
         <v>223</v>
       </c>
       <c r="B224" t="s">
@@ -10365,7 +10497,7 @@
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5">
-      <c r="A225" s="5">
+      <c r="A225" s="16">
         <v>224</v>
       </c>
       <c r="B225" t="s">
@@ -10388,7 +10520,7 @@
       </c>
     </row>
     <row r="226" spans="1:9" ht="16.5">
-      <c r="A226" s="5">
+      <c r="A226" s="16">
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
@@ -10411,7 +10543,7 @@
       </c>
     </row>
     <row r="227" spans="1:9" ht="16.5">
-      <c r="A227" s="5">
+      <c r="A227" s="16">
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
@@ -10434,7 +10566,7 @@
       </c>
     </row>
     <row r="228" spans="1:9" ht="16.5">
-      <c r="A228" s="5">
+      <c r="A228" s="16">
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
@@ -10457,7 +10589,7 @@
       </c>
     </row>
     <row r="229" spans="1:9" ht="16.5">
-      <c r="A229" s="5">
+      <c r="A229" s="16">
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
@@ -10480,7 +10612,7 @@
       </c>
     </row>
     <row r="230" spans="1:9" ht="16.5">
-      <c r="A230" s="5">
+      <c r="A230" s="16">
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
@@ -10503,7 +10635,7 @@
       </c>
     </row>
     <row r="231" spans="1:9" ht="16.5">
-      <c r="A231" s="5">
+      <c r="A231" s="16">
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
@@ -10526,7 +10658,7 @@
       </c>
     </row>
     <row r="232" spans="1:9" ht="16.5">
-      <c r="A232" s="5">
+      <c r="A232" s="16">
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
@@ -10549,7 +10681,7 @@
       </c>
     </row>
     <row r="233" spans="1:9" ht="16.5">
-      <c r="A233" s="5">
+      <c r="A233" s="16">
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
@@ -10572,7 +10704,7 @@
       </c>
     </row>
     <row r="234" spans="1:9" ht="16.5">
-      <c r="A234" s="5">
+      <c r="A234" s="16">
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
@@ -10595,7 +10727,7 @@
       </c>
     </row>
     <row r="235" spans="1:9" ht="16.5">
-      <c r="A235" s="5">
+      <c r="A235" s="16">
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
@@ -10618,7 +10750,7 @@
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5">
-      <c r="A236" s="5">
+      <c r="A236" s="16">
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
@@ -10644,7 +10776,7 @@
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
-      <c r="A237" s="5">
+      <c r="A237" s="16">
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
@@ -10670,7 +10802,7 @@
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
-      <c r="A238" s="5">
+      <c r="A238" s="16">
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
@@ -10696,7 +10828,7 @@
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5">
-      <c r="A239" s="5">
+      <c r="A239" s="16">
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
@@ -10722,7 +10854,7 @@
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
-      <c r="A240" s="5">
+      <c r="A240" s="16">
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
@@ -10748,7 +10880,7 @@
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
-      <c r="A241" s="5">
+      <c r="A241" s="16">
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
@@ -10774,7 +10906,7 @@
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
-      <c r="A242" s="5">
+      <c r="A242" s="16">
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
@@ -10800,7 +10932,7 @@
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
-      <c r="A243" s="5">
+      <c r="A243" s="16">
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
@@ -10826,7 +10958,7 @@
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
-      <c r="A244" s="5">
+      <c r="A244" s="16">
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
@@ -10852,7 +10984,7 @@
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
-      <c r="A245" s="5">
+      <c r="A245" s="16">
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
@@ -10878,7 +11010,7 @@
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
-      <c r="A246" s="5">
+      <c r="A246" s="16">
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
@@ -10904,7 +11036,7 @@
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
-      <c r="A247" s="5">
+      <c r="A247" s="16">
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
@@ -10930,7 +11062,7 @@
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
-      <c r="A248" s="5">
+      <c r="A248" s="16">
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
@@ -10956,7 +11088,7 @@
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
-      <c r="A249" s="5">
+      <c r="A249" s="16">
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
@@ -10982,7 +11114,7 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
-      <c r="A250" s="5">
+      <c r="A250" s="16">
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
@@ -11008,7 +11140,7 @@
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
-      <c r="A251" s="5">
+      <c r="A251" s="16">
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
@@ -11034,7 +11166,7 @@
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5">
-      <c r="A252" s="5">
+      <c r="A252" s="16">
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
@@ -11060,7 +11192,7 @@
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
-      <c r="A253" s="5">
+      <c r="A253" s="16">
         <v>252</v>
       </c>
       <c r="B253" s="9" t="s">
@@ -11086,34 +11218,34 @@
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
-      <c r="A254" s="5">
+      <c r="A254" s="16">
         <v>253</v>
       </c>
-      <c r="B254" s="25" t="s">
+      <c r="B254" s="24" t="s">
         <v>957</v>
       </c>
-      <c r="C254" s="27" t="s">
+      <c r="C254" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="D254" s="25" t="s">
+      <c r="D254" s="24" t="s">
         <v>958</v>
       </c>
-      <c r="E254" s="27">
-        <v>0</v>
-      </c>
-      <c r="F254" s="27">
-        <v>0</v>
-      </c>
-      <c r="G254" s="27">
-        <v>0</v>
-      </c>
-      <c r="H254" s="27"/>
-      <c r="I254" s="25" t="s">
+      <c r="E254" s="25">
+        <v>0</v>
+      </c>
+      <c r="F254" s="25">
+        <v>0</v>
+      </c>
+      <c r="G254" s="25">
+        <v>0</v>
+      </c>
+      <c r="H254" s="25"/>
+      <c r="I254" s="24" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
-      <c r="A255" s="5">
+      <c r="A255" s="16">
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
@@ -11139,7 +11271,7 @@
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.5">
-      <c r="A256" s="5">
+      <c r="A256" s="16">
         <v>255</v>
       </c>
       <c r="B256" s="9" t="s">
@@ -11296,7 +11428,7 @@
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
-      <c r="A262" s="5">
+      <c r="A262" s="16">
         <v>261</v>
       </c>
       <c r="B262" t="s">
@@ -11322,7 +11454,7 @@
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5">
-      <c r="A263" s="5">
+      <c r="A263" s="16">
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
@@ -11887,107 +12019,107 @@
         <v>846</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="32" customFormat="1" ht="16.5">
-      <c r="A285" s="31">
+    <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5">
+      <c r="A285" s="26">
         <v>284</v>
       </c>
-      <c r="B285" s="31" t="s">
+      <c r="B285" s="28" t="s">
         <v>854</v>
       </c>
-      <c r="C285" s="32" t="s">
+      <c r="C285" s="29" t="s">
         <v>855</v>
       </c>
-      <c r="D285" s="31" t="s">
+      <c r="D285" s="28" t="s">
         <v>856</v>
       </c>
-      <c r="E285" s="32">
-        <v>1</v>
-      </c>
-      <c r="F285" s="32">
-        <v>1</v>
-      </c>
-      <c r="G285" s="32">
-        <v>1</v>
-      </c>
-      <c r="I285" s="32" t="s">
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="29">
+        <v>1</v>
+      </c>
+      <c r="G285" s="29">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="32" customFormat="1" ht="16.5">
-      <c r="A286" s="31">
+    <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
+      <c r="A286" s="26">
         <v>285</v>
       </c>
-      <c r="B286" s="32" t="s">
+      <c r="B286" s="29" t="s">
         <v>851</v>
       </c>
-      <c r="C286" s="32" t="s">
+      <c r="C286" s="29" t="s">
         <v>850</v>
       </c>
-      <c r="D286" s="31" t="s">
+      <c r="D286" s="28" t="s">
         <v>852</v>
       </c>
-      <c r="E286" s="32">
-        <v>1</v>
-      </c>
-      <c r="F286" s="32">
-        <v>1</v>
-      </c>
-      <c r="G286" s="32">
-        <v>1</v>
-      </c>
-      <c r="I286" s="32" t="s">
+      <c r="E286" s="29">
+        <v>1</v>
+      </c>
+      <c r="F286" s="29">
+        <v>1</v>
+      </c>
+      <c r="G286" s="29">
+        <v>1</v>
+      </c>
+      <c r="I286" s="29" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="32" customFormat="1" ht="16.5">
-      <c r="A287" s="31">
+    <row r="287" spans="1:9" s="29" customFormat="1" ht="16.5">
+      <c r="A287" s="26">
         <v>286</v>
       </c>
-      <c r="B287" s="32" t="s">
+      <c r="B287" s="29" t="s">
         <v>857</v>
       </c>
-      <c r="C287" s="32" t="s">
+      <c r="C287" s="29" t="s">
         <v>858</v>
       </c>
-      <c r="D287" s="31" t="s">
+      <c r="D287" s="28" t="s">
         <v>859</v>
       </c>
-      <c r="E287" s="32">
-        <v>1</v>
-      </c>
-      <c r="F287" s="32">
-        <v>1</v>
-      </c>
-      <c r="G287" s="32">
-        <v>1</v>
-      </c>
-      <c r="I287" s="32" t="s">
+      <c r="E287" s="29">
+        <v>1</v>
+      </c>
+      <c r="F287" s="29">
+        <v>1</v>
+      </c>
+      <c r="G287" s="29">
+        <v>1</v>
+      </c>
+      <c r="I287" s="29" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="30" customFormat="1" ht="16.5">
-      <c r="A288" s="29">
+    <row r="288" spans="1:9" s="27" customFormat="1" ht="16.5">
+      <c r="A288" s="26">
         <v>287</v>
       </c>
-      <c r="B288" s="30" t="s">
+      <c r="B288" s="27" t="s">
         <v>860</v>
       </c>
-      <c r="C288" s="30" t="s">
+      <c r="C288" s="27" t="s">
         <v>862</v>
       </c>
-      <c r="D288" s="29" t="s">
+      <c r="D288" s="26" t="s">
         <v>861</v>
       </c>
-      <c r="E288" s="30">
-        <v>0</v>
-      </c>
-      <c r="F288" s="30">
-        <v>1</v>
-      </c>
-      <c r="G288" s="30">
-        <v>1</v>
-      </c>
-      <c r="I288" s="30" t="s">
+      <c r="E288" s="27">
+        <v>0</v>
+      </c>
+      <c r="F288" s="27">
+        <v>1</v>
+      </c>
+      <c r="G288" s="27">
+        <v>1</v>
+      </c>
+      <c r="I288" s="27" t="s">
         <v>644</v>
       </c>
     </row>
@@ -12043,55 +12175,55 @@
         <v>869</v>
       </c>
     </row>
-    <row r="291" spans="1:36" s="34" customFormat="1" ht="16.5">
-      <c r="A291" s="33">
+    <row r="291" spans="1:36" s="30" customFormat="1" ht="16.5">
+      <c r="A291" s="16">
         <v>290</v>
       </c>
-      <c r="B291" s="34" t="s">
+      <c r="B291" s="30" t="s">
         <v>870</v>
       </c>
-      <c r="C291" s="34" t="s">
+      <c r="C291" s="30" t="s">
         <v>871</v>
       </c>
-      <c r="D291" s="34" t="s">
+      <c r="D291" s="30" t="s">
         <v>872</v>
       </c>
-      <c r="E291" s="34">
-        <v>1</v>
-      </c>
-      <c r="F291" s="34">
-        <v>1</v>
-      </c>
-      <c r="G291" s="34">
-        <v>1</v>
-      </c>
-      <c r="I291" s="34" t="s">
+      <c r="E291" s="30">
+        <v>1</v>
+      </c>
+      <c r="F291" s="30">
+        <v>1</v>
+      </c>
+      <c r="G291" s="30">
+        <v>1</v>
+      </c>
+      <c r="I291" s="30" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="292" spans="1:36" s="34" customFormat="1" ht="16.5">
-      <c r="A292" s="33">
+    <row r="292" spans="1:36" s="30" customFormat="1" ht="16.5">
+      <c r="A292" s="16">
         <v>291</v>
       </c>
-      <c r="B292" s="34" t="s">
+      <c r="B292" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="C292" s="34" t="s">
+      <c r="C292" s="30" t="s">
         <v>875</v>
       </c>
-      <c r="D292" s="34" t="s">
+      <c r="D292" s="30" t="s">
         <v>876</v>
       </c>
-      <c r="E292" s="34">
-        <v>1</v>
-      </c>
-      <c r="F292" s="34">
-        <v>1</v>
-      </c>
-      <c r="G292" s="34">
-        <v>1</v>
-      </c>
-      <c r="I292" s="34" t="s">
+      <c r="E292" s="30">
+        <v>1</v>
+      </c>
+      <c r="F292" s="30">
+        <v>1</v>
+      </c>
+      <c r="G292" s="30">
+        <v>1</v>
+      </c>
+      <c r="I292" s="30" t="s">
         <v>873</v>
       </c>
     </row>
@@ -12392,26 +12524,26 @@
       <c r="A300" s="16">
         <v>299</v>
       </c>
-      <c r="B300" s="18" t="s">
+      <c r="B300" s="40" t="s">
         <v>900</v>
       </c>
-      <c r="C300" s="15" t="s">
+      <c r="C300" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="D300" s="18" t="s">
+      <c r="D300" s="40" t="s">
         <v>901</v>
       </c>
-      <c r="E300" s="17">
-        <v>1</v>
-      </c>
-      <c r="F300" s="17">
-        <v>1</v>
-      </c>
-      <c r="G300" s="17">
-        <v>1</v>
-      </c>
-      <c r="H300" s="17"/>
-      <c r="I300" s="19" t="s">
+      <c r="E300" s="30">
+        <v>1</v>
+      </c>
+      <c r="F300" s="30">
+        <v>1</v>
+      </c>
+      <c r="G300" s="30">
+        <v>1</v>
+      </c>
+      <c r="H300" s="30"/>
+      <c r="I300" s="42" t="s">
         <v>902</v>
       </c>
       <c r="J300" s="17"/>
@@ -12446,26 +12578,26 @@
       <c r="A301" s="16">
         <v>300</v>
       </c>
-      <c r="B301" s="26" t="s">
+      <c r="B301" s="43" t="s">
         <v>926</v>
       </c>
-      <c r="C301" s="25" t="s">
+      <c r="C301" s="44" t="s">
         <v>932</v>
       </c>
-      <c r="D301" s="26" t="s">
+      <c r="D301" s="43" t="s">
         <v>925</v>
       </c>
-      <c r="E301" s="27">
-        <v>1</v>
-      </c>
-      <c r="F301" s="27">
-        <v>1</v>
-      </c>
-      <c r="G301" s="27">
-        <v>1</v>
-      </c>
-      <c r="H301" s="27"/>
-      <c r="I301" s="25" t="s">
+      <c r="E301" s="45">
+        <v>1</v>
+      </c>
+      <c r="F301" s="45">
+        <v>1</v>
+      </c>
+      <c r="G301" s="45">
+        <v>1</v>
+      </c>
+      <c r="H301" s="45"/>
+      <c r="I301" s="44" t="s">
         <v>930</v>
       </c>
       <c r="J301" s="17"/>
@@ -12500,26 +12632,26 @@
       <c r="A302" s="16">
         <v>301</v>
       </c>
-      <c r="B302" s="26" t="s">
+      <c r="B302" s="43" t="s">
         <v>951</v>
       </c>
-      <c r="C302" s="25" t="s">
+      <c r="C302" s="44" t="s">
         <v>931</v>
       </c>
-      <c r="D302" s="26" t="s">
+      <c r="D302" s="43" t="s">
         <v>903</v>
       </c>
-      <c r="E302" s="27">
-        <v>1</v>
-      </c>
-      <c r="F302" s="27">
-        <v>1</v>
-      </c>
-      <c r="G302" s="27">
-        <v>1</v>
-      </c>
-      <c r="H302" s="27"/>
-      <c r="I302" s="25" t="s">
+      <c r="E302" s="45">
+        <v>1</v>
+      </c>
+      <c r="F302" s="45">
+        <v>1</v>
+      </c>
+      <c r="G302" s="45">
+        <v>1</v>
+      </c>
+      <c r="H302" s="45"/>
+      <c r="I302" s="44" t="s">
         <v>930</v>
       </c>
     </row>
@@ -12527,26 +12659,26 @@
       <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="26" t="s">
+      <c r="B303" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="C303" s="26" t="s">
+      <c r="C303" s="43" t="s">
         <v>905</v>
       </c>
-      <c r="D303" s="26" t="s">
+      <c r="D303" s="43" t="s">
         <v>960</v>
       </c>
-      <c r="E303" s="27">
-        <v>1</v>
-      </c>
-      <c r="F303" s="27">
-        <v>1</v>
-      </c>
-      <c r="G303" s="27">
-        <v>1</v>
-      </c>
-      <c r="H303" s="27"/>
-      <c r="I303" s="28" t="s">
+      <c r="E303" s="45">
+        <v>1</v>
+      </c>
+      <c r="F303" s="45">
+        <v>1</v>
+      </c>
+      <c r="G303" s="45">
+        <v>1</v>
+      </c>
+      <c r="H303" s="45"/>
+      <c r="I303" s="46" t="s">
         <v>644</v>
       </c>
     </row>
@@ -12608,80 +12740,78 @@
       <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="18" t="s">
+      <c r="B306" s="40" t="s">
         <v>919</v>
       </c>
-      <c r="C306" s="15" t="s">
+      <c r="C306" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="D306" s="18" t="s">
+      <c r="D306" s="40" t="s">
         <v>921</v>
       </c>
-      <c r="E306" s="17">
-        <v>1</v>
-      </c>
-      <c r="F306" s="17">
-        <v>1</v>
-      </c>
-      <c r="G306" s="17">
-        <v>1</v>
-      </c>
-      <c r="H306" s="17"/>
-      <c r="I306" s="15" t="s">
+      <c r="E306" s="30">
+        <v>1</v>
+      </c>
+      <c r="F306" s="30">
+        <v>1</v>
+      </c>
+      <c r="G306" s="30">
+        <v>1</v>
+      </c>
+      <c r="H306" s="30"/>
+      <c r="I306" s="41" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="16.5">
+    <row r="307" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="26" t="s">
+      <c r="B307" s="18" t="s">
         <v>922</v>
       </c>
-      <c r="C307" s="25" t="s">
+      <c r="C307" s="15" t="s">
         <v>923</v>
       </c>
-      <c r="D307" s="26" t="s">
+      <c r="D307" s="18" t="s">
         <v>924</v>
       </c>
-      <c r="E307" s="27">
-        <v>1</v>
-      </c>
-      <c r="F307" s="27">
-        <v>1</v>
-      </c>
-      <c r="G307" s="27">
-        <v>1</v>
-      </c>
-      <c r="H307" s="27"/>
-      <c r="I307" s="25" t="s">
+      <c r="E307" s="17">
+        <v>1</v>
+      </c>
+      <c r="F307" s="17">
+        <v>1</v>
+      </c>
+      <c r="G307" s="17">
+        <v>1</v>
+      </c>
+      <c r="I307" s="15" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="16.5">
+    <row r="308" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="26" t="s">
+      <c r="B308" s="18" t="s">
         <v>927</v>
       </c>
-      <c r="C308" s="25" t="s">
+      <c r="C308" s="15" t="s">
         <v>928</v>
       </c>
-      <c r="D308" s="26" t="s">
+      <c r="D308" s="18" t="s">
         <v>929</v>
       </c>
-      <c r="E308" s="27">
-        <v>1</v>
-      </c>
-      <c r="F308" s="27">
-        <v>1</v>
-      </c>
-      <c r="G308" s="27">
-        <v>1</v>
-      </c>
-      <c r="H308" s="27"/>
-      <c r="I308" s="25" t="s">
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="I308" s="15" t="s">
         <v>930</v>
       </c>
     </row>
@@ -12708,111 +12838,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="17.25">
+    <row r="310" spans="1:9" s="17" customFormat="1" ht="17.25">
       <c r="A310" s="16">
         <v>309</v>
       </c>
-      <c r="B310" s="24" t="s">
+      <c r="B310" s="39" t="s">
         <v>936</v>
       </c>
-      <c r="C310" s="25" t="s">
+      <c r="C310" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="D310" s="26" t="s">
+      <c r="D310" s="18" t="s">
         <v>938</v>
       </c>
-      <c r="E310" s="27">
-        <v>1</v>
-      </c>
-      <c r="F310" s="27">
-        <v>1</v>
-      </c>
-      <c r="G310" s="27">
-        <v>1</v>
-      </c>
-      <c r="H310" s="27"/>
-      <c r="I310" s="25" t="s">
+      <c r="E310" s="17">
+        <v>1</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="I310" s="15" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="17.25">
+    <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="24" t="s">
+      <c r="B311" s="39" t="s">
         <v>940</v>
       </c>
-      <c r="C311" s="25" t="s">
+      <c r="C311" s="15" t="s">
         <v>941</v>
       </c>
-      <c r="D311" s="24" t="s">
+      <c r="D311" s="39" t="s">
         <v>942</v>
       </c>
-      <c r="E311" s="27">
-        <v>1</v>
-      </c>
-      <c r="F311" s="27">
-        <v>1</v>
-      </c>
-      <c r="G311" s="27">
-        <v>1</v>
-      </c>
-      <c r="H311" s="27"/>
-      <c r="I311" s="28" t="s">
+      <c r="E311" s="17">
+        <v>1</v>
+      </c>
+      <c r="F311" s="17">
+        <v>1</v>
+      </c>
+      <c r="G311" s="17">
+        <v>1</v>
+      </c>
+      <c r="I311" s="19" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="16.5">
+    <row r="312" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="35" t="s">
+      <c r="B312" s="18" t="s">
         <v>943</v>
       </c>
-      <c r="C312" s="36" t="s">
+      <c r="C312" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="D312" s="35" t="s">
+      <c r="D312" s="18" t="s">
         <v>945</v>
       </c>
-      <c r="E312" s="23">
-        <v>1</v>
-      </c>
-      <c r="F312" s="23">
-        <v>1</v>
-      </c>
-      <c r="G312" s="23">
-        <v>1</v>
-      </c>
-      <c r="H312" s="23"/>
-      <c r="I312" s="37" t="s">
+      <c r="E312" s="17">
+        <v>1</v>
+      </c>
+      <c r="F312" s="17">
+        <v>1</v>
+      </c>
+      <c r="G312" s="17">
+        <v>1</v>
+      </c>
+      <c r="I312" s="19" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="17.25">
+    <row r="313" spans="1:9" s="17" customFormat="1" ht="17.25">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="38" t="s">
+      <c r="B313" s="39" t="s">
         <v>947</v>
       </c>
-      <c r="C313" s="36" t="s">
+      <c r="C313" s="15" t="s">
         <v>948</v>
       </c>
-      <c r="D313" s="38" t="s">
+      <c r="D313" s="39" t="s">
         <v>949</v>
       </c>
-      <c r="E313" s="23">
-        <v>1</v>
-      </c>
-      <c r="F313" s="23">
-        <v>1</v>
-      </c>
-      <c r="G313" s="23">
-        <v>1</v>
-      </c>
-      <c r="H313" s="23"/>
-      <c r="I313" s="36" t="s">
+      <c r="E313" s="17">
+        <v>1</v>
+      </c>
+      <c r="F313" s="17">
+        <v>1</v>
+      </c>
+      <c r="G313" s="17">
+        <v>1</v>
+      </c>
+      <c r="I313" s="15" t="s">
         <v>950</v>
       </c>
     </row>
@@ -12820,10 +12946,10 @@
       <c r="A314" s="16">
         <v>313</v>
       </c>
-      <c r="B314" s="35" t="s">
+      <c r="B314" s="31" t="s">
         <v>952</v>
       </c>
-      <c r="C314" s="36" t="s">
+      <c r="C314" s="32" t="s">
         <v>953</v>
       </c>
       <c r="D314" s="23"/>
@@ -12837,7 +12963,7 @@
         <v>1</v>
       </c>
       <c r="H314" s="23"/>
-      <c r="I314" s="36" t="s">
+      <c r="I314" s="32" t="s">
         <v>950</v>
       </c>
     </row>
@@ -12845,10 +12971,10 @@
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="35" t="s">
+      <c r="B315" s="31" t="s">
         <v>954</v>
       </c>
-      <c r="C315" s="36" t="s">
+      <c r="C315" s="32" t="s">
         <v>955</v>
       </c>
       <c r="D315" s="23"/>
@@ -12862,8 +12988,154 @@
         <v>1</v>
       </c>
       <c r="H315" s="23"/>
-      <c r="I315" s="36" t="s">
+      <c r="I315" s="32" t="s">
         <v>956</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="16.5">
+      <c r="A316" s="16">
+        <v>315</v>
+      </c>
+      <c r="B316" s="36" t="s">
+        <v>961</v>
+      </c>
+      <c r="C316" s="37" t="s">
+        <v>962</v>
+      </c>
+      <c r="D316" s="38"/>
+      <c r="E316" s="38">
+        <v>1</v>
+      </c>
+      <c r="F316" s="38">
+        <v>1</v>
+      </c>
+      <c r="G316" s="38">
+        <v>1</v>
+      </c>
+      <c r="H316" s="38"/>
+      <c r="I316" s="37" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="16.5">
+      <c r="A317" s="16">
+        <v>316</v>
+      </c>
+      <c r="B317" s="36" t="s">
+        <v>964</v>
+      </c>
+      <c r="C317" s="37" t="s">
+        <v>965</v>
+      </c>
+      <c r="D317" s="38"/>
+      <c r="E317" s="38">
+        <v>1</v>
+      </c>
+      <c r="F317" s="38">
+        <v>1</v>
+      </c>
+      <c r="G317" s="38">
+        <v>1</v>
+      </c>
+      <c r="H317" s="38"/>
+      <c r="I317" s="37" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A318" s="16">
+        <v>317</v>
+      </c>
+      <c r="B318" s="36" t="s">
+        <v>967</v>
+      </c>
+      <c r="C318" s="38"/>
+      <c r="D318" s="38"/>
+      <c r="E318" s="38">
+        <v>1</v>
+      </c>
+      <c r="F318" s="38">
+        <v>1</v>
+      </c>
+      <c r="G318" s="38">
+        <v>1</v>
+      </c>
+      <c r="H318" s="38"/>
+      <c r="I318" s="37" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A319" s="16">
+        <v>318</v>
+      </c>
+      <c r="B319" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="C319" s="38"/>
+      <c r="D319" s="38"/>
+      <c r="E319" s="38">
+        <v>1</v>
+      </c>
+      <c r="F319" s="38">
+        <v>1</v>
+      </c>
+      <c r="G319" s="38">
+        <v>1</v>
+      </c>
+      <c r="H319" s="38"/>
+      <c r="I319" s="37" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" ht="16.5">
+      <c r="A320" s="16">
+        <v>319</v>
+      </c>
+      <c r="B320" s="36" t="s">
+        <v>971</v>
+      </c>
+      <c r="C320" s="37" t="s">
+        <v>972</v>
+      </c>
+      <c r="D320" s="38"/>
+      <c r="E320" s="38">
+        <v>1</v>
+      </c>
+      <c r="F320" s="38">
+        <v>1</v>
+      </c>
+      <c r="G320" s="38">
+        <v>1</v>
+      </c>
+      <c r="H320" s="38"/>
+      <c r="I320" s="37" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" ht="16.5">
+      <c r="A321" s="16">
+        <v>320</v>
+      </c>
+      <c r="B321" s="36" t="s">
+        <v>973</v>
+      </c>
+      <c r="C321" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="D321" s="38"/>
+      <c r="E321" s="38">
+        <v>1</v>
+      </c>
+      <c r="F321" s="38">
+        <v>1</v>
+      </c>
+      <c r="G321" s="38">
+        <v>1</v>
+      </c>
+      <c r="H321" s="38"/>
+      <c r="I321" s="37" t="s">
+        <v>966</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/game_module_config_cjj.xlsx
+++ b/config_2.2/game_module_config_cjj.xlsx
@@ -3795,13 +3795,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_by_drop</t>
-  </si>
-  <si>
     <t>捕鱼通用掉落活动</t>
-  </si>
-  <si>
-    <t>Act_039_TYBYDROPManager</t>
   </si>
   <si>
     <t>act_040_by_and_cjj_to_ddz_conduct</t>
@@ -4057,6 +4051,14 @@
   </si>
   <si>
     <t>ActivityTaskManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TYBYDROPManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4654,10 +4656,10 @@
   <dimension ref="A1:AJ315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C285" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
+      <selection pane="bottomRight" activeCell="B303" sqref="B303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11088,13 +11090,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="25" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C254" s="27" t="s">
         <v>741</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E254" s="27">
         <v>0</v>
@@ -11170,7 +11172,7 @@
         <v>752</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D257" s="15" t="s">
         <v>753</v>
@@ -11186,7 +11188,7 @@
       </c>
       <c r="H257" s="17"/>
       <c r="I257" s="15" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12288,7 +12290,7 @@
         <v>896</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D298" s="17"/>
       <c r="E298" s="17">
@@ -12302,7 +12304,7 @@
       </c>
       <c r="H298" s="17"/>
       <c r="I298" s="15" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12445,13 +12447,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="26" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D301" s="26" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E301" s="27">
         <v>1</v>
@@ -12464,7 +12466,7 @@
       </c>
       <c r="H301" s="27"/>
       <c r="I301" s="25" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12499,10 +12501,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="26" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C302" s="25" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D302" s="26" t="s">
         <v>903</v>
@@ -12518,7 +12520,7 @@
       </c>
       <c r="H302" s="27"/>
       <c r="I302" s="25" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12526,13 +12528,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="26" t="s">
+        <v>959</v>
+      </c>
+      <c r="C303" s="26" t="s">
         <v>905</v>
       </c>
-      <c r="C303" s="26" t="s">
-        <v>906</v>
-      </c>
       <c r="D303" s="26" t="s">
-        <v>907</v>
+        <v>960</v>
       </c>
       <c r="E303" s="27">
         <v>1</v>
@@ -12553,13 +12555,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
+        <v>906</v>
+      </c>
+      <c r="C304" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="D304" s="17" t="s">
         <v>908</v>
-      </c>
-      <c r="C304" s="17" t="s">
-        <v>909</v>
-      </c>
-      <c r="D304" s="17" t="s">
-        <v>910</v>
       </c>
       <c r="E304" s="17">
         <v>1</v>
@@ -12572,7 +12574,7 @@
       </c>
       <c r="H304" s="17"/>
       <c r="I304" s="19" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5">
@@ -12580,13 +12582,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C305" s="15" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D305" s="18" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E305" s="17">
         <v>0</v>
@@ -12599,7 +12601,7 @@
       </c>
       <c r="H305" s="17"/>
       <c r="I305" s="15" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
@@ -12607,13 +12609,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="C306" s="15" t="s">
+        <v>920</v>
+      </c>
+      <c r="D306" s="18" t="s">
         <v>921</v>
-      </c>
-      <c r="C306" s="15" t="s">
-        <v>922</v>
-      </c>
-      <c r="D306" s="18" t="s">
-        <v>923</v>
       </c>
       <c r="E306" s="17">
         <v>1</v>
@@ -12626,7 +12628,7 @@
       </c>
       <c r="H306" s="17"/>
       <c r="I306" s="15" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12634,13 +12636,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="26" t="s">
+        <v>922</v>
+      </c>
+      <c r="C307" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="D307" s="26" t="s">
         <v>924</v>
-      </c>
-      <c r="C307" s="25" t="s">
-        <v>925</v>
-      </c>
-      <c r="D307" s="26" t="s">
-        <v>926</v>
       </c>
       <c r="E307" s="27">
         <v>1</v>
@@ -12653,7 +12655,7 @@
       </c>
       <c r="H307" s="27"/>
       <c r="I307" s="25" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12661,13 +12663,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="26" t="s">
+        <v>927</v>
+      </c>
+      <c r="C308" s="25" t="s">
+        <v>928</v>
+      </c>
+      <c r="D308" s="26" t="s">
         <v>929</v>
-      </c>
-      <c r="C308" s="25" t="s">
-        <v>930</v>
-      </c>
-      <c r="D308" s="26" t="s">
-        <v>931</v>
       </c>
       <c r="E308" s="27">
         <v>1</v>
@@ -12680,7 +12682,7 @@
       </c>
       <c r="H308" s="27"/>
       <c r="I308" s="25" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5">
@@ -12688,13 +12690,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="18" t="s">
+        <v>933</v>
+      </c>
+      <c r="C309" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="D309" s="18" t="s">
         <v>935</v>
-      </c>
-      <c r="C309" s="15" t="s">
-        <v>936</v>
-      </c>
-      <c r="D309" s="18" t="s">
-        <v>937</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12711,13 +12713,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="24" t="s">
+        <v>936</v>
+      </c>
+      <c r="C310" s="25" t="s">
+        <v>937</v>
+      </c>
+      <c r="D310" s="26" t="s">
         <v>938</v>
-      </c>
-      <c r="C310" s="25" t="s">
-        <v>939</v>
-      </c>
-      <c r="D310" s="26" t="s">
-        <v>940</v>
       </c>
       <c r="E310" s="27">
         <v>1</v>
@@ -12730,7 +12732,7 @@
       </c>
       <c r="H310" s="27"/>
       <c r="I310" s="25" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="17.25">
@@ -12738,13 +12740,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="24" t="s">
+        <v>940</v>
+      </c>
+      <c r="C311" s="25" t="s">
+        <v>941</v>
+      </c>
+      <c r="D311" s="24" t="s">
         <v>942</v>
-      </c>
-      <c r="C311" s="25" t="s">
-        <v>943</v>
-      </c>
-      <c r="D311" s="24" t="s">
-        <v>944</v>
       </c>
       <c r="E311" s="27">
         <v>1</v>
@@ -12765,13 +12767,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="35" t="s">
+        <v>943</v>
+      </c>
+      <c r="C312" s="36" t="s">
+        <v>944</v>
+      </c>
+      <c r="D312" s="35" t="s">
         <v>945</v>
-      </c>
-      <c r="C312" s="36" t="s">
-        <v>946</v>
-      </c>
-      <c r="D312" s="35" t="s">
-        <v>947</v>
       </c>
       <c r="E312" s="23">
         <v>1</v>
@@ -12784,7 +12786,7 @@
       </c>
       <c r="H312" s="23"/>
       <c r="I312" s="37" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="17.25">
@@ -12792,13 +12794,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="C313" s="36" t="s">
+        <v>948</v>
+      </c>
+      <c r="D313" s="38" t="s">
         <v>949</v>
-      </c>
-      <c r="C313" s="36" t="s">
-        <v>950</v>
-      </c>
-      <c r="D313" s="38" t="s">
-        <v>951</v>
       </c>
       <c r="E313" s="23">
         <v>1</v>
@@ -12811,7 +12813,7 @@
       </c>
       <c r="H313" s="23"/>
       <c r="I313" s="36" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12819,10 +12821,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="35" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C314" s="36" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D314" s="23"/>
       <c r="E314" s="23">
@@ -12836,7 +12838,7 @@
       </c>
       <c r="H314" s="23"/>
       <c r="I314" s="36" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
@@ -12844,10 +12846,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="35" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C315" s="36" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D315" s="23"/>
       <c r="E315" s="23">
@@ -12861,7 +12863,7 @@
       </c>
       <c r="H315" s="23"/>
       <c r="I315" s="36" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/game_module_config_cjj.xlsx
+++ b/config_2.2/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="970">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3955,38 +3955,6 @@
   </si>
   <si>
     <t>Act_Ty_QJD1Manager</t>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1号</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_sjb_style/act_001_ygbd</t>
-  </si>
-  <si>
-    <t>阳光榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_sjb_style/act_002_bzphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4333,7 +4301,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4425,12 +4393,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4761,13 +4723,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ320"/>
+  <dimension ref="A1:AJ318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C301" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B327" sqref="B327"/>
+      <selection pane="bottomRight" activeCell="B323" sqref="B323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4784,7 +4746,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6682,29 +6644,29 @@
         <v>642</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="34" customFormat="1" ht="16.5">
+    <row r="74" spans="1:9" s="32" customFormat="1" ht="16.5">
       <c r="A74" s="16">
         <v>73</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="31" t="s">
         <v>656</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="33" t="s">
+      <c r="D74" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="E74" s="33">
-        <v>0</v>
-      </c>
-      <c r="F74" s="34">
-        <v>0</v>
-      </c>
-      <c r="G74" s="34">
-        <v>0</v>
-      </c>
-      <c r="I74" s="35" t="s">
+      <c r="E74" s="31">
+        <v>0</v>
+      </c>
+      <c r="F74" s="32">
+        <v>0</v>
+      </c>
+      <c r="G74" s="32">
+        <v>0</v>
+      </c>
+      <c r="I74" s="33" t="s">
         <v>644</v>
       </c>
     </row>
@@ -11172,13 +11134,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>738</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -12073,29 +12035,29 @@
         <v>641</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="38" customFormat="1" ht="16.5">
-      <c r="A288" s="48">
+    <row r="288" spans="1:9" s="36" customFormat="1" ht="16.5">
+      <c r="A288" s="46">
         <v>287</v>
       </c>
-      <c r="B288" s="37" t="s">
+      <c r="B288" s="35" t="s">
         <v>860</v>
       </c>
-      <c r="C288" s="37" t="s">
+      <c r="C288" s="35" t="s">
         <v>861</v>
       </c>
-      <c r="D288" s="37" t="s">
+      <c r="D288" s="35" t="s">
         <v>862</v>
       </c>
-      <c r="E288" s="38">
-        <v>1</v>
-      </c>
-      <c r="F288" s="38">
-        <v>1</v>
-      </c>
-      <c r="G288" s="38">
-        <v>1</v>
-      </c>
-      <c r="I288" s="37" t="s">
+      <c r="E288" s="36">
+        <v>1</v>
+      </c>
+      <c r="F288" s="36">
+        <v>1</v>
+      </c>
+      <c r="G288" s="36">
+        <v>1</v>
+      </c>
+      <c r="I288" s="35" t="s">
         <v>733</v>
       </c>
     </row>
@@ -12422,13 +12384,13 @@
       <c r="A298" s="16">
         <v>297</v>
       </c>
-      <c r="B298" s="40" t="s">
+      <c r="B298" s="38" t="s">
         <v>896</v>
       </c>
-      <c r="C298" s="41" t="s">
+      <c r="C298" s="39" t="s">
         <v>899</v>
       </c>
-      <c r="D298" s="40" t="s">
+      <c r="D298" s="38" t="s">
         <v>897</v>
       </c>
       <c r="E298" s="30">
@@ -12441,7 +12403,7 @@
         <v>1</v>
       </c>
       <c r="H298" s="30"/>
-      <c r="I298" s="42" t="s">
+      <c r="I298" s="40" t="s">
         <v>898</v>
       </c>
       <c r="J298" s="17"/>
@@ -12476,26 +12438,26 @@
       <c r="A299" s="16">
         <v>298</v>
       </c>
-      <c r="B299" s="43" t="s">
-        <v>955</v>
-      </c>
-      <c r="C299" s="44" t="s">
+      <c r="B299" s="41" t="s">
+        <v>950</v>
+      </c>
+      <c r="C299" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="D299" s="43" t="s">
-        <v>953</v>
-      </c>
-      <c r="E299" s="45">
-        <v>1</v>
-      </c>
-      <c r="F299" s="45">
-        <v>1</v>
-      </c>
-      <c r="G299" s="45">
-        <v>1</v>
-      </c>
-      <c r="H299" s="45"/>
-      <c r="I299" s="44" t="s">
+      <c r="D299" s="41" t="s">
+        <v>948</v>
+      </c>
+      <c r="E299" s="43">
+        <v>1</v>
+      </c>
+      <c r="F299" s="43">
+        <v>1</v>
+      </c>
+      <c r="G299" s="43">
+        <v>1</v>
+      </c>
+      <c r="H299" s="43"/>
+      <c r="I299" s="42" t="s">
         <v>920</v>
       </c>
       <c r="J299" s="17"/>
@@ -12530,26 +12492,26 @@
       <c r="A300" s="16">
         <v>299</v>
       </c>
-      <c r="B300" s="43" t="s">
-        <v>956</v>
-      </c>
-      <c r="C300" s="44" t="s">
+      <c r="B300" s="41" t="s">
+        <v>951</v>
+      </c>
+      <c r="C300" s="42" t="s">
         <v>921</v>
       </c>
-      <c r="D300" s="43" t="s">
-        <v>952</v>
-      </c>
-      <c r="E300" s="45">
-        <v>1</v>
-      </c>
-      <c r="F300" s="45">
-        <v>1</v>
-      </c>
-      <c r="G300" s="45">
-        <v>1</v>
-      </c>
-      <c r="H300" s="45"/>
-      <c r="I300" s="44" t="s">
+      <c r="D300" s="41" t="s">
+        <v>947</v>
+      </c>
+      <c r="E300" s="43">
+        <v>1</v>
+      </c>
+      <c r="F300" s="43">
+        <v>1</v>
+      </c>
+      <c r="G300" s="43">
+        <v>1</v>
+      </c>
+      <c r="H300" s="43"/>
+      <c r="I300" s="42" t="s">
         <v>920</v>
       </c>
     </row>
@@ -12557,26 +12519,26 @@
       <c r="A301" s="16">
         <v>300</v>
       </c>
-      <c r="B301" s="43" t="s">
-        <v>948</v>
-      </c>
-      <c r="C301" s="43" t="s">
+      <c r="B301" s="41" t="s">
+        <v>943</v>
+      </c>
+      <c r="C301" s="41" t="s">
         <v>900</v>
       </c>
-      <c r="D301" s="43" t="s">
-        <v>949</v>
-      </c>
-      <c r="E301" s="45">
-        <v>1</v>
-      </c>
-      <c r="F301" s="45">
-        <v>1</v>
-      </c>
-      <c r="G301" s="45">
-        <v>1</v>
-      </c>
-      <c r="H301" s="45"/>
-      <c r="I301" s="46" t="s">
+      <c r="D301" s="41" t="s">
+        <v>944</v>
+      </c>
+      <c r="E301" s="43">
+        <v>1</v>
+      </c>
+      <c r="F301" s="43">
+        <v>1</v>
+      </c>
+      <c r="G301" s="43">
+        <v>1</v>
+      </c>
+      <c r="H301" s="43"/>
+      <c r="I301" s="44" t="s">
         <v>641</v>
       </c>
     </row>
@@ -12615,7 +12577,7 @@
         <v>907</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D303" s="18" t="s">
         <v>905</v>
@@ -12638,13 +12600,13 @@
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="40" t="s">
+      <c r="B304" s="38" t="s">
         <v>911</v>
       </c>
-      <c r="C304" s="41" t="s">
+      <c r="C304" s="39" t="s">
         <v>912</v>
       </c>
-      <c r="D304" s="40" t="s">
+      <c r="D304" s="38" t="s">
         <v>913</v>
       </c>
       <c r="E304" s="30">
@@ -12657,7 +12619,7 @@
         <v>1</v>
       </c>
       <c r="H304" s="30"/>
-      <c r="I304" s="41" t="s">
+      <c r="I304" s="39" t="s">
         <v>910</v>
       </c>
     </row>
@@ -12740,7 +12702,7 @@
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="39" t="s">
+      <c r="B308" s="37" t="s">
         <v>926</v>
       </c>
       <c r="C308" s="15" t="s">
@@ -12766,13 +12728,13 @@
       <c r="A309" s="16">
         <v>308</v>
       </c>
-      <c r="B309" s="39" t="s">
+      <c r="B309" s="37" t="s">
         <v>930</v>
       </c>
       <c r="C309" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="D309" s="39" t="s">
+      <c r="D309" s="37" t="s">
         <v>932</v>
       </c>
       <c r="E309" s="17">
@@ -12818,13 +12780,13 @@
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="39" t="s">
+      <c r="B311" s="37" t="s">
         <v>937</v>
       </c>
       <c r="C311" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="D311" s="39" t="s">
+      <c r="D311" s="37" t="s">
         <v>939</v>
       </c>
       <c r="E311" s="17">
@@ -12844,225 +12806,175 @@
       <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="31" t="s">
-        <v>941</v>
-      </c>
-      <c r="C312" s="32" t="s">
-        <v>942</v>
-      </c>
-      <c r="D312" s="23"/>
-      <c r="E312" s="23">
-        <v>1</v>
-      </c>
-      <c r="F312" s="23">
-        <v>1</v>
-      </c>
-      <c r="G312" s="23">
-        <v>1</v>
-      </c>
-      <c r="H312" s="23"/>
-      <c r="I312" s="32" t="s">
-        <v>940</v>
+      <c r="B312" s="34" t="s">
+        <v>953</v>
+      </c>
+      <c r="C312" s="35" t="s">
+        <v>954</v>
+      </c>
+      <c r="D312" s="36"/>
+      <c r="E312" s="36">
+        <v>1</v>
+      </c>
+      <c r="F312" s="36">
+        <v>1</v>
+      </c>
+      <c r="G312" s="36">
+        <v>1</v>
+      </c>
+      <c r="H312" s="36"/>
+      <c r="I312" s="35" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="16.5">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="31" t="s">
-        <v>943</v>
-      </c>
-      <c r="C313" s="32" t="s">
-        <v>944</v>
-      </c>
-      <c r="D313" s="23"/>
-      <c r="E313" s="23">
-        <v>1</v>
-      </c>
-      <c r="F313" s="23">
-        <v>1</v>
-      </c>
-      <c r="G313" s="23">
-        <v>1</v>
-      </c>
-      <c r="H313" s="23"/>
-      <c r="I313" s="32" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" ht="16.5">
+      <c r="B313" s="34" t="s">
+        <v>956</v>
+      </c>
+      <c r="C313" s="35" t="s">
+        <v>957</v>
+      </c>
+      <c r="D313" s="36"/>
+      <c r="E313" s="36">
+        <v>1</v>
+      </c>
+      <c r="F313" s="36">
+        <v>1</v>
+      </c>
+      <c r="G313" s="36">
+        <v>1</v>
+      </c>
+      <c r="H313" s="36"/>
+      <c r="I313" s="35" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A314" s="16">
         <v>313</v>
       </c>
-      <c r="B314" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="C314" s="37" t="s">
-        <v>959</v>
-      </c>
-      <c r="D314" s="38"/>
-      <c r="E314" s="38">
-        <v>1</v>
-      </c>
-      <c r="F314" s="38">
-        <v>1</v>
-      </c>
-      <c r="G314" s="38">
-        <v>1</v>
-      </c>
-      <c r="H314" s="38"/>
-      <c r="I314" s="37" t="s">
+      <c r="B314" s="34" t="s">
         <v>960</v>
+      </c>
+      <c r="C314" s="36" t="s">
+        <v>961</v>
+      </c>
+      <c r="D314" s="36"/>
+      <c r="E314" s="36">
+        <v>1</v>
+      </c>
+      <c r="F314" s="36">
+        <v>1</v>
+      </c>
+      <c r="G314" s="36">
+        <v>1</v>
+      </c>
+      <c r="H314" s="36"/>
+      <c r="I314" s="35" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="36" t="s">
-        <v>961</v>
-      </c>
-      <c r="C315" s="37" t="s">
+      <c r="B315" s="34" t="s">
         <v>962</v>
       </c>
-      <c r="D315" s="38"/>
-      <c r="E315" s="38">
-        <v>1</v>
-      </c>
-      <c r="F315" s="38">
-        <v>1</v>
-      </c>
-      <c r="G315" s="38">
-        <v>1</v>
-      </c>
-      <c r="H315" s="38"/>
-      <c r="I315" s="37" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="C315" s="35" t="s">
+        <v>963</v>
+      </c>
+      <c r="D315" s="36"/>
+      <c r="E315" s="36">
+        <v>1</v>
+      </c>
+      <c r="F315" s="36">
+        <v>1</v>
+      </c>
+      <c r="G315" s="36">
+        <v>1</v>
+      </c>
+      <c r="H315" s="36"/>
+      <c r="I315" s="35" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="16.5">
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="36" t="s">
+      <c r="B316" s="34" t="s">
+        <v>964</v>
+      </c>
+      <c r="C316" s="35" t="s">
         <v>965</v>
       </c>
-      <c r="C316" s="38" t="s">
-        <v>966</v>
-      </c>
-      <c r="D316" s="38"/>
-      <c r="E316" s="38">
-        <v>1</v>
-      </c>
-      <c r="F316" s="38">
-        <v>1</v>
-      </c>
-      <c r="G316" s="38">
-        <v>1</v>
-      </c>
-      <c r="H316" s="38"/>
-      <c r="I316" s="37" t="s">
-        <v>960</v>
+      <c r="D316" s="36"/>
+      <c r="E316" s="36">
+        <v>1</v>
+      </c>
+      <c r="F316" s="36">
+        <v>1</v>
+      </c>
+      <c r="G316" s="36">
+        <v>1</v>
+      </c>
+      <c r="H316" s="36"/>
+      <c r="I316" s="35" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="16.5">
       <c r="A317" s="16">
         <v>316</v>
       </c>
-      <c r="B317" s="36" t="s">
+      <c r="B317" s="34" t="s">
+        <v>946</v>
+      </c>
+      <c r="C317" s="35" t="s">
+        <v>966</v>
+      </c>
+      <c r="D317" s="36"/>
+      <c r="E317" s="36">
+        <v>1</v>
+      </c>
+      <c r="F317" s="36">
+        <v>1</v>
+      </c>
+      <c r="G317" s="36">
+        <v>1</v>
+      </c>
+      <c r="H317" s="36"/>
+      <c r="I317" s="35" t="s">
         <v>967</v>
-      </c>
-      <c r="C317" s="37" t="s">
-        <v>968</v>
-      </c>
-      <c r="D317" s="38"/>
-      <c r="E317" s="38">
-        <v>1</v>
-      </c>
-      <c r="F317" s="38">
-        <v>1</v>
-      </c>
-      <c r="G317" s="38">
-        <v>1</v>
-      </c>
-      <c r="H317" s="38"/>
-      <c r="I317" s="37" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="36" t="s">
+      <c r="B318" s="34" t="s">
+        <v>952</v>
+      </c>
+      <c r="C318" s="35" t="s">
+        <v>968</v>
+      </c>
+      <c r="D318" s="36"/>
+      <c r="E318" s="36">
+        <v>1</v>
+      </c>
+      <c r="F318" s="36">
+        <v>1</v>
+      </c>
+      <c r="G318" s="36">
+        <v>1</v>
+      </c>
+      <c r="H318" s="36"/>
+      <c r="I318" s="47" t="s">
         <v>969</v>
-      </c>
-      <c r="C318" s="37" t="s">
-        <v>970</v>
-      </c>
-      <c r="D318" s="38"/>
-      <c r="E318" s="38">
-        <v>1</v>
-      </c>
-      <c r="F318" s="38">
-        <v>1</v>
-      </c>
-      <c r="G318" s="38">
-        <v>1</v>
-      </c>
-      <c r="H318" s="38"/>
-      <c r="I318" s="37" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" ht="16.5">
-      <c r="A319" s="16">
-        <v>318</v>
-      </c>
-      <c r="B319" s="36" t="s">
-        <v>951</v>
-      </c>
-      <c r="C319" s="37" t="s">
-        <v>971</v>
-      </c>
-      <c r="D319" s="38"/>
-      <c r="E319" s="38">
-        <v>1</v>
-      </c>
-      <c r="F319" s="38">
-        <v>1</v>
-      </c>
-      <c r="G319" s="38">
-        <v>1</v>
-      </c>
-      <c r="H319" s="38"/>
-      <c r="I319" s="37" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" ht="16.5">
-      <c r="A320" s="16">
-        <v>319</v>
-      </c>
-      <c r="B320" s="36" t="s">
-        <v>957</v>
-      </c>
-      <c r="C320" s="37" t="s">
-        <v>973</v>
-      </c>
-      <c r="D320" s="38"/>
-      <c r="E320" s="38">
-        <v>1</v>
-      </c>
-      <c r="F320" s="38">
-        <v>1</v>
-      </c>
-      <c r="G320" s="38">
-        <v>1</v>
-      </c>
-      <c r="H320" s="38"/>
-      <c r="I320" s="49" t="s">
-        <v>974</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/game_module_config_cjj.xlsx
+++ b/config_2.2/game_module_config_cjj.xlsx
@@ -3788,9 +3788,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Act_039_JZSJBManager</t>
-  </si>
-  <si>
     <t>cjj互导</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3870,10 +3867,6 @@
   </si>
   <si>
     <t>Act_Ty_ZP1Manager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_039_TY_BY_HHLManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4161,6 +4154,14 @@
   </si>
   <si>
     <t>爆竹换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4788,10 +4789,10 @@
   <dimension ref="A1:AJ321"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C300" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C297" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E312" sqref="E312"/>
+      <selection pane="bottomRight" activeCell="D301" sqref="D301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11222,13 +11223,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="24" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C254" s="25" t="s">
         <v>741</v>
       </c>
       <c r="D254" s="24" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E254" s="25">
         <v>0</v>
@@ -11304,7 +11305,7 @@
         <v>752</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D257" s="15" t="s">
         <v>753</v>
@@ -11320,7 +11321,7 @@
       </c>
       <c r="H257" s="17"/>
       <c r="I257" s="15" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12422,7 +12423,7 @@
         <v>896</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D298" s="17"/>
       <c r="E298" s="17">
@@ -12436,7 +12437,7 @@
       </c>
       <c r="H298" s="17"/>
       <c r="I298" s="15" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12528,7 +12529,7 @@
         <v>900</v>
       </c>
       <c r="C300" s="41" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D300" s="40" t="s">
         <v>901</v>
@@ -12579,13 +12580,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="43" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C301" s="44" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D301" s="43" t="s">
-        <v>925</v>
+        <v>974</v>
       </c>
       <c r="E301" s="45">
         <v>1</v>
@@ -12598,7 +12599,7 @@
       </c>
       <c r="H301" s="45"/>
       <c r="I301" s="44" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12633,13 +12634,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="43" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C302" s="44" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D302" s="43" t="s">
-        <v>903</v>
+        <v>973</v>
       </c>
       <c r="E302" s="45">
         <v>1</v>
@@ -12652,7 +12653,7 @@
       </c>
       <c r="H302" s="45"/>
       <c r="I302" s="44" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12660,13 +12661,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="43" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C303" s="43" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D303" s="43" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E303" s="45">
         <v>1</v>
@@ -12687,13 +12688,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
+        <v>905</v>
+      </c>
+      <c r="C304" s="17" t="s">
         <v>906</v>
       </c>
-      <c r="C304" s="17" t="s">
+      <c r="D304" s="17" t="s">
         <v>907</v>
-      </c>
-      <c r="D304" s="17" t="s">
-        <v>908</v>
       </c>
       <c r="E304" s="17">
         <v>1</v>
@@ -12706,7 +12707,7 @@
       </c>
       <c r="H304" s="17"/>
       <c r="I304" s="19" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5">
@@ -12714,13 +12715,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C305" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="D305" s="18" t="s">
         <v>910</v>
-      </c>
-      <c r="D305" s="18" t="s">
-        <v>911</v>
       </c>
       <c r="E305" s="17">
         <v>0</v>
@@ -12733,7 +12734,7 @@
       </c>
       <c r="H305" s="17"/>
       <c r="I305" s="15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
@@ -12741,13 +12742,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="40" t="s">
+        <v>918</v>
+      </c>
+      <c r="C306" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="C306" s="41" t="s">
+      <c r="D306" s="40" t="s">
         <v>920</v>
-      </c>
-      <c r="D306" s="40" t="s">
-        <v>921</v>
       </c>
       <c r="E306" s="30">
         <v>1</v>
@@ -12760,7 +12761,7 @@
       </c>
       <c r="H306" s="30"/>
       <c r="I306" s="41" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="307" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12768,14 +12769,14 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
+        <v>921</v>
+      </c>
+      <c r="C307" s="15" t="s">
         <v>922</v>
       </c>
-      <c r="C307" s="15" t="s">
+      <c r="D307" s="18" t="s">
         <v>923</v>
       </c>
-      <c r="D307" s="18" t="s">
-        <v>924</v>
-      </c>
       <c r="E307" s="17">
         <v>1</v>
       </c>
@@ -12786,7 +12787,7 @@
         <v>1</v>
       </c>
       <c r="I307" s="15" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12794,25 +12795,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="18" t="s">
+        <v>925</v>
+      </c>
+      <c r="C308" s="15" t="s">
+        <v>926</v>
+      </c>
+      <c r="D308" s="18" t="s">
         <v>927</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="I308" s="15" t="s">
         <v>928</v>
-      </c>
-      <c r="D308" s="18" t="s">
-        <v>929</v>
-      </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5">
@@ -12820,13 +12821,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="18" t="s">
+        <v>931</v>
+      </c>
+      <c r="C309" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="D309" s="18" t="s">
         <v>933</v>
-      </c>
-      <c r="C309" s="15" t="s">
-        <v>934</v>
-      </c>
-      <c r="D309" s="18" t="s">
-        <v>935</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12843,25 +12844,25 @@
         <v>309</v>
       </c>
       <c r="B310" s="39" t="s">
+        <v>934</v>
+      </c>
+      <c r="C310" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="D310" s="18" t="s">
         <v>936</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="E310" s="17">
+        <v>1</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="I310" s="15" t="s">
         <v>937</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>938</v>
-      </c>
-      <c r="E310" s="17">
-        <v>1</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="I310" s="15" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -12869,13 +12870,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="39" t="s">
+        <v>938</v>
+      </c>
+      <c r="C311" s="15" t="s">
+        <v>939</v>
+      </c>
+      <c r="D311" s="39" t="s">
         <v>940</v>
-      </c>
-      <c r="C311" s="15" t="s">
-        <v>941</v>
-      </c>
-      <c r="D311" s="39" t="s">
-        <v>942</v>
       </c>
       <c r="E311" s="17">
         <v>1</v>
@@ -12895,25 +12896,25 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>941</v>
+      </c>
+      <c r="C312" s="15" t="s">
+        <v>942</v>
+      </c>
+      <c r="D312" s="18" t="s">
         <v>943</v>
       </c>
-      <c r="C312" s="15" t="s">
+      <c r="E312" s="17">
+        <v>1</v>
+      </c>
+      <c r="F312" s="17">
+        <v>1</v>
+      </c>
+      <c r="G312" s="17">
+        <v>1</v>
+      </c>
+      <c r="I312" s="19" t="s">
         <v>944</v>
-      </c>
-      <c r="D312" s="18" t="s">
-        <v>945</v>
-      </c>
-      <c r="E312" s="17">
-        <v>1</v>
-      </c>
-      <c r="F312" s="17">
-        <v>1</v>
-      </c>
-      <c r="G312" s="17">
-        <v>1</v>
-      </c>
-      <c r="I312" s="19" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -12921,25 +12922,25 @@
         <v>312</v>
       </c>
       <c r="B313" s="39" t="s">
+        <v>945</v>
+      </c>
+      <c r="C313" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="D313" s="39" t="s">
         <v>947</v>
       </c>
-      <c r="C313" s="15" t="s">
+      <c r="E313" s="17">
+        <v>1</v>
+      </c>
+      <c r="F313" s="17">
+        <v>1</v>
+      </c>
+      <c r="G313" s="17">
+        <v>1</v>
+      </c>
+      <c r="I313" s="15" t="s">
         <v>948</v>
-      </c>
-      <c r="D313" s="39" t="s">
-        <v>949</v>
-      </c>
-      <c r="E313" s="17">
-        <v>1</v>
-      </c>
-      <c r="F313" s="17">
-        <v>1</v>
-      </c>
-      <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="15" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12947,10 +12948,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="31" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C314" s="32" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D314" s="23"/>
       <c r="E314" s="23">
@@ -12964,7 +12965,7 @@
       </c>
       <c r="H314" s="23"/>
       <c r="I314" s="32" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
@@ -12972,10 +12973,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="31" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C315" s="32" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D315" s="23"/>
       <c r="E315" s="23">
@@ -12989,7 +12990,7 @@
       </c>
       <c r="H315" s="23"/>
       <c r="I315" s="32" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="16.5">
@@ -12997,10 +12998,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="36" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C316" s="37" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D316" s="38"/>
       <c r="E316" s="38">
@@ -13014,7 +13015,7 @@
       </c>
       <c r="H316" s="38"/>
       <c r="I316" s="37" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="16.5">
@@ -13022,10 +13023,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="36" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C317" s="37" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D317" s="38"/>
       <c r="E317" s="38">
@@ -13039,7 +13040,7 @@
       </c>
       <c r="H317" s="38"/>
       <c r="I317" s="37" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13047,7 +13048,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="36" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C318" s="38"/>
       <c r="D318" s="38"/>
@@ -13062,7 +13063,7 @@
       </c>
       <c r="H318" s="38"/>
       <c r="I318" s="37" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13070,7 +13071,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="36" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C319" s="38"/>
       <c r="D319" s="38"/>
@@ -13085,7 +13086,7 @@
       </c>
       <c r="H319" s="38"/>
       <c r="I319" s="37" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -13093,10 +13094,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="36" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C320" s="37" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D320" s="38"/>
       <c r="E320" s="38">
@@ -13110,7 +13111,7 @@
       </c>
       <c r="H320" s="38"/>
       <c r="I320" s="37" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16.5">
@@ -13118,10 +13119,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="36" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C321" s="37" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D321" s="38"/>
       <c r="E321" s="38">
@@ -13135,7 +13136,7 @@
       </c>
       <c r="H321" s="38"/>
       <c r="I321" s="37" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/game_module_config_cjj.xlsx
+++ b/config_2.2/game_module_config_cjj.xlsx
@@ -3866,10 +3866,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_by_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_lb1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3996,10 +3992,6 @@
       </rPr>
       <t>1号</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_sjb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4162,6 +4154,14 @@
   </si>
   <si>
     <t>元旦福利（半年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4792,7 +4792,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C297" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C305" sqref="C305"/>
+      <selection pane="bottomRight" activeCell="B306" sqref="B306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11223,13 +11223,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="24" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C254" s="25" t="s">
         <v>741</v>
       </c>
       <c r="D254" s="24" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E254" s="25">
         <v>0</v>
@@ -12580,13 +12580,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="43" t="s">
-        <v>923</v>
+        <v>973</v>
       </c>
       <c r="C301" s="44" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D301" s="43" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E301" s="45">
         <v>1</v>
@@ -12599,7 +12599,7 @@
       </c>
       <c r="H301" s="45"/>
       <c r="I301" s="44" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12634,13 +12634,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="43" t="s">
-        <v>948</v>
+        <v>974</v>
       </c>
       <c r="C302" s="44" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D302" s="43" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E302" s="45">
         <v>1</v>
@@ -12653,7 +12653,7 @@
       </c>
       <c r="H302" s="45"/>
       <c r="I302" s="44" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12661,13 +12661,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="43" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C303" s="43" t="s">
         <v>904</v>
       </c>
       <c r="D303" s="43" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E303" s="45">
         <v>1</v>
@@ -12718,7 +12718,7 @@
         <v>911</v>
       </c>
       <c r="C305" s="15" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D305" s="18" t="s">
         <v>909</v>
@@ -12787,7 +12787,7 @@
         <v>1</v>
       </c>
       <c r="I307" s="15" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12795,25 +12795,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="18" t="s">
+        <v>923</v>
+      </c>
+      <c r="C308" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="D308" s="18" t="s">
         <v>925</v>
       </c>
-      <c r="D308" s="18" t="s">
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="I308" s="15" t="s">
         <v>926</v>
-      </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5">
@@ -12821,13 +12821,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="18" t="s">
+        <v>929</v>
+      </c>
+      <c r="C309" s="15" t="s">
         <v>930</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="D309" s="18" t="s">
         <v>931</v>
-      </c>
-      <c r="D309" s="18" t="s">
-        <v>932</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12844,25 +12844,25 @@
         <v>309</v>
       </c>
       <c r="B310" s="39" t="s">
+        <v>932</v>
+      </c>
+      <c r="C310" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="D310" s="18" t="s">
         <v>934</v>
       </c>
-      <c r="D310" s="18" t="s">
+      <c r="E310" s="17">
+        <v>1</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="I310" s="15" t="s">
         <v>935</v>
-      </c>
-      <c r="E310" s="17">
-        <v>1</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="I310" s="15" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -12870,13 +12870,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="39" t="s">
+        <v>936</v>
+      </c>
+      <c r="C311" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="D311" s="39" t="s">
         <v>938</v>
-      </c>
-      <c r="D311" s="39" t="s">
-        <v>939</v>
       </c>
       <c r="E311" s="17">
         <v>1</v>
@@ -12896,25 +12896,25 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>939</v>
+      </c>
+      <c r="C312" s="15" t="s">
         <v>940</v>
       </c>
-      <c r="C312" s="15" t="s">
+      <c r="D312" s="18" t="s">
         <v>941</v>
       </c>
-      <c r="D312" s="18" t="s">
+      <c r="E312" s="17">
+        <v>1</v>
+      </c>
+      <c r="F312" s="17">
+        <v>1</v>
+      </c>
+      <c r="G312" s="17">
+        <v>1</v>
+      </c>
+      <c r="I312" s="19" t="s">
         <v>942</v>
-      </c>
-      <c r="E312" s="17">
-        <v>1</v>
-      </c>
-      <c r="F312" s="17">
-        <v>1</v>
-      </c>
-      <c r="G312" s="17">
-        <v>1</v>
-      </c>
-      <c r="I312" s="19" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -12922,25 +12922,25 @@
         <v>312</v>
       </c>
       <c r="B313" s="39" t="s">
+        <v>943</v>
+      </c>
+      <c r="C313" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="C313" s="15" t="s">
+      <c r="D313" s="39" t="s">
         <v>945</v>
       </c>
-      <c r="D313" s="39" t="s">
+      <c r="E313" s="17">
+        <v>1</v>
+      </c>
+      <c r="F313" s="17">
+        <v>1</v>
+      </c>
+      <c r="G313" s="17">
+        <v>1</v>
+      </c>
+      <c r="I313" s="15" t="s">
         <v>946</v>
-      </c>
-      <c r="E313" s="17">
-        <v>1</v>
-      </c>
-      <c r="F313" s="17">
-        <v>1</v>
-      </c>
-      <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="15" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12948,10 +12948,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="31" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C314" s="32" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D314" s="23"/>
       <c r="E314" s="23">
@@ -12965,7 +12965,7 @@
       </c>
       <c r="H314" s="23"/>
       <c r="I314" s="32" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
@@ -12973,10 +12973,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="31" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C315" s="32" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D315" s="23"/>
       <c r="E315" s="23">
@@ -12990,7 +12990,7 @@
       </c>
       <c r="H315" s="23"/>
       <c r="I315" s="32" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="16.5">
@@ -12998,10 +12998,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="36" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C316" s="37" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D316" s="38"/>
       <c r="E316" s="38">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="H316" s="38"/>
       <c r="I316" s="37" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="16.5">
@@ -13023,10 +13023,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="36" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C317" s="37" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D317" s="38"/>
       <c r="E317" s="38">
@@ -13040,7 +13040,7 @@
       </c>
       <c r="H317" s="38"/>
       <c r="I317" s="37" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13048,7 +13048,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="36" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C318" s="38"/>
       <c r="D318" s="38"/>
@@ -13063,7 +13063,7 @@
       </c>
       <c r="H318" s="38"/>
       <c r="I318" s="37" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13071,7 +13071,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="36" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C319" s="38"/>
       <c r="D319" s="38"/>
@@ -13086,7 +13086,7 @@
       </c>
       <c r="H319" s="38"/>
       <c r="I319" s="37" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -13094,10 +13094,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="36" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C320" s="37" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D320" s="38"/>
       <c r="E320" s="38">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="H320" s="38"/>
       <c r="I320" s="37" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16.5">
@@ -13119,10 +13119,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="36" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C321" s="37" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D321" s="38"/>
       <c r="E321" s="38">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="H321" s="38"/>
       <c r="I321" s="37" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/game_module_config_cjj.xlsx
+++ b/config_2.2/game_module_config_cjj.xlsx
@@ -16,14 +16,14 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$233</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="972">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -647,15 +647,6 @@
   </si>
   <si>
     <t>SYSXYManager</t>
-  </si>
-  <si>
-    <t>hall_activity</t>
-  </si>
-  <si>
-    <t>系统：大厅活动</t>
-  </si>
-  <si>
-    <t>GameActivityManager</t>
   </si>
   <si>
     <t>sys_act_base</t>
@@ -4786,13 +4777,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ321"/>
+  <dimension ref="A1:AJ320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C297" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B306" sqref="B306"/>
+      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4822,7 +4813,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -4834,7 +4825,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
@@ -4860,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
@@ -4886,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
@@ -4912,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
@@ -4938,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
@@ -4964,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
@@ -4990,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
@@ -5016,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -5042,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
@@ -5068,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
@@ -5094,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
@@ -5120,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
@@ -5146,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -5172,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -5198,7 +5189,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
@@ -5224,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -5250,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5">
@@ -5276,7 +5267,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
@@ -5302,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
@@ -5328,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5">
@@ -5354,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
@@ -5380,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5">
@@ -5406,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5">
@@ -5432,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5">
@@ -5458,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
@@ -5484,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -5495,7 +5486,7 @@
         <v>82</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>83</v>
@@ -5510,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5">
@@ -5536,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5">
@@ -5562,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5">
@@ -5588,7 +5579,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5">
@@ -5614,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5">
@@ -5640,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5">
@@ -5666,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5">
@@ -5692,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5">
@@ -5718,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5">
@@ -5744,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5">
@@ -5770,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
@@ -5796,7 +5787,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
@@ -5822,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
@@ -5848,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
@@ -5874,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
@@ -5900,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5">
@@ -5926,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
@@ -5952,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5">
@@ -5978,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5">
@@ -6004,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5">
@@ -6030,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5">
@@ -6056,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5">
@@ -6067,7 +6058,7 @@
         <v>147</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>148</v>
@@ -6082,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5">
@@ -6108,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
@@ -6134,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5">
@@ -6158,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
@@ -6184,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5">
@@ -6192,7 +6183,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -6210,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5">
@@ -6218,7 +6209,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>162</v>
@@ -6236,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5">
@@ -6262,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5">
@@ -6288,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5">
@@ -6314,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
@@ -6340,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5">
@@ -6366,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
@@ -6392,7 +6383,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5">
@@ -6418,7 +6409,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
@@ -6444,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
@@ -6470,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5">
@@ -6496,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5">
@@ -6522,7 +6513,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5">
@@ -6539,16 +6530,16 @@
         <v>199</v>
       </c>
       <c r="E67" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5">
@@ -6574,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5">
@@ -6591,16 +6582,16 @@
         <v>205</v>
       </c>
       <c r="E69" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5">
@@ -6626,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5">
@@ -6652,7 +6643,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5">
@@ -6678,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5">
@@ -6704,59 +6695,59 @@
         <v>1</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="16.5">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="34" customFormat="1" ht="16.5">
       <c r="A74" s="16">
         <v>73</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="C74" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E74" s="5">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="34" customFormat="1" ht="16.5">
+      <c r="E74" s="33">
+        <v>0</v>
+      </c>
+      <c r="F74" s="34">
+        <v>0</v>
+      </c>
+      <c r="G74" s="34">
+        <v>0</v>
+      </c>
+      <c r="I74" s="35" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5">
       <c r="A75" s="16">
         <v>74</v>
       </c>
-      <c r="B75" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="C75" s="33" t="s">
+      <c r="B75" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="33" t="s">
+      <c r="D75" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="33">
-        <v>0</v>
-      </c>
-      <c r="F75" s="34">
-        <v>0</v>
-      </c>
-      <c r="G75" s="34">
-        <v>0</v>
-      </c>
-      <c r="I75" s="35" t="s">
-        <v>647</v>
+      <c r="E75" s="5">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5">
@@ -6773,16 +6764,16 @@
         <v>225</v>
       </c>
       <c r="E76" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -6807,8 +6798,8 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="I77" s="12" t="s">
-        <v>651</v>
+      <c r="I77" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
@@ -6825,16 +6816,16 @@
         <v>231</v>
       </c>
       <c r="E78" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5">
@@ -6851,15 +6842,15 @@
         <v>234</v>
       </c>
       <c r="E79" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="I79" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I79" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -6886,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5">
@@ -6912,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5">
@@ -6938,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5">
@@ -6964,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5">
@@ -6990,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5">
@@ -7007,16 +6998,16 @@
         <v>252</v>
       </c>
       <c r="E85" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5">
@@ -7042,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5">
@@ -7068,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5">
@@ -7094,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5">
@@ -7111,16 +7102,16 @@
         <v>264</v>
       </c>
       <c r="E89" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5">
@@ -7137,16 +7128,16 @@
         <v>267</v>
       </c>
       <c r="E90" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5">
@@ -7163,16 +7154,16 @@
         <v>270</v>
       </c>
       <c r="E91" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5">
@@ -7189,16 +7180,16 @@
         <v>273</v>
       </c>
       <c r="E92" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5">
@@ -7215,16 +7206,16 @@
         <v>276</v>
       </c>
       <c r="E93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5">
@@ -7249,8 +7240,8 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="I94" s="12" t="s">
-        <v>645</v>
+      <c r="I94" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5">
@@ -7276,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5">
@@ -7302,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5">
@@ -7328,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5">
@@ -7354,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5">
@@ -7380,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5">
@@ -7397,16 +7388,16 @@
         <v>297</v>
       </c>
       <c r="E100" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>650</v>
+        <v>1</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5">
@@ -7423,16 +7414,16 @@
         <v>300</v>
       </c>
       <c r="E101" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>645</v>
+        <v>678</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
@@ -7457,8 +7448,8 @@
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="I102" s="12" t="s">
-        <v>681</v>
+      <c r="I102" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
@@ -7475,16 +7466,16 @@
         <v>306</v>
       </c>
       <c r="E103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5">
@@ -7501,15 +7492,15 @@
         <v>309</v>
       </c>
       <c r="E104" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="I104" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I104" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -7535,8 +7526,8 @@
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="I105" s="11" t="s">
-        <v>648</v>
+      <c r="I105" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5">
@@ -7561,8 +7552,8 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="I106" s="12" t="s">
-        <v>645</v>
+      <c r="I106" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5">
@@ -7588,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5">
@@ -7640,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5">
@@ -7666,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5">
@@ -7692,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5">
@@ -7718,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5">
@@ -7744,7 +7735,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5">
@@ -7770,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5">
@@ -7796,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5">
@@ -7848,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5">
@@ -7874,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5">
@@ -7900,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -7926,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5">
@@ -7952,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5">
@@ -7978,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5">
@@ -8004,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5">
@@ -8030,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5">
@@ -8056,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5">
@@ -8076,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="I126" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5">
@@ -8102,12 +8093,12 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="I127" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I127" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -8134,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5">
@@ -8160,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5">
@@ -8186,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5">
@@ -8212,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5">
@@ -8238,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5">
@@ -8290,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5">
@@ -8316,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5">
@@ -8342,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5">
@@ -8368,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5">
@@ -8394,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5">
@@ -8420,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5">
@@ -8446,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5">
@@ -8472,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5">
@@ -8489,16 +8480,16 @@
         <v>423</v>
       </c>
       <c r="E142" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="I142" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5">
@@ -8509,22 +8500,22 @@
         <v>424</v>
       </c>
       <c r="C143" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>426</v>
-      </c>
       <c r="E143" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5">
@@ -8532,25 +8523,25 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>428</v>
-      </c>
       <c r="E144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5">
@@ -8558,25 +8549,25 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="E145" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>645</v>
+        <v>692</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
@@ -8584,10 +8575,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>652</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>432</v>
@@ -8602,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -8627,8 +8618,8 @@
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="I147" s="12" t="s">
-        <v>695</v>
+      <c r="I147" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
@@ -8654,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5">
@@ -8680,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5">
@@ -8706,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5">
@@ -8732,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
@@ -8758,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
@@ -8784,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5">
@@ -8810,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5">
@@ -8836,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5">
@@ -8846,12 +8837,12 @@
       <c r="B156" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>462</v>
-      </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
@@ -8862,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5">
@@ -8870,14 +8861,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>464</v>
-      </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
@@ -8887,8 +8878,8 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="I157" s="11" t="s">
-        <v>648</v>
+      <c r="I157" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5">
@@ -8896,10 +8887,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>653</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>466</v>
@@ -8913,8 +8904,8 @@
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="I158" s="12" t="s">
-        <v>645</v>
+      <c r="I158" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5">
@@ -8940,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5">
@@ -8966,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5">
@@ -8992,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5">
@@ -9009,16 +9000,16 @@
         <v>478</v>
       </c>
       <c r="E162" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="I162" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
@@ -9035,16 +9026,16 @@
         <v>481</v>
       </c>
       <c r="E163" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="I163" s="12" t="s">
-        <v>696</v>
+        <v>0</v>
+      </c>
+      <c r="I163" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
@@ -9058,19 +9049,19 @@
         <v>483</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>484</v>
+        <v>614</v>
       </c>
       <c r="E164" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="I164" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5">
@@ -9078,25 +9069,25 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="D165" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>617</v>
-      </c>
       <c r="E165" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>1</v>
-      </c>
-      <c r="I165" s="12" t="s">
-        <v>645</v>
+        <v>0</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5">
@@ -9106,23 +9097,23 @@
       <c r="B166" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="D166" s="5" t="s">
-        <v>489</v>
-      </c>
       <c r="E166" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="I166" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5">
@@ -9130,25 +9121,25 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>639</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>491</v>
       </c>
       <c r="E167" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>1</v>
-      </c>
-      <c r="I167" s="12" t="s">
-        <v>646</v>
+        <v>0</v>
+      </c>
+      <c r="I167" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5">
@@ -9174,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5">
@@ -9187,9 +9178,7 @@
       <c r="C169" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>497</v>
-      </c>
+      <c r="D169" s="5"/>
       <c r="E169" s="5">
         <v>0</v>
       </c>
@@ -9199,8 +9188,8 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="I169" s="11" t="s">
-        <v>647</v>
+      <c r="I169" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5">
@@ -9208,23 +9197,23 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5">
@@ -9232,10 +9221,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -9248,7 +9237,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5">
@@ -9256,10 +9245,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>503</v>
+        <v>657</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>658</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -9272,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5">
@@ -9280,22 +9269,24 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="D173" s="5"/>
+        <v>501</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>503</v>
+      </c>
       <c r="E173" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="I173" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I173" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -9309,9 +9300,7 @@
       <c r="C174" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>506</v>
-      </c>
+      <c r="D174" s="5"/>
       <c r="E174" s="5">
         <v>0</v>
       </c>
@@ -9322,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5">
@@ -9330,23 +9319,23 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
         <v>0</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="I175" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I175" s="12" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5">
@@ -9354,23 +9343,23 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="I176" s="12" t="s">
-        <v>644</v>
+        <v>0</v>
+      </c>
+      <c r="I176" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5">
@@ -9378,23 +9367,25 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="D177" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D177" s="5"/>
       <c r="E177" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="I177" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I177" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5">
@@ -9420,7 +9411,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5">
@@ -9433,44 +9424,42 @@
       <c r="C179" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>518</v>
-      </c>
+      <c r="D179" s="5"/>
       <c r="E179" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>1</v>
-      </c>
-      <c r="I179" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I179" s="11" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="16.5">
+    <row r="180" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A180" s="16">
         <v>179</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C180" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
+      <c r="D180" s="7"/>
+      <c r="E180" s="7">
+        <v>0</v>
+      </c>
+      <c r="F180" s="2">
+        <v>0</v>
+      </c>
+      <c r="G180" s="2">
         <v>0</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9478,10 +9467,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7">
@@ -9494,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9502,10 +9491,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C182" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7">
@@ -9518,31 +9507,30 @@
         <v>0</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="16.5">
       <c r="A183" s="16">
         <v>182</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" t="s">
+        <v>524</v>
+      </c>
+      <c r="C183" t="s">
         <v>525</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7">
-        <v>0</v>
-      </c>
-      <c r="F183" s="2">
-        <v>0</v>
-      </c>
-      <c r="G183" s="2">
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
         <v>0</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5">
@@ -9550,11 +9538,11 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>526</v>
+      </c>
+      <c r="C184" t="s">
         <v>527</v>
       </c>
-      <c r="C184" t="s">
-        <v>528</v>
-      </c>
       <c r="E184">
         <v>0</v>
       </c>
@@ -9565,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5">
@@ -9573,11 +9561,11 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>528</v>
+      </c>
+      <c r="C185" t="s">
         <v>529</v>
       </c>
-      <c r="C185" t="s">
-        <v>530</v>
-      </c>
       <c r="E185">
         <v>0</v>
       </c>
@@ -9588,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5">
@@ -9596,11 +9584,11 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>530</v>
+      </c>
+      <c r="C186" t="s">
         <v>531</v>
       </c>
-      <c r="C186" t="s">
-        <v>532</v>
-      </c>
       <c r="E186">
         <v>0</v>
       </c>
@@ -9611,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5">
@@ -9619,11 +9607,11 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>532</v>
+      </c>
+      <c r="C187" t="s">
         <v>533</v>
       </c>
-      <c r="C187" t="s">
-        <v>534</v>
-      </c>
       <c r="E187">
         <v>0</v>
       </c>
@@ -9634,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5">
@@ -9642,11 +9630,11 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>534</v>
+      </c>
+      <c r="C188" t="s">
         <v>535</v>
       </c>
-      <c r="C188" t="s">
-        <v>536</v>
-      </c>
       <c r="E188">
         <v>0</v>
       </c>
@@ -9657,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5">
@@ -9665,11 +9653,11 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>536</v>
+      </c>
+      <c r="C189" t="s">
         <v>537</v>
       </c>
-      <c r="C189" t="s">
-        <v>538</v>
-      </c>
       <c r="E189">
         <v>0</v>
       </c>
@@ -9680,7 +9668,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5">
@@ -9688,11 +9676,11 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>538</v>
+      </c>
+      <c r="C190" t="s">
         <v>539</v>
       </c>
-      <c r="C190" t="s">
-        <v>540</v>
-      </c>
       <c r="E190">
         <v>0</v>
       </c>
@@ -9703,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5">
@@ -9711,11 +9699,11 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>540</v>
+      </c>
+      <c r="C191" t="s">
         <v>541</v>
       </c>
-      <c r="C191" t="s">
-        <v>542</v>
-      </c>
       <c r="E191">
         <v>0</v>
       </c>
@@ -9726,7 +9714,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5">
@@ -9734,11 +9722,11 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>542</v>
+      </c>
+      <c r="C192" t="s">
         <v>543</v>
       </c>
-      <c r="C192" t="s">
-        <v>544</v>
-      </c>
       <c r="E192">
         <v>0</v>
       </c>
@@ -9749,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5">
@@ -9757,11 +9745,11 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>544</v>
+      </c>
+      <c r="C193" t="s">
         <v>545</v>
       </c>
-      <c r="C193" t="s">
-        <v>546</v>
-      </c>
       <c r="E193">
         <v>0</v>
       </c>
@@ -9772,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5">
@@ -9780,11 +9768,11 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>546</v>
+      </c>
+      <c r="C194" t="s">
         <v>547</v>
       </c>
-      <c r="C194" t="s">
-        <v>548</v>
-      </c>
       <c r="E194">
         <v>0</v>
       </c>
@@ -9795,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5">
@@ -9803,11 +9791,11 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>548</v>
+      </c>
+      <c r="C195" t="s">
         <v>549</v>
       </c>
-      <c r="C195" t="s">
-        <v>550</v>
-      </c>
       <c r="E195">
         <v>0</v>
       </c>
@@ -9818,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5">
@@ -9826,10 +9814,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>550</v>
+      </c>
+      <c r="C196" t="s">
         <v>551</v>
-      </c>
-      <c r="C196" t="s">
-        <v>552</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -9849,11 +9837,11 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>552</v>
+      </c>
+      <c r="C197" t="s">
         <v>553</v>
       </c>
-      <c r="C197" t="s">
-        <v>554</v>
-      </c>
       <c r="E197">
         <v>0</v>
       </c>
@@ -9864,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5">
@@ -9872,11 +9860,11 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>554</v>
+      </c>
+      <c r="C198" t="s">
         <v>555</v>
       </c>
-      <c r="C198" t="s">
-        <v>556</v>
-      </c>
       <c r="E198">
         <v>0</v>
       </c>
@@ -9887,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5">
@@ -9895,11 +9883,11 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>556</v>
+      </c>
+      <c r="C199" t="s">
         <v>557</v>
       </c>
-      <c r="C199" t="s">
-        <v>558</v>
-      </c>
       <c r="E199">
         <v>0</v>
       </c>
@@ -9910,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5">
@@ -9918,11 +9906,11 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>558</v>
+      </c>
+      <c r="C200" t="s">
         <v>559</v>
       </c>
-      <c r="C200" t="s">
-        <v>560</v>
-      </c>
       <c r="E200">
         <v>0</v>
       </c>
@@ -9933,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5">
@@ -9941,11 +9929,11 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>560</v>
+      </c>
+      <c r="C201" t="s">
         <v>561</v>
       </c>
-      <c r="C201" t="s">
-        <v>562</v>
-      </c>
       <c r="E201">
         <v>0</v>
       </c>
@@ -9956,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5">
@@ -9964,11 +9952,11 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>562</v>
+      </c>
+      <c r="C202" t="s">
         <v>563</v>
       </c>
-      <c r="C202" t="s">
-        <v>564</v>
-      </c>
       <c r="E202">
         <v>0</v>
       </c>
@@ -9979,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5">
@@ -9987,11 +9975,11 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>564</v>
+      </c>
+      <c r="C203" t="s">
         <v>565</v>
       </c>
-      <c r="C203" t="s">
-        <v>566</v>
-      </c>
       <c r="E203">
         <v>0</v>
       </c>
@@ -10002,30 +9990,33 @@
         <v>0</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="16">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
-        <v>567</v>
+      <c r="B204" s="9" t="s">
+        <v>608</v>
       </c>
       <c r="C204" t="s">
-        <v>568</v>
+        <v>566</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>609</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204">
-        <v>0</v>
-      </c>
-      <c r="I204" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I204" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5">
@@ -10033,14 +10024,14 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C205" t="s">
+        <v>567</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="C205" t="s">
-        <v>569</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>612</v>
-      </c>
       <c r="E205">
         <v>1</v>
       </c>
@@ -10051,7 +10042,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5">
@@ -10059,14 +10050,14 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C206" t="s">
+        <v>568</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="C206" t="s">
-        <v>570</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>614</v>
-      </c>
       <c r="E206">
         <v>1</v>
       </c>
@@ -10077,32 +10068,29 @@
         <v>1</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="16">
         <v>206</v>
       </c>
-      <c r="B207" s="9" t="s">
-        <v>615</v>
+      <c r="B207" t="s">
+        <v>569</v>
       </c>
       <c r="C207" t="s">
-        <v>571</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>616</v>
+        <v>570</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>1</v>
-      </c>
-      <c r="I207" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I207" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -10111,11 +10099,11 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>571</v>
+      </c>
+      <c r="C208" t="s">
         <v>572</v>
       </c>
-      <c r="C208" t="s">
-        <v>573</v>
-      </c>
       <c r="E208">
         <v>0</v>
       </c>
@@ -10126,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5">
@@ -10134,11 +10122,11 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>573</v>
+      </c>
+      <c r="C209" t="s">
         <v>574</v>
       </c>
-      <c r="C209" t="s">
-        <v>575</v>
-      </c>
       <c r="E209">
         <v>0</v>
       </c>
@@ -10149,7 +10137,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5">
@@ -10157,11 +10145,11 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>575</v>
+      </c>
+      <c r="C210" t="s">
         <v>576</v>
       </c>
-      <c r="C210" t="s">
-        <v>577</v>
-      </c>
       <c r="E210">
         <v>0</v>
       </c>
@@ -10172,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5">
@@ -10180,22 +10168,22 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>577</v>
+      </c>
+      <c r="C211" t="s">
         <v>578</v>
       </c>
-      <c r="C211" t="s">
-        <v>579</v>
-      </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211">
-        <v>0</v>
-      </c>
-      <c r="I211" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I211" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5">
@@ -10203,22 +10191,22 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>579</v>
+      </c>
+      <c r="C212" t="s">
         <v>580</v>
       </c>
-      <c r="C212" t="s">
-        <v>581</v>
-      </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212">
-        <v>1</v>
-      </c>
-      <c r="I212" s="12" t="s">
-        <v>645</v>
+        <v>0</v>
+      </c>
+      <c r="I212" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5">
@@ -10226,11 +10214,11 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>581</v>
+      </c>
+      <c r="C213" t="s">
         <v>582</v>
       </c>
-      <c r="C213" t="s">
-        <v>583</v>
-      </c>
       <c r="E213">
         <v>0</v>
       </c>
@@ -10241,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5">
@@ -10249,11 +10237,11 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>583</v>
+      </c>
+      <c r="C214" t="s">
         <v>584</v>
       </c>
-      <c r="C214" t="s">
-        <v>585</v>
-      </c>
       <c r="E214">
         <v>0</v>
       </c>
@@ -10264,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5">
@@ -10272,11 +10260,11 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>585</v>
+      </c>
+      <c r="C215" t="s">
         <v>586</v>
       </c>
-      <c r="C215" t="s">
-        <v>587</v>
-      </c>
       <c r="E215">
         <v>0</v>
       </c>
@@ -10287,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5">
@@ -10295,11 +10283,11 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>587</v>
+      </c>
+      <c r="C216" t="s">
         <v>588</v>
       </c>
-      <c r="C216" t="s">
-        <v>589</v>
-      </c>
       <c r="E216">
         <v>0</v>
       </c>
@@ -10310,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5">
@@ -10318,10 +10306,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>589</v>
+      </c>
+      <c r="C217" t="s">
         <v>590</v>
-      </c>
-      <c r="C217" t="s">
-        <v>591</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -10341,11 +10329,11 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>591</v>
+      </c>
+      <c r="C218" t="s">
         <v>592</v>
       </c>
-      <c r="C218" t="s">
-        <v>593</v>
-      </c>
       <c r="E218">
         <v>0</v>
       </c>
@@ -10356,7 +10344,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5">
@@ -10364,11 +10352,11 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>593</v>
+      </c>
+      <c r="C219" t="s">
         <v>594</v>
       </c>
-      <c r="C219" t="s">
-        <v>595</v>
-      </c>
       <c r="E219">
         <v>0</v>
       </c>
@@ -10379,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5">
@@ -10387,11 +10375,11 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>595</v>
+      </c>
+      <c r="C220" t="s">
         <v>596</v>
       </c>
-      <c r="C220" t="s">
-        <v>597</v>
-      </c>
       <c r="E220">
         <v>0</v>
       </c>
@@ -10402,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5">
@@ -10410,11 +10398,11 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>597</v>
+      </c>
+      <c r="C221" t="s">
         <v>598</v>
       </c>
-      <c r="C221" t="s">
-        <v>599</v>
-      </c>
       <c r="E221">
         <v>0</v>
       </c>
@@ -10425,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5">
@@ -10433,11 +10421,11 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>599</v>
+      </c>
+      <c r="C222" t="s">
         <v>600</v>
       </c>
-      <c r="C222" t="s">
-        <v>601</v>
-      </c>
       <c r="E222">
         <v>0</v>
       </c>
@@ -10448,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5">
@@ -10456,11 +10444,11 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>601</v>
+      </c>
+      <c r="C223" t="s">
         <v>602</v>
       </c>
-      <c r="C223" t="s">
-        <v>603</v>
-      </c>
       <c r="E223">
         <v>0</v>
       </c>
@@ -10471,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5">
@@ -10479,11 +10467,11 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>603</v>
+      </c>
+      <c r="C224" t="s">
         <v>604</v>
       </c>
-      <c r="C224" t="s">
-        <v>605</v>
-      </c>
       <c r="E224">
         <v>0</v>
       </c>
@@ -10494,18 +10482,18 @@
         <v>0</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="16">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
-        <v>606</v>
+      <c r="B225" s="9" t="s">
+        <v>651</v>
       </c>
       <c r="C225" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -10525,22 +10513,22 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="C226" t="s">
-        <v>608</v>
+        <v>617</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>616</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226">
-        <v>0</v>
-      </c>
-      <c r="I226" s="11" t="s">
-        <v>650</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="16.5">
@@ -10548,13 +10536,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="D227" t="s">
         <v>620</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>619</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10576,7 +10564,7 @@
       <c r="C228" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="9" t="s">
         <v>623</v>
       </c>
       <c r="E228">
@@ -10617,16 +10605,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>628</v>
+        <v>884</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -10640,16 +10628,16 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>887</v>
+        <v>629</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -10663,22 +10651,22 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="16.5">
@@ -10686,22 +10674,22 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="16.5">
@@ -10709,22 +10697,22 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="16.5">
@@ -10732,10 +10720,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>664</v>
+        <v>808</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>665</v>
@@ -10748,6 +10736,9 @@
       </c>
       <c r="G235">
         <v>0</v>
+      </c>
+      <c r="I235" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5">
@@ -10755,10 +10746,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>811</v>
+        <v>669</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>668</v>
@@ -10772,8 +10763,8 @@
       <c r="G236">
         <v>0</v>
       </c>
-      <c r="I236" t="s">
-        <v>666</v>
+      <c r="I236" s="9" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -10781,25 +10772,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C237" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="D237" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="D237" s="9" t="s">
-        <v>671</v>
-      </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237">
-        <v>0</v>
-      </c>
-      <c r="I237" s="9" t="s">
-        <v>670</v>
+        <v>1</v>
+      </c>
+      <c r="I237" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -10807,16 +10798,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>675</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -10833,16 +10824,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C239" s="9" t="s">
         <v>680</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -10851,7 +10842,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -10859,13 +10850,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="C240" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="C240" s="9" t="s">
-        <v>683</v>
-      </c>
       <c r="D240" s="9" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -10876,8 +10867,8 @@
       <c r="G240">
         <v>1</v>
       </c>
-      <c r="I240" t="s">
-        <v>685</v>
+      <c r="I240" s="9" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -10885,13 +10876,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -10903,7 +10894,7 @@
         <v>1</v>
       </c>
       <c r="I241" s="9" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -10911,13 +10902,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -10929,7 +10920,7 @@
         <v>1</v>
       </c>
       <c r="I242" s="9" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -10937,13 +10928,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -10955,7 +10946,7 @@
         <v>1</v>
       </c>
       <c r="I243" s="9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -10963,13 +10954,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -10981,7 +10972,7 @@
         <v>1</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -10989,13 +10980,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -11007,7 +10998,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -11015,13 +11006,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11033,7 +11024,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -11041,13 +11032,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -11059,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="I247" s="9" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -11067,16 +11058,16 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="C248" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>718</v>
-      </c>
       <c r="D248" s="9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -11085,7 +11076,7 @@
         <v>1</v>
       </c>
       <c r="I248" s="9" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -11096,13 +11087,13 @@
         <v>723</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -11111,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="I249" s="9" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -11119,14 +11110,14 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C250" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="D250" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="D250" s="9" t="s">
-        <v>728</v>
-      </c>
       <c r="E250">
         <v>1</v>
       </c>
@@ -11137,7 +11128,7 @@
         <v>1</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -11148,10 +11139,10 @@
         <v>731</v>
       </c>
       <c r="C251" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D251" s="9" t="s">
         <v>732</v>
-      </c>
-      <c r="D251" s="9" t="s">
-        <v>730</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -11171,78 +11162,78 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C252" t="s">
+        <v>739</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="I252" s="9" t="s">
         <v>734</v>
-      </c>
-      <c r="C252" s="9" t="s">
-        <v>743</v>
-      </c>
-      <c r="D252" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="G252">
-        <v>1</v>
-      </c>
-      <c r="I252" s="9" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="16">
         <v>252</v>
       </c>
-      <c r="B253" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="C253" t="s">
-        <v>742</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="E253">
-        <v>0</v>
-      </c>
-      <c r="F253">
-        <v>1</v>
-      </c>
-      <c r="G253">
-        <v>1</v>
-      </c>
-      <c r="I253" s="9" t="s">
-        <v>737</v>
+      <c r="B253" s="24" t="s">
+        <v>949</v>
+      </c>
+      <c r="C253" s="25" t="s">
+        <v>738</v>
+      </c>
+      <c r="D253" s="24" t="s">
+        <v>950</v>
+      </c>
+      <c r="E253" s="25">
+        <v>0</v>
+      </c>
+      <c r="F253" s="25">
+        <v>0</v>
+      </c>
+      <c r="G253" s="25">
+        <v>0</v>
+      </c>
+      <c r="H253" s="25"/>
+      <c r="I253" s="24" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="16">
         <v>253</v>
       </c>
-      <c r="B254" s="24" t="s">
-        <v>952</v>
-      </c>
-      <c r="C254" s="25" t="s">
+      <c r="B254" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="D254" s="24" t="s">
-        <v>953</v>
-      </c>
-      <c r="E254" s="25">
-        <v>0</v>
-      </c>
-      <c r="F254" s="25">
-        <v>0</v>
-      </c>
-      <c r="G254" s="25">
-        <v>0</v>
-      </c>
-      <c r="H254" s="25"/>
-      <c r="I254" s="24" t="s">
-        <v>738</v>
+      <c r="C254" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="I254" s="9" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -11250,13 +11241,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -11268,50 +11259,51 @@
         <v>1</v>
       </c>
       <c r="I255" s="9" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="16.5">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A256" s="16">
         <v>255</v>
       </c>
-      <c r="B256" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="C256" s="9" t="s">
+      <c r="B256" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="D256" s="9" t="s">
+      <c r="C256" s="15" t="s">
+        <v>912</v>
+      </c>
+      <c r="D256" s="15" t="s">
         <v>750</v>
       </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-      <c r="I256" s="9" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" s="23" customFormat="1" ht="16.5">
+      <c r="E256" s="17">
+        <v>1</v>
+      </c>
+      <c r="F256" s="17">
+        <v>1</v>
+      </c>
+      <c r="G256" s="17">
+        <v>1</v>
+      </c>
+      <c r="H256" s="17"/>
+      <c r="I256" s="15" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A257" s="16">
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="C257" s="15" t="s">
         <v>752</v>
-      </c>
-      <c r="C257" s="15" t="s">
-        <v>915</v>
       </c>
       <c r="D257" s="15" t="s">
         <v>753</v>
       </c>
       <c r="E257" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257" s="17">
         <v>1</v>
@@ -11319,9 +11311,8 @@
       <c r="G257" s="17">
         <v>1</v>
       </c>
-      <c r="H257" s="17"/>
       <c r="I257" s="15" t="s">
-        <v>914</v>
+        <v>751</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11329,14 +11320,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="D258" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="C258" s="15" t="s">
-        <v>755</v>
-      </c>
-      <c r="D258" s="15" t="s">
-        <v>756</v>
-      </c>
       <c r="E258" s="17">
         <v>0</v>
       </c>
@@ -11347,7 +11338,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11364,7 +11355,7 @@
         <v>760</v>
       </c>
       <c r="E259" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F259" s="17">
         <v>1</v>
@@ -11373,7 +11364,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="15" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11381,16 +11372,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D260" s="15" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E260" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F260" s="17">
         <v>1</v>
@@ -11399,32 +11390,32 @@
         <v>1</v>
       </c>
       <c r="I260" s="15" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="16.5">
       <c r="A261" s="16">
         <v>260</v>
       </c>
-      <c r="B261" s="15" t="s">
-        <v>765</v>
-      </c>
-      <c r="C261" s="15" t="s">
+      <c r="B261" t="s">
         <v>766</v>
       </c>
-      <c r="D261" s="15" t="s">
+      <c r="C261" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="D261" t="s">
         <v>767</v>
       </c>
-      <c r="E261" s="17">
-        <v>0</v>
-      </c>
-      <c r="F261" s="17">
-        <v>1</v>
-      </c>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="I261" s="15" t="s">
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="12" t="s">
         <v>768</v>
       </c>
     </row>
@@ -11432,16 +11423,16 @@
       <c r="A262" s="16">
         <v>261</v>
       </c>
-      <c r="B262" t="s">
-        <v>769</v>
+      <c r="B262" s="15" t="s">
+        <v>770</v>
       </c>
       <c r="C262" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="D262" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="D262" t="s">
-        <v>770</v>
-      </c>
-      <c r="E262" s="5">
+      <c r="E262">
         <v>1</v>
       </c>
       <c r="F262">
@@ -11451,33 +11442,33 @@
         <v>1</v>
       </c>
       <c r="I262" s="12" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="16.5">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A263" s="16">
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="C263" s="15" t="s">
         <v>774</v>
       </c>
       <c r="D263" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="E263">
-        <v>1</v>
-      </c>
-      <c r="F263">
-        <v>1</v>
-      </c>
-      <c r="G263">
-        <v>1</v>
-      </c>
-      <c r="I263" s="12" t="s">
-        <v>644</v>
+      <c r="E263" s="17">
+        <v>0</v>
+      </c>
+      <c r="F263" s="17">
+        <v>0</v>
+      </c>
+      <c r="G263" s="17">
+        <v>0</v>
+      </c>
+      <c r="I263" s="15" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11485,25 +11476,25 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D264" s="15" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E264" s="17">
         <v>0</v>
       </c>
       <c r="F264" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G264" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264" s="15" t="s">
-        <v>779</v>
+        <v>641</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11523,13 +11514,13 @@
         <v>0</v>
       </c>
       <c r="F265" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G265" s="17">
-        <v>1</v>
-      </c>
-      <c r="I265" s="15" t="s">
-        <v>644</v>
+        <v>0</v>
+      </c>
+      <c r="I265" s="17" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11537,12 +11528,12 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>784</v>
-      </c>
-      <c r="D266" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="D266" s="18" t="s">
         <v>785</v>
       </c>
       <c r="E266" s="17">
@@ -11554,8 +11545,8 @@
       <c r="G266" s="17">
         <v>0</v>
       </c>
-      <c r="I266" s="17" t="s">
-        <v>786</v>
+      <c r="I266" s="19" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11563,14 +11554,14 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C267" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="D267" s="18" t="s">
         <v>789</v>
       </c>
-      <c r="D267" s="18" t="s">
-        <v>788</v>
-      </c>
       <c r="E267" s="17">
         <v>0</v>
       </c>
@@ -11581,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="I267" s="19" t="s">
-        <v>790</v>
+        <v>733</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11589,25 +11580,25 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C268" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="D268" s="18" t="s">
         <v>793</v>
       </c>
-      <c r="D268" s="18" t="s">
-        <v>792</v>
-      </c>
       <c r="E268" s="17">
         <v>0</v>
       </c>
       <c r="F268" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G268" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" s="19" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11615,25 +11606,25 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="E269" s="17">
         <v>0</v>
       </c>
       <c r="F269" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G269" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" s="19" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11641,25 +11632,25 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="C270" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="D270" s="18" t="s">
         <v>799</v>
       </c>
-      <c r="D270" s="18" t="s">
-        <v>803</v>
-      </c>
       <c r="E270" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F270" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G270" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270" s="19" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11667,10 +11658,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C271" s="15" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D271" s="18" t="s">
         <v>802</v>
@@ -11685,7 +11676,7 @@
         <v>1</v>
       </c>
       <c r="I271" s="19" t="s">
-        <v>736</v>
+        <v>804</v>
       </c>
     </row>
     <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11693,13 +11684,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C272" s="15" t="s">
         <v>806</v>
       </c>
       <c r="D272" s="18" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="E272" s="17">
         <v>1</v>
@@ -11711,7 +11702,7 @@
         <v>1</v>
       </c>
       <c r="I272" s="19" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11719,10 +11710,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D273" s="18" t="s">
         <v>810</v>
@@ -11737,7 +11728,7 @@
         <v>1</v>
       </c>
       <c r="I273" s="19" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
     </row>
     <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11745,25 +11736,25 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="C274" s="15" t="s">
         <v>812</v>
-      </c>
-      <c r="C274" s="15" t="s">
-        <v>814</v>
       </c>
       <c r="D274" s="18" t="s">
         <v>813</v>
       </c>
       <c r="E274" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F274" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G274" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" s="19" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11771,25 +11762,25 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>849</v>
+        <v>817</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D275" s="18" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E275" s="17">
         <v>0</v>
       </c>
       <c r="F275" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275" s="19" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11800,9 +11791,6 @@
         <v>820</v>
       </c>
       <c r="C276" s="15" t="s">
-        <v>819</v>
-      </c>
-      <c r="D276" s="18" t="s">
         <v>821</v>
       </c>
       <c r="E276" s="17">
@@ -11826,45 +11814,48 @@
         <v>823</v>
       </c>
       <c r="C277" s="15" t="s">
+        <v>892</v>
+      </c>
+      <c r="D277" s="18" t="s">
         <v>824</v>
       </c>
       <c r="E277" s="17">
         <v>0</v>
       </c>
       <c r="F277" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G277" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" s="19" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="17" customFormat="1" ht="16.5">
+    <row r="278" spans="1:9" ht="16.5">
       <c r="A278" s="16">
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
+        <v>833</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="D278" s="18" t="s">
         <v>826</v>
       </c>
-      <c r="C278" s="15" t="s">
-        <v>895</v>
-      </c>
-      <c r="D278" s="18" t="s">
-        <v>827</v>
-      </c>
-      <c r="E278" s="17">
-        <v>0</v>
-      </c>
-      <c r="F278" s="17">
-        <v>0</v>
-      </c>
-      <c r="G278" s="17">
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
         <v>0</v>
       </c>
       <c r="I278" s="19" t="s">
-        <v>828</v>
+        <v>883</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -11872,25 +11863,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>840</v>
-      </c>
-      <c r="D279" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="19" t="s">
         <v>829</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="19" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -11898,9 +11886,12 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C280" s="15" t="s">
+        <v>835</v>
+      </c>
+      <c r="D280" s="18" t="s">
         <v>830</v>
       </c>
       <c r="E280">
@@ -11913,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -11921,13 +11912,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11939,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -11947,118 +11938,118 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="C282" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="D282" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="19" t="s">
         <v>839</v>
-      </c>
-      <c r="D282" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="I282" s="19" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
       <c r="A283" s="16">
         <v>282</v>
       </c>
-      <c r="B283" s="15" t="s">
-        <v>847</v>
+      <c r="B283" s="20" t="s">
+        <v>840</v>
       </c>
       <c r="C283" s="15" t="s">
         <v>841</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="E283">
         <v>0</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I283" s="19" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" ht="16.5">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" s="29" customFormat="1" ht="16.5">
       <c r="A284" s="16">
         <v>283</v>
       </c>
-      <c r="B284" s="20" t="s">
-        <v>843</v>
-      </c>
-      <c r="C284" s="15" t="s">
-        <v>844</v>
-      </c>
-      <c r="D284" s="18" t="s">
-        <v>845</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="19" t="s">
-        <v>846</v>
+      <c r="B284" s="28" t="s">
+        <v>851</v>
+      </c>
+      <c r="C284" s="29" t="s">
+        <v>852</v>
+      </c>
+      <c r="D284" s="28" t="s">
+        <v>853</v>
+      </c>
+      <c r="E284" s="29">
+        <v>1</v>
+      </c>
+      <c r="F284" s="29">
+        <v>1</v>
+      </c>
+      <c r="G284" s="29">
+        <v>1</v>
+      </c>
+      <c r="I284" s="29" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5">
-      <c r="A285" s="26">
+      <c r="A285" s="16">
         <v>284</v>
       </c>
-      <c r="B285" s="28" t="s">
+      <c r="B285" s="29" t="s">
+        <v>848</v>
+      </c>
+      <c r="C285" s="29" t="s">
+        <v>847</v>
+      </c>
+      <c r="D285" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="29">
+        <v>1</v>
+      </c>
+      <c r="G285" s="29">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
+      <c r="A286" s="16">
+        <v>285</v>
+      </c>
+      <c r="B286" s="29" t="s">
         <v>854</v>
       </c>
-      <c r="C285" s="29" t="s">
+      <c r="C286" s="29" t="s">
         <v>855</v>
       </c>
-      <c r="D285" s="28" t="s">
+      <c r="D286" s="28" t="s">
         <v>856</v>
       </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="29">
-        <v>1</v>
-      </c>
-      <c r="G285" s="29">
-        <v>1</v>
-      </c>
-      <c r="I285" s="29" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
-      <c r="A286" s="26">
-        <v>285</v>
-      </c>
-      <c r="B286" s="29" t="s">
-        <v>851</v>
-      </c>
-      <c r="C286" s="29" t="s">
-        <v>850</v>
-      </c>
-      <c r="D286" s="28" t="s">
-        <v>852</v>
-      </c>
       <c r="E286" s="29">
         <v>1</v>
       </c>
@@ -12069,62 +12060,62 @@
         <v>1</v>
       </c>
       <c r="I286" s="29" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" s="29" customFormat="1" ht="16.5">
-      <c r="A287" s="26">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="27" customFormat="1" ht="16.5">
+      <c r="A287" s="16">
         <v>286</v>
       </c>
-      <c r="B287" s="29" t="s">
+      <c r="B287" s="27" t="s">
         <v>857</v>
       </c>
-      <c r="C287" s="29" t="s">
+      <c r="C287" s="27" t="s">
+        <v>859</v>
+      </c>
+      <c r="D287" s="26" t="s">
         <v>858</v>
       </c>
-      <c r="D287" s="28" t="s">
-        <v>859</v>
-      </c>
-      <c r="E287" s="29">
-        <v>1</v>
-      </c>
-      <c r="F287" s="29">
-        <v>1</v>
-      </c>
-      <c r="G287" s="29">
-        <v>1</v>
-      </c>
-      <c r="I287" s="29" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" s="27" customFormat="1" ht="16.5">
-      <c r="A288" s="26">
+      <c r="E287" s="27">
+        <v>0</v>
+      </c>
+      <c r="F287" s="27">
+        <v>1</v>
+      </c>
+      <c r="G287" s="27">
+        <v>1</v>
+      </c>
+      <c r="I287" s="27" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A288" s="16">
         <v>287</v>
       </c>
-      <c r="B288" s="27" t="s">
+      <c r="B288" s="15" t="s">
         <v>860</v>
       </c>
-      <c r="C288" s="27" t="s">
+      <c r="C288" s="15" t="s">
+        <v>861</v>
+      </c>
+      <c r="D288" s="15" t="s">
         <v>862</v>
       </c>
-      <c r="D288" s="26" t="s">
-        <v>861</v>
-      </c>
-      <c r="E288" s="27">
-        <v>0</v>
-      </c>
-      <c r="F288" s="27">
-        <v>1</v>
-      </c>
-      <c r="G288" s="27">
-        <v>1</v>
-      </c>
-      <c r="I288" s="27" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="289" spans="1:36" s="17" customFormat="1" ht="16.5">
+      <c r="E288" s="17">
+        <v>0</v>
+      </c>
+      <c r="F288" s="17">
+        <v>0</v>
+      </c>
+      <c r="G288" s="17">
+        <v>0</v>
+      </c>
+      <c r="I288" s="15" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="289" spans="1:36" ht="16.5">
       <c r="A289" s="16">
         <v>288</v>
       </c>
@@ -12134,46 +12125,46 @@
       <c r="C289" s="15" t="s">
         <v>864</v>
       </c>
-      <c r="D289" s="15" t="s">
+      <c r="D289" s="18" t="s">
         <v>865</v>
       </c>
-      <c r="E289" s="17">
-        <v>0</v>
-      </c>
-      <c r="F289" s="17">
-        <v>0</v>
-      </c>
-      <c r="G289" s="17">
-        <v>0</v>
-      </c>
-      <c r="I289" s="15" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="290" spans="1:36" ht="16.5">
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="I289" s="19" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="290" spans="1:36" s="30" customFormat="1" ht="16.5">
       <c r="A290" s="16">
         <v>289</v>
       </c>
-      <c r="B290" s="15" t="s">
-        <v>866</v>
-      </c>
-      <c r="C290" s="15" t="s">
+      <c r="B290" s="30" t="s">
         <v>867</v>
       </c>
-      <c r="D290" s="18" t="s">
+      <c r="C290" s="30" t="s">
         <v>868</v>
       </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="I290" s="19" t="s">
+      <c r="D290" s="30" t="s">
         <v>869</v>
+      </c>
+      <c r="E290" s="30">
+        <v>1</v>
+      </c>
+      <c r="F290" s="30">
+        <v>1</v>
+      </c>
+      <c r="G290" s="30">
+        <v>1</v>
+      </c>
+      <c r="I290" s="30" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="291" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12181,51 +12172,51 @@
         <v>290</v>
       </c>
       <c r="B291" s="30" t="s">
+        <v>871</v>
+      </c>
+      <c r="C291" s="30" t="s">
+        <v>872</v>
+      </c>
+      <c r="D291" s="30" t="s">
+        <v>873</v>
+      </c>
+      <c r="E291" s="30">
+        <v>1</v>
+      </c>
+      <c r="F291" s="30">
+        <v>1</v>
+      </c>
+      <c r="G291" s="30">
+        <v>1</v>
+      </c>
+      <c r="I291" s="30" t="s">
         <v>870</v>
       </c>
-      <c r="C291" s="30" t="s">
-        <v>871</v>
-      </c>
-      <c r="D291" s="30" t="s">
-        <v>872</v>
-      </c>
-      <c r="E291" s="30">
-        <v>1</v>
-      </c>
-      <c r="F291" s="30">
-        <v>1</v>
-      </c>
-      <c r="G291" s="30">
-        <v>1</v>
-      </c>
-      <c r="I291" s="30" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="292" spans="1:36" s="30" customFormat="1" ht="16.5">
+    </row>
+    <row r="292" spans="1:36" ht="16.5">
       <c r="A292" s="16">
         <v>291</v>
       </c>
-      <c r="B292" s="30" t="s">
-        <v>874</v>
-      </c>
-      <c r="C292" s="30" t="s">
+      <c r="B292" s="20" t="s">
         <v>875</v>
       </c>
-      <c r="D292" s="30" t="s">
+      <c r="C292" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="E292" s="30">
-        <v>1</v>
-      </c>
-      <c r="F292" s="30">
-        <v>1</v>
-      </c>
-      <c r="G292" s="30">
-        <v>1</v>
-      </c>
-      <c r="I292" s="30" t="s">
-        <v>873</v>
+      <c r="D292" s="20" t="s">
+        <v>877</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" s="19" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="293" spans="1:36" ht="16.5">
@@ -12251,47 +12242,48 @@
         <v>1</v>
       </c>
       <c r="I293" s="19" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="294" spans="1:36" ht="16.5">
       <c r="A294" s="16">
         <v>293</v>
       </c>
-      <c r="B294" s="20" t="s">
+      <c r="B294" s="18" t="s">
         <v>881</v>
       </c>
       <c r="C294" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="D294" s="18" t="s">
         <v>882</v>
       </c>
-      <c r="D294" s="20" t="s">
-        <v>883</v>
-      </c>
-      <c r="E294">
-        <v>0</v>
-      </c>
-      <c r="F294">
-        <v>1</v>
-      </c>
-      <c r="G294">
-        <v>1</v>
-      </c>
+      <c r="E294" s="17">
+        <v>0</v>
+      </c>
+      <c r="F294" s="17">
+        <v>0</v>
+      </c>
+      <c r="G294" s="17">
+        <v>0</v>
+      </c>
+      <c r="H294" s="17"/>
       <c r="I294" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="295" spans="1:36" ht="16.5">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="295" spans="1:36" s="22" customFormat="1" ht="16.5">
       <c r="A295" s="16">
         <v>294</v>
       </c>
       <c r="B295" s="18" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C295" s="15" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
       <c r="D295" s="18" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E295" s="17">
         <v>0</v>
@@ -12304,21 +12296,48 @@
       </c>
       <c r="H295" s="17"/>
       <c r="I295" s="19" t="s">
-        <v>736</v>
-      </c>
+        <v>888</v>
+      </c>
+      <c r="J295" s="17"/>
+      <c r="K295" s="17"/>
+      <c r="L295" s="17"/>
+      <c r="M295" s="17"/>
+      <c r="N295" s="17"/>
+      <c r="O295" s="17"/>
+      <c r="P295" s="17"/>
+      <c r="Q295" s="17"/>
+      <c r="R295" s="17"/>
+      <c r="S295" s="17"/>
+      <c r="T295" s="17"/>
+      <c r="U295" s="17"/>
+      <c r="V295" s="17"/>
+      <c r="W295" s="17"/>
+      <c r="X295" s="17"/>
+      <c r="Y295" s="17"/>
+      <c r="Z295" s="17"/>
+      <c r="AA295" s="17"/>
+      <c r="AB295" s="17"/>
+      <c r="AC295" s="17"/>
+      <c r="AD295" s="17"/>
+      <c r="AE295" s="17"/>
+      <c r="AF295" s="17"/>
+      <c r="AG295" s="17"/>
+      <c r="AH295" s="17"/>
+      <c r="AI295" s="17"/>
+      <c r="AJ295" s="17"/>
     </row>
     <row r="296" spans="1:36" s="22" customFormat="1" ht="16.5">
       <c r="A296" s="16">
         <v>295</v>
       </c>
       <c r="B296" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C296" s="15" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D296" s="18" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E296" s="17">
         <v>0</v>
@@ -12331,7 +12350,7 @@
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="19" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
@@ -12366,26 +12385,24 @@
         <v>296</v>
       </c>
       <c r="B297" s="18" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C297" s="15" t="s">
-        <v>893</v>
-      </c>
-      <c r="D297" s="18" t="s">
-        <v>894</v>
-      </c>
+        <v>909</v>
+      </c>
+      <c r="D297" s="17"/>
       <c r="E297" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F297" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G297" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H297" s="17"/>
-      <c r="I297" s="19" t="s">
-        <v>891</v>
+      <c r="I297" s="15" t="s">
+        <v>910</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12420,24 +12437,26 @@
         <v>297</v>
       </c>
       <c r="B298" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="C298" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="D298" s="18" t="s">
         <v>896</v>
       </c>
-      <c r="C298" s="15" t="s">
-        <v>912</v>
-      </c>
-      <c r="D298" s="17"/>
       <c r="E298" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F298" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G298" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H298" s="17"/>
-      <c r="I298" s="15" t="s">
-        <v>913</v>
+      <c r="I298" s="19" t="s">
+        <v>888</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12467,31 +12486,31 @@
       <c r="AI298" s="17"/>
       <c r="AJ298" s="17"/>
     </row>
-    <row r="299" spans="1:36" s="22" customFormat="1" ht="16.5">
+    <row r="299" spans="1:36" ht="16.5">
       <c r="A299" s="16">
         <v>298</v>
       </c>
-      <c r="B299" s="18" t="s">
+      <c r="B299" s="40" t="s">
         <v>897</v>
       </c>
-      <c r="C299" s="15" t="s">
+      <c r="C299" s="41" t="s">
+        <v>900</v>
+      </c>
+      <c r="D299" s="40" t="s">
         <v>898</v>
       </c>
-      <c r="D299" s="18" t="s">
+      <c r="E299" s="30">
+        <v>1</v>
+      </c>
+      <c r="F299" s="30">
+        <v>1</v>
+      </c>
+      <c r="G299" s="30">
+        <v>1</v>
+      </c>
+      <c r="H299" s="30"/>
+      <c r="I299" s="42" t="s">
         <v>899</v>
-      </c>
-      <c r="E299" s="17">
-        <v>0</v>
-      </c>
-      <c r="F299" s="17">
-        <v>0</v>
-      </c>
-      <c r="G299" s="17">
-        <v>0</v>
-      </c>
-      <c r="H299" s="17"/>
-      <c r="I299" s="19" t="s">
-        <v>891</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12521,31 +12540,31 @@
       <c r="AI299" s="17"/>
       <c r="AJ299" s="17"/>
     </row>
-    <row r="300" spans="1:36" ht="16.5">
+    <row r="300" spans="1:36" s="21" customFormat="1" ht="16.5">
       <c r="A300" s="16">
         <v>299</v>
       </c>
-      <c r="B300" s="40" t="s">
-        <v>900</v>
-      </c>
-      <c r="C300" s="41" t="s">
-        <v>903</v>
-      </c>
-      <c r="D300" s="40" t="s">
-        <v>901</v>
-      </c>
-      <c r="E300" s="30">
-        <v>1</v>
-      </c>
-      <c r="F300" s="30">
-        <v>1</v>
-      </c>
-      <c r="G300" s="30">
-        <v>1</v>
-      </c>
-      <c r="H300" s="30"/>
-      <c r="I300" s="42" t="s">
-        <v>902</v>
+      <c r="B300" s="43" t="s">
+        <v>970</v>
+      </c>
+      <c r="C300" s="44" t="s">
+        <v>925</v>
+      </c>
+      <c r="D300" s="43" t="s">
+        <v>968</v>
+      </c>
+      <c r="E300" s="45">
+        <v>1</v>
+      </c>
+      <c r="F300" s="45">
+        <v>1</v>
+      </c>
+      <c r="G300" s="45">
+        <v>1</v>
+      </c>
+      <c r="H300" s="45"/>
+      <c r="I300" s="44" t="s">
+        <v>923</v>
       </c>
       <c r="J300" s="17"/>
       <c r="K300" s="17"/>
@@ -12575,18 +12594,18 @@
       <c r="AI300" s="17"/>
       <c r="AJ300" s="17"/>
     </row>
-    <row r="301" spans="1:36" s="21" customFormat="1" ht="16.5">
+    <row r="301" spans="1:36" ht="16.5">
       <c r="A301" s="16">
         <v>300</v>
       </c>
       <c r="B301" s="43" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C301" s="44" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="D301" s="43" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="E301" s="45">
         <v>1</v>
@@ -12599,48 +12618,21 @@
       </c>
       <c r="H301" s="45"/>
       <c r="I301" s="44" t="s">
-        <v>926</v>
-      </c>
-      <c r="J301" s="17"/>
-      <c r="K301" s="17"/>
-      <c r="L301" s="17"/>
-      <c r="M301" s="17"/>
-      <c r="N301" s="17"/>
-      <c r="O301" s="17"/>
-      <c r="P301" s="17"/>
-      <c r="Q301" s="17"/>
-      <c r="R301" s="17"/>
-      <c r="S301" s="17"/>
-      <c r="T301" s="17"/>
-      <c r="U301" s="17"/>
-      <c r="V301" s="17"/>
-      <c r="W301" s="17"/>
-      <c r="X301" s="17"/>
-      <c r="Y301" s="17"/>
-      <c r="Z301" s="17"/>
-      <c r="AA301" s="17"/>
-      <c r="AB301" s="17"/>
-      <c r="AC301" s="17"/>
-      <c r="AD301" s="17"/>
-      <c r="AE301" s="17"/>
-      <c r="AF301" s="17"/>
-      <c r="AG301" s="17"/>
-      <c r="AH301" s="17"/>
-      <c r="AI301" s="17"/>
-      <c r="AJ301" s="17"/>
-    </row>
-    <row r="302" spans="1:36" ht="16.5">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="302" spans="1:36" s="17" customFormat="1" ht="16.5">
       <c r="A302" s="16">
         <v>301</v>
       </c>
       <c r="B302" s="43" t="s">
-        <v>974</v>
-      </c>
-      <c r="C302" s="44" t="s">
-        <v>927</v>
+        <v>951</v>
+      </c>
+      <c r="C302" s="43" t="s">
+        <v>901</v>
       </c>
       <c r="D302" s="43" t="s">
-        <v>970</v>
+        <v>952</v>
       </c>
       <c r="E302" s="45">
         <v>1</v>
@@ -12652,116 +12644,115 @@
         <v>1</v>
       </c>
       <c r="H302" s="45"/>
-      <c r="I302" s="44" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
+      <c r="I302" s="46" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="303" spans="1:36" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="43" t="s">
-        <v>954</v>
-      </c>
-      <c r="C303" s="43" t="s">
+      <c r="B303" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="C303" s="17" t="s">
+        <v>903</v>
+      </c>
+      <c r="D303" s="17" t="s">
         <v>904</v>
       </c>
-      <c r="D303" s="43" t="s">
-        <v>955</v>
-      </c>
-      <c r="E303" s="45">
-        <v>1</v>
-      </c>
-      <c r="F303" s="45">
-        <v>1</v>
-      </c>
-      <c r="G303" s="45">
-        <v>1</v>
-      </c>
-      <c r="H303" s="45"/>
-      <c r="I303" s="46" t="s">
-        <v>644</v>
+      <c r="E303" s="17">
+        <v>1</v>
+      </c>
+      <c r="F303" s="17">
+        <v>1</v>
+      </c>
+      <c r="G303" s="17">
+        <v>1</v>
+      </c>
+      <c r="H303" s="17"/>
+      <c r="I303" s="19" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="17" t="s">
-        <v>905</v>
-      </c>
-      <c r="C304" s="17" t="s">
+      <c r="B304" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="C304" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="D304" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="D304" s="17" t="s">
+      <c r="E304" s="17">
+        <v>1</v>
+      </c>
+      <c r="F304" s="17">
+        <v>1</v>
+      </c>
+      <c r="G304" s="17">
+        <v>1</v>
+      </c>
+      <c r="H304" s="17"/>
+      <c r="I304" s="15" t="s">
         <v>907</v>
-      </c>
-      <c r="E304" s="17">
-        <v>1</v>
-      </c>
-      <c r="F304" s="17">
-        <v>1</v>
-      </c>
-      <c r="G304" s="17">
-        <v>1</v>
-      </c>
-      <c r="H304" s="17"/>
-      <c r="I304" s="19" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="18" t="s">
-        <v>911</v>
-      </c>
-      <c r="C305" s="15" t="s">
-        <v>972</v>
-      </c>
-      <c r="D305" s="18" t="s">
-        <v>909</v>
-      </c>
-      <c r="E305" s="17">
-        <v>1</v>
-      </c>
-      <c r="F305" s="17">
-        <v>1</v>
-      </c>
-      <c r="G305" s="17">
-        <v>1</v>
-      </c>
-      <c r="H305" s="17"/>
-      <c r="I305" s="15" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" ht="16.5">
+      <c r="B305" s="40" t="s">
+        <v>914</v>
+      </c>
+      <c r="C305" s="41" t="s">
+        <v>915</v>
+      </c>
+      <c r="D305" s="40" t="s">
+        <v>916</v>
+      </c>
+      <c r="E305" s="30">
+        <v>1</v>
+      </c>
+      <c r="F305" s="30">
+        <v>1</v>
+      </c>
+      <c r="G305" s="30">
+        <v>1</v>
+      </c>
+      <c r="H305" s="30"/>
+      <c r="I305" s="41" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="40" t="s">
+      <c r="B306" s="18" t="s">
         <v>917</v>
       </c>
-      <c r="C306" s="41" t="s">
+      <c r="C306" s="15" t="s">
         <v>918</v>
       </c>
-      <c r="D306" s="40" t="s">
+      <c r="D306" s="18" t="s">
         <v>919</v>
       </c>
-      <c r="E306" s="30">
-        <v>1</v>
-      </c>
-      <c r="F306" s="30">
-        <v>1</v>
-      </c>
-      <c r="G306" s="30">
-        <v>1</v>
-      </c>
-      <c r="H306" s="30"/>
-      <c r="I306" s="41" t="s">
-        <v>916</v>
+      <c r="E306" s="17">
+        <v>1</v>
+      </c>
+      <c r="F306" s="17">
+        <v>1</v>
+      </c>
+      <c r="G306" s="17">
+        <v>1</v>
+      </c>
+      <c r="I306" s="15" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="307" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12787,21 +12778,21 @@
         <v>1</v>
       </c>
       <c r="I307" s="15" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="16.5">
       <c r="A308" s="16">
         <v>307</v>
       </c>
       <c r="B308" s="18" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D308" s="18" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="E308" s="17">
         <v>1</v>
@@ -12812,15 +12803,12 @@
       <c r="G308" s="17">
         <v>1</v>
       </c>
-      <c r="I308" s="15" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" ht="16.5">
+    </row>
+    <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
       <c r="A309" s="16">
         <v>308</v>
       </c>
-      <c r="B309" s="18" t="s">
+      <c r="B309" s="39" t="s">
         <v>929</v>
       </c>
       <c r="C309" s="15" t="s">
@@ -12837,6 +12825,9 @@
       </c>
       <c r="G309" s="17">
         <v>1</v>
+      </c>
+      <c r="I309" s="15" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -12844,14 +12835,14 @@
         <v>309</v>
       </c>
       <c r="B310" s="39" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>933</v>
-      </c>
-      <c r="D310" s="18" t="s">
         <v>934</v>
       </c>
+      <c r="D310" s="39" t="s">
+        <v>935</v>
+      </c>
       <c r="E310" s="17">
         <v>1</v>
       </c>
@@ -12861,21 +12852,21 @@
       <c r="G310" s="17">
         <v>1</v>
       </c>
-      <c r="I310" s="15" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
+      <c r="I310" s="19" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="39" t="s">
+      <c r="B311" s="18" t="s">
         <v>936</v>
       </c>
       <c r="C311" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="D311" s="39" t="s">
+      <c r="D311" s="18" t="s">
         <v>938</v>
       </c>
       <c r="E311" s="17">
@@ -12888,22 +12879,22 @@
         <v>1</v>
       </c>
       <c r="I311" s="19" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" s="17" customFormat="1" ht="17.25">
       <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="18" t="s">
-        <v>939</v>
+      <c r="B312" s="39" t="s">
+        <v>940</v>
       </c>
       <c r="C312" s="15" t="s">
-        <v>940</v>
-      </c>
-      <c r="D312" s="18" t="s">
         <v>941</v>
       </c>
+      <c r="D312" s="39" t="s">
+        <v>942</v>
+      </c>
       <c r="E312" s="17">
         <v>1</v>
       </c>
@@ -12913,34 +12904,33 @@
       <c r="G312" s="17">
         <v>1</v>
       </c>
-      <c r="I312" s="19" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" s="17" customFormat="1" ht="17.25">
+      <c r="I312" s="15" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="16.5">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="39" t="s">
+      <c r="B313" s="31" t="s">
+        <v>944</v>
+      </c>
+      <c r="C313" s="32" t="s">
+        <v>945</v>
+      </c>
+      <c r="D313" s="23"/>
+      <c r="E313" s="23">
+        <v>1</v>
+      </c>
+      <c r="F313" s="23">
+        <v>1</v>
+      </c>
+      <c r="G313" s="23">
+        <v>1</v>
+      </c>
+      <c r="H313" s="23"/>
+      <c r="I313" s="32" t="s">
         <v>943</v>
-      </c>
-      <c r="C313" s="15" t="s">
-        <v>944</v>
-      </c>
-      <c r="D313" s="39" t="s">
-        <v>945</v>
-      </c>
-      <c r="E313" s="17">
-        <v>1</v>
-      </c>
-      <c r="F313" s="17">
-        <v>1</v>
-      </c>
-      <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="15" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12948,10 +12938,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="31" t="s">
+        <v>946</v>
+      </c>
+      <c r="C314" s="32" t="s">
         <v>947</v>
-      </c>
-      <c r="C314" s="32" t="s">
-        <v>948</v>
       </c>
       <c r="D314" s="23"/>
       <c r="E314" s="23">
@@ -12965,32 +12955,32 @@
       </c>
       <c r="H314" s="23"/>
       <c r="I314" s="32" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="31" t="s">
-        <v>949</v>
-      </c>
-      <c r="C315" s="32" t="s">
-        <v>950</v>
-      </c>
-      <c r="D315" s="23"/>
-      <c r="E315" s="23">
-        <v>1</v>
-      </c>
-      <c r="F315" s="23">
-        <v>1</v>
-      </c>
-      <c r="G315" s="23">
-        <v>1</v>
-      </c>
-      <c r="H315" s="23"/>
-      <c r="I315" s="32" t="s">
-        <v>951</v>
+      <c r="B315" s="36" t="s">
+        <v>953</v>
+      </c>
+      <c r="C315" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="D315" s="38"/>
+      <c r="E315" s="38">
+        <v>1</v>
+      </c>
+      <c r="F315" s="38">
+        <v>1</v>
+      </c>
+      <c r="G315" s="38">
+        <v>1</v>
+      </c>
+      <c r="H315" s="38"/>
+      <c r="I315" s="37" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="16.5">
@@ -13018,16 +13008,14 @@
         <v>958</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="16.5">
+    <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A317" s="16">
         <v>316</v>
       </c>
       <c r="B317" s="36" t="s">
         <v>959</v>
       </c>
-      <c r="C317" s="37" t="s">
-        <v>960</v>
-      </c>
+      <c r="C317" s="38"/>
       <c r="D317" s="38"/>
       <c r="E317" s="38">
         <v>1</v>
@@ -13040,7 +13028,7 @@
       </c>
       <c r="H317" s="38"/>
       <c r="I317" s="37" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13048,7 +13036,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C318" s="38"/>
       <c r="D318" s="38"/>
@@ -13063,17 +13051,19 @@
       </c>
       <c r="H318" s="38"/>
       <c r="I318" s="37" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="16.5">
       <c r="A319" s="16">
         <v>318</v>
       </c>
       <c r="B319" s="36" t="s">
+        <v>963</v>
+      </c>
+      <c r="C319" s="37" t="s">
         <v>964</v>
       </c>
-      <c r="C319" s="38"/>
       <c r="D319" s="38"/>
       <c r="E319" s="38">
         <v>1</v>
@@ -13086,7 +13076,7 @@
       </c>
       <c r="H319" s="38"/>
       <c r="I319" s="37" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -13094,10 +13084,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="36" t="s">
+        <v>965</v>
+      </c>
+      <c r="C320" s="37" t="s">
         <v>966</v>
-      </c>
-      <c r="C320" s="37" t="s">
-        <v>967</v>
       </c>
       <c r="D320" s="38"/>
       <c r="E320" s="38">
@@ -13111,36 +13101,11 @@
       </c>
       <c r="H320" s="38"/>
       <c r="I320" s="37" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" ht="16.5">
-      <c r="A321" s="16">
-        <v>320</v>
-      </c>
-      <c r="B321" s="36" t="s">
-        <v>968</v>
-      </c>
-      <c r="C321" s="37" t="s">
-        <v>969</v>
-      </c>
-      <c r="D321" s="38"/>
-      <c r="E321" s="38">
-        <v>1</v>
-      </c>
-      <c r="F321" s="38">
-        <v>1</v>
-      </c>
-      <c r="G321" s="38">
-        <v>1</v>
-      </c>
-      <c r="H321" s="38"/>
-      <c r="I321" s="37" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H234"/>
+  <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13163,7 +13128,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_2.2/game_module_config_cjj.xlsx
+++ b/config_2.2/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="971">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3752,10 +3752,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_038_s12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_038_s12lh_drop_ani</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3810,14 +3806,6 @@
   </si>
   <si>
     <t>act_040_ydfl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二页签→元旦活动→欢乐庆典</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月11日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4787,13 +4775,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ321"/>
+  <dimension ref="A1:AJ320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C298" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C280" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B325" sqref="B325"/>
+      <selection pane="bottomRight" activeCell="B292" sqref="B292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11198,13 +11186,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>738</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E253" s="25">
         <v>0</v>
@@ -11280,7 +11268,7 @@
         <v>749</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D256" s="15" t="s">
         <v>750</v>
@@ -11296,7 +11284,7 @@
       </c>
       <c r="H256" s="17"/>
       <c r="I256" s="15" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12398,21 +12386,23 @@
         <v>893</v>
       </c>
       <c r="C297" s="15" t="s">
-        <v>909</v>
-      </c>
-      <c r="D297" s="17"/>
+        <v>894</v>
+      </c>
+      <c r="D297" s="18" t="s">
+        <v>895</v>
+      </c>
       <c r="E297" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F297" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G297" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H297" s="17"/>
-      <c r="I297" s="15" t="s">
-        <v>910</v>
+      <c r="I297" s="19" t="s">
+        <v>888</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12442,31 +12432,31 @@
       <c r="AI297" s="17"/>
       <c r="AJ297" s="17"/>
     </row>
-    <row r="298" spans="1:36" s="22" customFormat="1" ht="16.5">
+    <row r="298" spans="1:36" ht="16.5">
       <c r="A298" s="16">
         <v>297</v>
       </c>
-      <c r="B298" s="18" t="s">
-        <v>894</v>
-      </c>
-      <c r="C298" s="15" t="s">
-        <v>895</v>
-      </c>
-      <c r="D298" s="18" t="s">
+      <c r="B298" s="40" t="s">
         <v>896</v>
       </c>
-      <c r="E298" s="17">
-        <v>0</v>
-      </c>
-      <c r="F298" s="17">
-        <v>0</v>
-      </c>
-      <c r="G298" s="17">
-        <v>0</v>
-      </c>
-      <c r="H298" s="17"/>
-      <c r="I298" s="19" t="s">
-        <v>888</v>
+      <c r="C298" s="41" t="s">
+        <v>899</v>
+      </c>
+      <c r="D298" s="40" t="s">
+        <v>897</v>
+      </c>
+      <c r="E298" s="30">
+        <v>1</v>
+      </c>
+      <c r="F298" s="30">
+        <v>1</v>
+      </c>
+      <c r="G298" s="30">
+        <v>1</v>
+      </c>
+      <c r="H298" s="30"/>
+      <c r="I298" s="42" t="s">
+        <v>898</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12496,31 +12486,31 @@
       <c r="AI298" s="17"/>
       <c r="AJ298" s="17"/>
     </row>
-    <row r="299" spans="1:36" ht="16.5">
+    <row r="299" spans="1:36" s="21" customFormat="1" ht="16.5">
       <c r="A299" s="16">
         <v>298</v>
       </c>
-      <c r="B299" s="40" t="s">
-        <v>897</v>
-      </c>
-      <c r="C299" s="41" t="s">
-        <v>900</v>
-      </c>
-      <c r="D299" s="40" t="s">
-        <v>898</v>
-      </c>
-      <c r="E299" s="30">
-        <v>1</v>
-      </c>
-      <c r="F299" s="30">
-        <v>1</v>
-      </c>
-      <c r="G299" s="30">
-        <v>1</v>
-      </c>
-      <c r="H299" s="30"/>
-      <c r="I299" s="42" t="s">
-        <v>899</v>
+      <c r="B299" s="43" t="s">
+        <v>967</v>
+      </c>
+      <c r="C299" s="44" t="s">
+        <v>922</v>
+      </c>
+      <c r="D299" s="43" t="s">
+        <v>965</v>
+      </c>
+      <c r="E299" s="45">
+        <v>1</v>
+      </c>
+      <c r="F299" s="45">
+        <v>1</v>
+      </c>
+      <c r="G299" s="45">
+        <v>1</v>
+      </c>
+      <c r="H299" s="45"/>
+      <c r="I299" s="44" t="s">
+        <v>920</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12550,18 +12540,18 @@
       <c r="AI299" s="17"/>
       <c r="AJ299" s="17"/>
     </row>
-    <row r="300" spans="1:36" s="21" customFormat="1" ht="16.5">
+    <row r="300" spans="1:36" ht="16.5">
       <c r="A300" s="16">
         <v>299</v>
       </c>
       <c r="B300" s="43" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C300" s="44" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D300" s="43" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="E300" s="45">
         <v>1</v>
@@ -12574,48 +12564,21 @@
       </c>
       <c r="H300" s="45"/>
       <c r="I300" s="44" t="s">
-        <v>923</v>
-      </c>
-      <c r="J300" s="17"/>
-      <c r="K300" s="17"/>
-      <c r="L300" s="17"/>
-      <c r="M300" s="17"/>
-      <c r="N300" s="17"/>
-      <c r="O300" s="17"/>
-      <c r="P300" s="17"/>
-      <c r="Q300" s="17"/>
-      <c r="R300" s="17"/>
-      <c r="S300" s="17"/>
-      <c r="T300" s="17"/>
-      <c r="U300" s="17"/>
-      <c r="V300" s="17"/>
-      <c r="W300" s="17"/>
-      <c r="X300" s="17"/>
-      <c r="Y300" s="17"/>
-      <c r="Z300" s="17"/>
-      <c r="AA300" s="17"/>
-      <c r="AB300" s="17"/>
-      <c r="AC300" s="17"/>
-      <c r="AD300" s="17"/>
-      <c r="AE300" s="17"/>
-      <c r="AF300" s="17"/>
-      <c r="AG300" s="17"/>
-      <c r="AH300" s="17"/>
-      <c r="AI300" s="17"/>
-      <c r="AJ300" s="17"/>
-    </row>
-    <row r="301" spans="1:36" ht="16.5">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="301" spans="1:36" s="17" customFormat="1" ht="16.5">
       <c r="A301" s="16">
         <v>300</v>
       </c>
       <c r="B301" s="43" t="s">
-        <v>971</v>
-      </c>
-      <c r="C301" s="44" t="s">
-        <v>924</v>
+        <v>948</v>
+      </c>
+      <c r="C301" s="43" t="s">
+        <v>900</v>
       </c>
       <c r="D301" s="43" t="s">
-        <v>967</v>
+        <v>949</v>
       </c>
       <c r="E301" s="45">
         <v>1</v>
@@ -12627,49 +12590,49 @@
         <v>1</v>
       </c>
       <c r="H301" s="45"/>
-      <c r="I301" s="44" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="302" spans="1:36" s="17" customFormat="1" ht="16.5">
+      <c r="I301" s="46" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="302" spans="1:36" ht="16.5">
       <c r="A302" s="16">
         <v>301</v>
       </c>
-      <c r="B302" s="43" t="s">
-        <v>951</v>
-      </c>
-      <c r="C302" s="43" t="s">
+      <c r="B302" s="17" t="s">
         <v>901</v>
       </c>
-      <c r="D302" s="43" t="s">
-        <v>952</v>
-      </c>
-      <c r="E302" s="45">
-        <v>1</v>
-      </c>
-      <c r="F302" s="45">
-        <v>1</v>
-      </c>
-      <c r="G302" s="45">
-        <v>1</v>
-      </c>
-      <c r="H302" s="45"/>
-      <c r="I302" s="46" t="s">
-        <v>641</v>
+      <c r="C302" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="D302" s="17" t="s">
+        <v>903</v>
+      </c>
+      <c r="E302" s="17">
+        <v>1</v>
+      </c>
+      <c r="F302" s="17">
+        <v>1</v>
+      </c>
+      <c r="G302" s="17">
+        <v>1</v>
+      </c>
+      <c r="H302" s="17"/>
+      <c r="I302" s="19" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="303" spans="1:36" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="17" t="s">
-        <v>902</v>
-      </c>
-      <c r="C303" s="17" t="s">
-        <v>903</v>
-      </c>
-      <c r="D303" s="17" t="s">
-        <v>904</v>
+      <c r="B303" s="18" t="s">
+        <v>907</v>
+      </c>
+      <c r="C303" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="D303" s="18" t="s">
+        <v>905</v>
       </c>
       <c r="E303" s="17">
         <v>1</v>
@@ -12681,62 +12644,61 @@
         <v>1</v>
       </c>
       <c r="H303" s="17"/>
-      <c r="I303" s="19" t="s">
-        <v>905</v>
+      <c r="I303" s="15" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="18" t="s">
-        <v>908</v>
-      </c>
-      <c r="C304" s="15" t="s">
-        <v>969</v>
-      </c>
-      <c r="D304" s="18" t="s">
-        <v>906</v>
-      </c>
-      <c r="E304" s="17">
-        <v>1</v>
-      </c>
-      <c r="F304" s="17">
-        <v>1</v>
-      </c>
-      <c r="G304" s="17">
-        <v>1</v>
-      </c>
-      <c r="H304" s="17"/>
-      <c r="I304" s="15" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" ht="16.5">
+      <c r="B304" s="40" t="s">
+        <v>911</v>
+      </c>
+      <c r="C304" s="41" t="s">
+        <v>912</v>
+      </c>
+      <c r="D304" s="40" t="s">
+        <v>913</v>
+      </c>
+      <c r="E304" s="30">
+        <v>1</v>
+      </c>
+      <c r="F304" s="30">
+        <v>1</v>
+      </c>
+      <c r="G304" s="30">
+        <v>1</v>
+      </c>
+      <c r="H304" s="30"/>
+      <c r="I304" s="41" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="40" t="s">
+      <c r="B305" s="18" t="s">
         <v>914</v>
       </c>
-      <c r="C305" s="41" t="s">
+      <c r="C305" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="D305" s="40" t="s">
+      <c r="D305" s="18" t="s">
         <v>916</v>
       </c>
-      <c r="E305" s="30">
-        <v>1</v>
-      </c>
-      <c r="F305" s="30">
-        <v>1</v>
-      </c>
-      <c r="G305" s="30">
-        <v>1</v>
-      </c>
-      <c r="H305" s="30"/>
-      <c r="I305" s="41" t="s">
-        <v>913</v>
+      <c r="E305" s="17">
+        <v>1</v>
+      </c>
+      <c r="F305" s="17">
+        <v>1</v>
+      </c>
+      <c r="G305" s="17">
+        <v>1</v>
+      </c>
+      <c r="I305" s="15" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12762,21 +12724,21 @@
         <v>1</v>
       </c>
       <c r="I306" s="15" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="16">
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C307" s="15" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D307" s="18" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -12787,15 +12749,12 @@
       <c r="G307" s="17">
         <v>1</v>
       </c>
-      <c r="I307" s="15" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="16.5">
+    </row>
+    <row r="308" spans="1:9" s="17" customFormat="1" ht="17.25">
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="18" t="s">
+      <c r="B308" s="39" t="s">
         <v>926</v>
       </c>
       <c r="C308" s="15" t="s">
@@ -12812,6 +12771,9 @@
       </c>
       <c r="G308" s="17">
         <v>1</v>
+      </c>
+      <c r="I308" s="15" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -12819,14 +12781,14 @@
         <v>308</v>
       </c>
       <c r="B309" s="39" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C309" s="15" t="s">
-        <v>930</v>
-      </c>
-      <c r="D309" s="18" t="s">
         <v>931</v>
       </c>
+      <c r="D309" s="39" t="s">
+        <v>932</v>
+      </c>
       <c r="E309" s="17">
         <v>1</v>
       </c>
@@ -12836,21 +12798,21 @@
       <c r="G309" s="17">
         <v>1</v>
       </c>
-      <c r="I309" s="15" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" s="17" customFormat="1" ht="17.25">
+      <c r="I309" s="19" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A310" s="16">
         <v>309</v>
       </c>
-      <c r="B310" s="39" t="s">
+      <c r="B310" s="18" t="s">
         <v>933</v>
       </c>
       <c r="C310" s="15" t="s">
         <v>934</v>
       </c>
-      <c r="D310" s="39" t="s">
+      <c r="D310" s="18" t="s">
         <v>935</v>
       </c>
       <c r="E310" s="17">
@@ -12863,22 +12825,22 @@
         <v>1</v>
       </c>
       <c r="I310" s="19" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="18" t="s">
-        <v>936</v>
+      <c r="B311" s="39" t="s">
+        <v>937</v>
       </c>
       <c r="C311" s="15" t="s">
-        <v>937</v>
-      </c>
-      <c r="D311" s="18" t="s">
         <v>938</v>
       </c>
+      <c r="D311" s="39" t="s">
+        <v>939</v>
+      </c>
       <c r="E311" s="17">
         <v>1</v>
       </c>
@@ -12888,34 +12850,33 @@
       <c r="G311" s="17">
         <v>1</v>
       </c>
-      <c r="I311" s="19" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" s="17" customFormat="1" ht="17.25">
+      <c r="I311" s="15" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="16.5">
       <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="39" t="s">
+      <c r="B312" s="31" t="s">
+        <v>941</v>
+      </c>
+      <c r="C312" s="32" t="s">
+        <v>942</v>
+      </c>
+      <c r="D312" s="23"/>
+      <c r="E312" s="23">
+        <v>1</v>
+      </c>
+      <c r="F312" s="23">
+        <v>1</v>
+      </c>
+      <c r="G312" s="23">
+        <v>1</v>
+      </c>
+      <c r="H312" s="23"/>
+      <c r="I312" s="32" t="s">
         <v>940</v>
-      </c>
-      <c r="C312" s="15" t="s">
-        <v>941</v>
-      </c>
-      <c r="D312" s="39" t="s">
-        <v>942</v>
-      </c>
-      <c r="E312" s="17">
-        <v>1</v>
-      </c>
-      <c r="F312" s="17">
-        <v>1</v>
-      </c>
-      <c r="G312" s="17">
-        <v>1</v>
-      </c>
-      <c r="I312" s="15" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="16.5">
@@ -12923,10 +12884,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="31" t="s">
+        <v>943</v>
+      </c>
+      <c r="C313" s="32" t="s">
         <v>944</v>
-      </c>
-      <c r="C313" s="32" t="s">
-        <v>945</v>
       </c>
       <c r="D313" s="23"/>
       <c r="E313" s="23">
@@ -12940,32 +12901,32 @@
       </c>
       <c r="H313" s="23"/>
       <c r="I313" s="32" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
       <c r="A314" s="16">
         <v>313</v>
       </c>
-      <c r="B314" s="31" t="s">
-        <v>946</v>
-      </c>
-      <c r="C314" s="32" t="s">
-        <v>947</v>
-      </c>
-      <c r="D314" s="23"/>
-      <c r="E314" s="23">
-        <v>1</v>
-      </c>
-      <c r="F314" s="23">
-        <v>1</v>
-      </c>
-      <c r="G314" s="23">
-        <v>1</v>
-      </c>
-      <c r="H314" s="23"/>
-      <c r="I314" s="32" t="s">
-        <v>948</v>
+      <c r="B314" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="C314" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="D314" s="38"/>
+      <c r="E314" s="38">
+        <v>1</v>
+      </c>
+      <c r="F314" s="38">
+        <v>1</v>
+      </c>
+      <c r="G314" s="38">
+        <v>1</v>
+      </c>
+      <c r="H314" s="38"/>
+      <c r="I314" s="37" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
@@ -12993,16 +12954,14 @@
         <v>955</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="16.5">
+    <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A316" s="16">
         <v>315</v>
       </c>
       <c r="B316" s="36" t="s">
         <v>956</v>
       </c>
-      <c r="C316" s="37" t="s">
-        <v>957</v>
-      </c>
+      <c r="C316" s="38"/>
       <c r="D316" s="38"/>
       <c r="E316" s="38">
         <v>1</v>
@@ -13015,7 +12974,7 @@
       </c>
       <c r="H316" s="38"/>
       <c r="I316" s="37" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13023,7 +12982,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="36" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C317" s="38"/>
       <c r="D317" s="38"/>
@@ -13038,17 +12997,19 @@
       </c>
       <c r="H317" s="38"/>
       <c r="I317" s="37" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
       <c r="B318" s="36" t="s">
+        <v>960</v>
+      </c>
+      <c r="C318" s="37" t="s">
         <v>961</v>
       </c>
-      <c r="C318" s="38"/>
       <c r="D318" s="38"/>
       <c r="E318" s="38">
         <v>1</v>
@@ -13061,7 +13022,7 @@
       </c>
       <c r="H318" s="38"/>
       <c r="I318" s="37" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
@@ -13069,10 +13030,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="36" t="s">
+        <v>962</v>
+      </c>
+      <c r="C319" s="37" t="s">
         <v>963</v>
-      </c>
-      <c r="C319" s="37" t="s">
-        <v>964</v>
       </c>
       <c r="D319" s="38"/>
       <c r="E319" s="38">
@@ -13086,20 +13047,16 @@
       </c>
       <c r="H319" s="38"/>
       <c r="I319" s="37" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
       <c r="A320" s="16">
         <v>319</v>
       </c>
-      <c r="B320" s="36" t="s">
-        <v>965</v>
-      </c>
-      <c r="C320" s="37" t="s">
-        <v>966</v>
-      </c>
-      <c r="D320" s="38"/>
+      <c r="B320" s="48" t="s">
+        <v>969</v>
+      </c>
       <c r="E320" s="38">
         <v>1</v>
       </c>
@@ -13109,29 +13066,8 @@
       <c r="G320" s="38">
         <v>1</v>
       </c>
-      <c r="H320" s="38"/>
-      <c r="I320" s="37" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" ht="16.5">
-      <c r="A321" s="16">
-        <v>320</v>
-      </c>
-      <c r="B321" s="48" t="s">
-        <v>972</v>
-      </c>
-      <c r="E321" s="38">
-        <v>1</v>
-      </c>
-      <c r="F321" s="38">
-        <v>1</v>
-      </c>
-      <c r="G321" s="38">
-        <v>1</v>
-      </c>
-      <c r="I321" s="19" t="s">
-        <v>973</v>
+      <c r="I320" s="19" t="s">
+        <v>970</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/game_module_config_cjj.xlsx
+++ b/config_2.2/game_module_config_cjj.xlsx
@@ -4049,6 +4049,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4092,6 +4093,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4778,10 +4780,10 @@
   <dimension ref="A1:AJ320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C280" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C235" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B292" sqref="B292"/>
+      <selection pane="bottomRight" activeCell="G253" sqref="G253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11195,13 +11197,13 @@
         <v>947</v>
       </c>
       <c r="E253" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G253" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253" s="25"/>
       <c r="I253" s="24" t="s">
